--- a/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
@@ -448,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>16251488.22071979</v>
+        <v>16809798.93693321</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>19561.7719466427</v>
+        <v>20233.51388291655</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>19862.05855786936</v>
+        <v>20543.8154838252</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>20168.77154189027</v>
+        <v>20860.75444258505</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>20482.13272791239</v>
+        <v>21184.55988185206</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>20802.37284543535</v>
+        <v>21515.47011524139</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>21129.73177328009</v>
+        <v>21853.73290415585</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>21464.45878499387</v>
+        <v>22199.60571084013</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>21806.81278966786</v>
+        <v>22553.35594666439</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>22157.06256686629</v>
+        <v>22915.26121429186</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>22515.48699480865</v>
+        <v>23285.60954284319</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>22882.37527065635</v>
+        <v>23664.69961487014</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>23258.02712140521</v>
+        <v>24052.84098358939</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>23642.75300453017</v>
+        <v>24450.35427949483</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>24036.87429666014</v>
+        <v>24857.57140456807</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>24440.72346929584</v>
+        <v>25274.83571306758</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>24854.64424983093</v>
+        <v>25702.50217709884</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>25278.99176663677</v>
+        <v>26140.93753568469</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>25714.13267667098</v>
+        <v>26590.52042574553</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>26160.44527392028</v>
+        <v>27051.64149324371</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>26618.31957740492</v>
+        <v>27524.70348317829</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>27088.15739681331</v>
+        <v>28010.12130643505</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>27570.37237434473</v>
+        <v>28508.32208202362</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>28065.39000111979</v>
+        <v>29019.74515300817</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>28573.6476062848</v>
+        <v>29544.8420741967</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>29095.59431741694</v>
+        <v>30084.07657015154</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>29631.6909903044</v>
+        <v>30637.92446153298</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>30182.410106536</v>
+        <v>31206.87355816062</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>30748.23563728493</v>
+        <v>31791.42351712579</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>31329.6628714431</v>
+        <v>32392.08566405288</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>31927.19820666513</v>
+        <v>33009.38277602369</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>32541.35890164031</v>
+        <v>33643.8488244302</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>33172.67278800226</v>
+        <v>34296.02867611612</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>33821.677940459</v>
+        <v>34966.47775134652</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>34488.92230357861</v>
+        <v>35655.76163699247</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>35174.96327398805</v>
+        <v>36364.45565365123</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>35880.3672364762</v>
+        <v>37093.14437514734</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>36605.709053034</v>
+        <v>37842.42109941996</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>37351.57150351995</v>
+        <v>38612.88726944599</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>38118.54467702297</v>
+        <v>39405.15184324539</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>38907.22531290799</v>
+        <v>40219.8306119257</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>39718.21609109057</v>
+        <v>41057.54546530249</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>40552.12487043675</v>
+        <v>41918.92360396123</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>41409.56387527085</v>
+        <v>42804.59669774858</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>42291.14882936193</v>
+        <v>43715.19999004903</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>43197.49803729122</v>
+        <v>44651.37134775261</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>44129.23141345852</v>
+        <v>45613.75025718634</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>45086.96945854508</v>
+        <v>46602.97676582755</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>46071.33218413791</v>
+        <v>47619.69037053444</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>47082.93798610834</v>
+        <v>48664.52885291264</v>
       </c>
     </row>
     <row r="52">
@@ -848,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>48122.40246739281</v>
+        <v>49738.12706249458</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>49190.3372114404</v>
+        <v>50841.11564904459</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>50287.34850739969</v>
+        <v>51974.11974510513</v>
       </c>
     </row>
     <row r="55">
@@ -872,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>51414.0360288488</v>
+        <v>53137.75760065444</v>
       </c>
     </row>
     <row r="56">
@@ -880,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>52570.99146744172</v>
+        <v>54332.639171301</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>53758.79712376633</v>
+        <v>55559.36466239314</v>
       </c>
     </row>
     <row r="58">
@@ -896,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>54978.02445766786</v>
+        <v>56818.52303137883</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>56229.23260023474</v>
+        <v>58110.69045069156</v>
       </c>
     </row>
     <row r="60">
@@ -912,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>57512.96683054093</v>
+        <v>59436.42873436557</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>58829.7570200367</v>
+        <v>60796.28373137362</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>60180.11604777935</v>
+        <v>62190.78368899077</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>61564.53819004443</v>
+        <v>63620.43758984707</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>62983.49748832139</v>
+        <v>65085.73346681067</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>64437.44609919697</v>
+        <v>66587.13669932546</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>65926.81263106897</v>
+        <v>68125.08829631378</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>67452.00047150212</v>
+        <v>69700.00316958553</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>69013.38611043182</v>
+        <v>71312.26840313515</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>70611.31746401075</v>
+        <v>72962.24152328307</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>72246.11220415757</v>
+        <v>74650.24877488968</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>73918.0560992017</v>
+        <v>76376.58340921627</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>75627.40137132685</v>
+        <v>78141.50398932502</v>
       </c>
     </row>
     <row r="73">
@@ -1016,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>77374.36507617334</v>
+        <v>79945.23271855491</v>
       </c>
     </row>
     <row r="74">
@@ -1024,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>79159.12751078425</v>
+        <v>81787.95379846304</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>80981.83065567137</v>
+        <v>83669.81182219688</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>82842.57665717613</v>
+        <v>85590.91020967398</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>84741.42635629876</v>
+        <v>87551.30969094421</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>86678.39787034267</v>
+        <v>89551.02684428693</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>88653.46523354363</v>
+        <v>91590.03269541213</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>90666.55710323146</v>
+        <v>93668.25138452357</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>92717.555537728</v>
+        <v>95785.55890764686</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>94806.29485239816</v>
+        <v>97941.78193884337</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>96932.56056012731</v>
+        <v>100136.6967397819</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>99096.08840246992</v>
+        <v>102370.0281631109</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>101296.5634775395</v>
+        <v>104641.4487558907</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>103533.6194707316</v>
+        <v>106950.5779693686</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>105806.8379938597</v>
+        <v>109296.9814808476</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>108115.7480387471</v>
+        <v>111680.1706338805</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>110459.8255504667</v>
+        <v>114099.6020021367</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>112838.4931252177</v>
+        <v>116554.677082083</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>115251.1198382778</v>
+        <v>119044.7421200806</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>117697.0212062327</v>
+        <v>121569.0880782212</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>120175.4592878238</v>
+        <v>124126.9507433726</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>122685.6429275403</v>
+        <v>126717.5109836756</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>125226.7281453849</v>
+        <v>129339.8951560192</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>127797.8186758514</v>
+        <v>131993.1756676117</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>130397.9666590665</v>
+        <v>134676.3716946802</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>133026.1734861684</v>
+        <v>137388.4500604187</v>
       </c>
     </row>
     <row r="99">
@@ -1224,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>135681.3908008017</v>
+        <v>140128.3262741074</v>
       </c>
     </row>
     <row r="100">
@@ -1232,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>138362.5216579865</v>
+        <v>142894.8657326814</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>141068.4218410263</v>
+        <v>145686.8850854158</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>143797.9013370189</v>
+        <v>148503.1537622883</v>
       </c>
     </row>
     <row r="103">
@@ -1256,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>146549.7259702581</v>
+        <v>151342.3956652654</v>
       </c>
     </row>
     <row r="104">
@@ -1264,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>149322.6191928285</v>
+        <v>154203.2910217681</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>152115.2640312182</v>
+        <v>157084.4783990844</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>154926.3051863721</v>
+        <v>159984.5568770469</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>157754.3512851972</v>
+        <v>162902.0883768988</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>160597.9772798062</v>
+        <v>165835.6001424966</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>163455.7269911254</v>
+        <v>168783.5873703416</v>
       </c>
     </row>
     <row r="110">
@@ -1312,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>166326.1157923079</v>
+        <v>171744.5159837153</v>
       </c>
     </row>
     <row r="111">
@@ -1320,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>169207.6334269808</v>
+        <v>174716.8255457644</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>172098.7469569897</v>
+        <v>177698.9323060075</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>174997.9038332881</v>
+        <v>180689.2323736846</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>177903.5350836521</v>
+        <v>183686.1050114066</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>180814.0586097736</v>
+        <v>186687.9160414003</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>183727.8825861749</v>
+        <v>189693.0213565283</v>
       </c>
     </row>
     <row r="117">
@@ -1368,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>186643.4089527361</v>
+        <v>192699.7705275945</v>
       </c>
     </row>
     <row r="118">
@@ -1376,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>189559.0369922107</v>
+        <v>195706.5104980158</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>192473.1669834575</v>
+        <v>198711.5893562739</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>195384.2039210607</v>
+        <v>201713.3601765057</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>198290.5612912657</v>
+        <v>204710.1849168195</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>201190.6648940281</v>
+        <v>207700.4383647979</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>204082.9567004983</v>
+        <v>210682.5121191524</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>206965.8987351168</v>
+        <v>213654.8185963495</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>209837.9769711506</v>
+        <v>216615.7950506706</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>212697.7052283648</v>
+        <v>219563.9075960306</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>215543.6290612262</v>
+        <v>222497.6552175735</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>218374.3296262</v>
+        <v>225415.5737612367</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>221188.4275161708</v>
+        <v>228316.239888928</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>223984.5865506338</v>
+        <v>231198.2749875968</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>226761.5175094267</v>
+        <v>234060.3490195804</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>229517.9817989315</v>
+        <v>236901.1843028014</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>232252.7950388129</v>
+        <v>239719.5592085052</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>234964.8305578833</v>
+        <v>242514.3117647696</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>237653.0227884041</v>
+        <v>245284.3431547614</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>240316.3705470907</v>
+        <v>248028.6210976414</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>242953.9401930303</v>
+        <v>250746.1831020245</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>245564.8686516735</v>
+        <v>253436.1395808244</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>248148.3662950552</v>
+        <v>256097.6768173354</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>250703.7196690621</v>
+        <v>258730.059773093</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>253230.2940583893</v>
+        <v>261332.6347278752</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>255727.5358807818</v>
+        <v>263904.8317431882</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>258194.9749028094</v>
+        <v>266446.1669412616</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>260632.2262693662</v>
+        <v>268956.2445915138</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>263038.9923405902</v>
+        <v>271434.7589980073</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>265415.0643295771</v>
+        <v>273881.4961810801</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>267760.3237359812</v>
+        <v>276296.3353481145</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>270074.7435700771</v>
+        <v>278679.2501478716</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>272358.3893637981</v>
+        <v>281030.3097048222</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>274611.4199651536</v>
+        <v>283349.6794297925</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>276834.0881132536</v>
+        <v>285637.6216040882</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>279026.7407926142</v>
+        <v>287894.4957357648</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>281189.8193651032</v>
+        <v>290120.7586863743</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>283323.8594797783</v>
+        <v>292316.9645684839</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>285429.4907606554</v>
+        <v>294483.7644140313</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>287507.436273867</v>
+        <v>296621.905615059</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>289558.5117764681</v>
+        <v>298732.2311391806</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>291583.6247490493</v>
+        <v>300815.6785220437</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>293583.7732164706</v>
+        <v>302873.2786412659</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>295560.0443603312</v>
+        <v>304906.1542756059</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>297513.6129285708</v>
+        <v>306915.5184549644</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>299445.7394476961</v>
+        <v>308902.6726069123</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>301357.7682440371</v>
+        <v>310869.0045063802</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>303251.1252811154</v>
+        <v>312815.9860358458</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>305127.3158204458</v>
+        <v>314745.1707635951</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>306987.9219143628</v>
+        <v>316658.1913489495</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>308834.5997394075</v>
+        <v>318556.7567832867</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>310669.0767794279</v>
+        <v>320442.6494763206</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>312493.1488682933</v>
+        <v>322317.7221978772</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>314308.6771024053</v>
+        <v>324183.8948856911</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>316117.5846333692</v>
+        <v>326043.1513299292</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>317921.8533518949</v>
+        <v>327897.5357458849</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>319723.5204740752</v>
+        <v>329749.1492463492</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>321524.6750415287</v>
+        <v>331600.1462255323</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>323327.4543469853</v>
+        <v>333452.7306664815</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>325134.0402973036</v>
+        <v>335309.152384384</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>326946.6557258195</v>
+        <v>337171.7032180289</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>328767.5606659901</v>
+        <v>339042.7131817831</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>330599.0485985293</v>
+        <v>340924.5465906634</v>
       </c>
     </row>
     <row r="180">
@@ -1872,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>332443.4426839224</v>
+        <v>342819.5981707723</v>
       </c>
     </row>
     <row r="181">
@@ -1880,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>334303.0919924554</v>
+        <v>344730.2891676167</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>336180.3677435639</v>
+        <v>346659.0634644849</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>338077.6595661521</v>
+        <v>348608.3837228983</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>339997.3717914329</v>
+        <v>350580.7275570478</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>341941.9197897677</v>
+        <v>352578.5837540508</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>343913.7263621958</v>
+        <v>354604.4485510446</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>345915.2181975567</v>
+        <v>356660.8219803565</v>
       </c>
     </row>
     <row r="188">
@@ -1936,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>347948.822405675</v>
+        <v>358750.2042935371</v>
       </c>
     </row>
     <row r="189">
@@ -1944,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>350016.9631361528</v>
+        <v>360875.0924740902</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>352122.0582929734</v>
+        <v>363037.9768494093</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>354266.5163534557</v>
+        <v>365241.3378107153</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>356452.7333004516</v>
+        <v>367487.6426501464</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>358683.089676302</v>
+        <v>369779.3425237712</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>360959.9477655087</v>
+        <v>372118.8695476752</v>
       </c>
     </row>
     <row r="195">
@@ -1992,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>363285.6489138312</v>
+        <v>374508.6340350566</v>
       </c>
     </row>
     <row r="196">
@@ -2000,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>365662.5109902955</v>
+        <v>376951.0218809984</v>
       </c>
     </row>
     <row r="197">
@@ -2008,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>368092.8259979608</v>
+        <v>379448.392100924</v>
       </c>
     </row>
     <row r="198">
@@ -2016,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>370578.8578390471</v>
+        <v>382003.0745284934</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>373122.8402393907</v>
+        <v>384617.3676780353</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>375726.9748362798</v>
+        <v>387293.5367756766</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>378393.4294337287</v>
+        <v>390033.8119633217</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>381124.336428087</v>
+        <v>392840.3866784497</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>383921.8770767786</v>
+        <v>395715.5045142638</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>386787.9469785538</v>
+        <v>398661.1144247758</v>
       </c>
     </row>
     <row r="205">
@@ -2072,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>389724.641592688</v>
+        <v>401679.3711675465</v>
       </c>
     </row>
     <row r="206">
@@ -2080,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>392733.9394681323</v>
+        <v>404772.3087998829</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>395817.7785013599</v>
+        <v>407941.9192843369</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>398978.0554179301</v>
+        <v>411190.1519578526</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>402216.6254305898</v>
+        <v>414518.9131829426</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>405535.3020724444</v>
+        <v>417930.0661793515</v>
       </c>
     </row>
     <row r="211">
@@ -2120,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>408935.857203479</v>
+        <v>421425.4310344109</v>
       </c>
     </row>
     <row r="212">
@@ -2128,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>412420.0211881947</v>
+        <v>425006.7848897535</v>
       </c>
     </row>
     <row r="213">
@@ -2136,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>415989.4832414918</v>
+        <v>428675.8623014046</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>419645.8919397962</v>
+        <v>432434.3557701315</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>423390.8558940452</v>
+        <v>436283.9164385328</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>427225.9445801669</v>
+        <v>440226.1549503486</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>431152.6893231159</v>
+        <v>444262.6424679052</v>
       </c>
     </row>
     <row r="218">
@@ -2176,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>435172.5844298079</v>
+        <v>448394.9118428724</v>
       </c>
     </row>
     <row r="219">
@@ -2184,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>439287.0884657698</v>
+        <v>452624.4589349673</v>
       </c>
     </row>
     <row r="220">
@@ -2192,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>443497.6256704955</v>
+        <v>456952.744073418</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>447805.5875063595</v>
+        <v>461381.193655864</v>
       </c>
     </row>
     <row r="222">
@@ -2208,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>452212.3343341306</v>
+        <v>465911.201877496</v>
       </c>
     </row>
     <row r="223">
@@ -2216,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>456719.1972110035</v>
+        <v>470544.1325862114</v>
       </c>
     </row>
     <row r="224">
@@ -2224,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>461327.4798031934</v>
+        <v>475281.3212555706</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>466038.4604084695</v>
+        <v>480124.0770707641</v>
       </c>
     </row>
     <row r="226">
@@ -2240,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>470853.3940803348</v>
+        <v>485073.6851190325</v>
       </c>
     </row>
     <row r="227">
@@ -2248,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>475773.5148496494</v>
+        <v>490131.4086801916</v>
       </c>
     </row>
     <row r="228">
@@ -2256,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>480800.0380347079</v>
+        <v>495298.4916079786</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>485934.1626347383</v>
+        <v>500576.1607970268</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>491177.0737992043</v>
+        <v>505965.6287275979</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>496529.9453667835</v>
+        <v>511468.0960817501</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>501993.9424661697</v>
+        <v>517084.7544228365</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>507570.2241729815</v>
+        <v>522816.7889324353</v>
       </c>
     </row>
     <row r="234">
@@ -2304,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>513259.94621557</v>
+        <v>528665.3811972736</v>
       </c>
     </row>
     <row r="235">
@@ -2312,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>519064.2637224097</v>
+        <v>534631.7120385981</v>
       </c>
     </row>
     <row r="236">
@@ -2320,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>524984.334005311</v>
+        <v>540716.9643780509</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>531021.3193709636</v>
+        <v>546922.3261323259</v>
       </c>
     </row>
     <row r="238">
@@ -2336,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>537176.3899544514</v>
+        <v>553248.9931300461</v>
       </c>
     </row>
     <row r="239">
@@ -2344,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>543450.7265683477</v>
+        <v>559698.1720442745</v>
       </c>
     </row>
     <row r="240">
@@ -2352,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>549845.5235606572</v>
+        <v>566271.0833337209</v>
       </c>
     </row>
     <row r="241">
@@ -2360,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>556361.9916749503</v>
+        <v>572968.9641857789</v>
       </c>
     </row>
     <row r="242">
@@ -2368,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>563001.3609071522</v>
+        <v>579793.0714556964</v>
       </c>
     </row>
     <row r="243">
@@ -2376,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>569764.8833518643</v>
+        <v>586744.684594535</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>576653.8360322367</v>
+        <v>593825.1085597606</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>583669.5237079008</v>
+        <v>601035.6767028088</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>590813.281653896</v>
+        <v>608377.753626351</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>598086.4784057112</v>
+        <v>615852.7380062368</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>605490.51846372</v>
+        <v>623462.0653711953</v>
       </c>
     </row>
     <row r="249">
@@ -2424,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>613026.844951654</v>
+        <v>631207.2108347855</v>
       </c>
     </row>
     <row r="250">
@@ -2432,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>620696.9422232006</v>
+        <v>639089.6917735077</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>628502.3384112336</v>
+        <v>647111.0704454321</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>636444.6079134088</v>
+        <v>655272.9565428937</v>
       </c>
     </row>
     <row r="253">
@@ -2456,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>644525.3738094058</v>
+        <v>663577.0096744068</v>
       </c>
     </row>
     <row r="254">
@@ -2464,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>652746.310203564</v>
+        <v>672024.9417693657</v>
       </c>
     </row>
     <row r="255">
@@ -2472,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>661109.1444871302</v>
+        <v>680618.5193995936</v>
       </c>
     </row>
     <row r="256">
@@ -2480,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>669615.6595153022</v>
+        <v>689359.566012789</v>
       </c>
     </row>
     <row r="257">
@@ -2488,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>678267.695692871</v>
+        <v>698249.9640715041</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>687067.1529627657</v>
+        <v>707291.6570917994</v>
       </c>
     </row>
     <row r="259">
@@ -2504,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>696015.9926920539</v>
+        <v>716486.6515759911</v>
       </c>
     </row>
     <row r="260">
@@ -2512,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>705116.2394499626</v>
+        <v>725837.0188338978</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>714369.9826710625</v>
+        <v>735344.8966855578</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>723779.3781993221</v>
+        <v>745012.4910410054</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>733346.6497055009</v>
+        <v>754842.0773493762</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>743074.0899725338</v>
+        <v>764836.0019118597</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>752964.0620437097</v>
+        <v>774996.6830531663</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>763019.000224554</v>
+        <v>785326.6121421771</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>773241.4109355391</v>
+        <v>795828.354458841</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>783633.8734064129</v>
+        <v>806504.5498978638</v>
       </c>
     </row>
     <row r="269">
@@ -2584,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>794199.0402060749</v>
+        <v>817357.9135029691</v>
       </c>
     </row>
     <row r="270">
@@ -2592,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>804939.637601987</v>
+        <v>828391.23582557</v>
       </c>
     </row>
     <row r="271">
@@ -2600,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>815858.465740703</v>
+        <v>839607.3830992212</v>
       </c>
     </row>
     <row r="272">
@@ -2608,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>826958.3986435982</v>
+        <v>851009.2972237893</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>838242.3840091674</v>
+        <v>862599.9955504943</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>849713.4428152776</v>
+        <v>874382.5704610473</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>861374.668713202</v>
+        <v>886360.1887325118</v>
       </c>
     </row>
     <row r="276">
@@ -2640,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>873229.2272051934</v>
+        <v>898536.0906794448</v>
       </c>
     </row>
     <row r="277">
@@ -2648,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>885280.3545983607</v>
+        <v>910913.5890659121</v>
       </c>
     </row>
     <row r="278">
@@ -2656,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>897531.3567255858</v>
+        <v>923496.0677778824</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>909985.6074257626</v>
+        <v>936286.980248114</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>922646.5467742834</v>
+        <v>949289.8476242262</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>935517.6790555698</v>
+        <v>962508.2566715785</v>
       </c>
     </row>
     <row r="282">
@@ -2688,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>948602.5704683014</v>
+        <v>975945.8574013772</v>
       </c>
     </row>
     <row r="283">
@@ -2696,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>961904.8465547673</v>
+        <v>989606.3604152479</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>975428.1893451083</v>
+        <v>1003493.533956822</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>989176.3342074992</v>
+        <v>1017611.200661194</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1003153.06639545</v>
+        <v>1031963.233993218</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1017362.21728216</v>
+        <v>1046553.554364362</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1031807.660274317</v>
+        <v>1061386.124920353</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1046493.306395132</v>
+        <v>1076464.946989167</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1061423.099528517</v>
+        <v>1091794.055181113</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1076601.011315402</v>
+        <v>1107377.512131823</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1092031.035693692</v>
+        <v>1123219.402879464</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1107717.183073723</v>
+        <v>1139323.828867885</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1123663.474142027</v>
+        <v>1155694.901568371</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1139873.93328416</v>
+        <v>1172336.735710577</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1156352.581621817</v>
+        <v>1189253.442117805</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1173103.429656248</v>
+        <v>1206449.120138504</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1190130.469512426</v>
+        <v>1223927.849668349</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1207437.66677879</v>
+        <v>1241693.682757689</v>
       </c>
     </row>
     <row r="300">
@@ -2832,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1225028.951938757</v>
+        <v>1259750.634800513</v>
       </c>
     </row>
     <row r="301">
@@ -2840,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1242908.211389457</v>
+        <v>1278102.675300361</v>
       </c>
     </row>
     <row r="302">
@@ -2848,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1261079.278045035</v>
+        <v>1296753.71821054</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1279545.921524758</v>
+        <v>1315707.611848977</v>
       </c>
     </row>
     <row r="304">
@@ -2864,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1298311.837923068</v>
+        <v>1334968.128384865</v>
       </c>
     </row>
     <row r="305">
@@ -2872,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1317380.639163608</v>
+        <v>1354538.952899281</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1336755.84194009</v>
+        <v>1374423.672022819</v>
       </c>
     </row>
     <row r="307">
@@ -2888,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1356440.856246321</v>
+        <v>1394625.762152717</v>
       </c>
     </row>
     <row r="308">
@@ -2896,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1376438.973501012</v>
+        <v>1415148.577255358</v>
       </c>
     </row>
     <row r="309">
@@ -2904,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1396753.354275492</v>
+        <v>1435995.336262589</v>
       </c>
     </row>
     <row r="310">
@@ -2912,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1417387.015631861</v>
+        <v>1457169.110069691</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1438342.81808176</v>
+        <v>1478672.808145575</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1459623.452180842</v>
+        <v>1500509.164770793</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1481231.424772274</v>
+        <v>1522680.724917152</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1503169.044895856</v>
+        <v>1545189.829786086</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1525438.409384533</v>
+        <v>1568038.60202825</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1548041.388169197</v>
+        <v>1591228.930665888</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1570979.609316175</v>
+        <v>1614762.455743155</v>
       </c>
     </row>
     <row r="318">
@@ -2976,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1594254.443827032</v>
+        <v>1638640.552734904</v>
       </c>
     </row>
     <row r="319">
@@ -2984,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1617866.990228444</v>
+        <v>1662864.316742544</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1641818.058986973</v>
+        <v>1687434.546512829</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1666108.156786207</v>
+        <v>1712351.728318154</v>
       </c>
     </row>
     <row r="322">
@@ -3008,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1690737.470702266</v>
+        <v>1737616.019735391</v>
       </c>
     </row>
     <row r="323">
@@ -3016,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1715705.852324012</v>
+        <v>1763227.233370952</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1741012.801859563</v>
+        <v>1789184.820574845</v>
       </c>
     </row>
     <row r="325">
@@ -3032,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1766657.452282353</v>
+        <v>1815487.855198504</v>
       </c>
     </row>
     <row r="326">
@@ -3040,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1792638.553564004</v>
+        <v>1842135.017444921</v>
       </c>
     </row>
     <row r="327">
@@ -3048,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1818954.457051901</v>
+        <v>1869124.577870648</v>
       </c>
     </row>
     <row r="328">
@@ -3056,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1845603.100049041</v>
+        <v>1896454.381598765</v>
       </c>
     </row>
     <row r="329">
@@ -3064,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1872581.990656022</v>
+        <v>1924121.832804355</v>
       </c>
     </row>
     <row r="330">
@@ -3072,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1899888.192940203</v>
+        <v>1952123.879539246</v>
       </c>
     </row>
     <row r="331">
@@ -3080,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1927518.312498541</v>
+        <v>1980456.998964331</v>
       </c>
     </row>
     <row r="332">
@@ -3088,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1955468.482483608</v>
+        <v>2009117.183060829</v>
       </c>
     </row>
     <row r="333">
@@ -3096,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1983734.350163694</v>
+        <v>2038099.924893235</v>
       </c>
     </row>
     <row r="334">
@@ -3104,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2012311.064092978</v>
+        <v>2067400.205501971</v>
       </c>
     </row>
     <row r="335">
@@ -3112,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2041193.261966431</v>
+        <v>2097012.481502317</v>
       </c>
     </row>
     <row r="336">
@@ -3120,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2070375.059238385</v>
+        <v>2126930.673470617</v>
       </c>
     </row>
     <row r="337">
@@ -3128,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2099850.03858488</v>
+        <v>2157148.155199892</v>
       </c>
     </row>
     <row r="338">
@@ -3136,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2129611.240289778</v>
+        <v>2187657.743906911</v>
       </c>
     </row>
     <row r="339">
@@ -3144,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2159651.153636386</v>
+        <v>2218451.691474487</v>
       </c>
     </row>
     <row r="340">
@@ -3152,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2189961.709389924</v>
+        <v>2249521.676816475</v>
       </c>
     </row>
     <row r="341">
@@ -3160,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2220534.273449689</v>
+        <v>2280858.799446257</v>
       </c>
     </row>
     <row r="342">
@@ -3168,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2251359.64175574</v>
+        <v>2312453.574335605</v>
       </c>
     </row>
     <row r="343">
@@ -3176,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2282428.036532599</v>
+        <v>2344295.928148406</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2313729.103949071</v>
+        <v>2376375.196930222</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>2345251.913276228</v>
+        <v>2408680.125337665</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>2376984.957616957</v>
+        <v>2441198.86748265</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>2408916.156288243</v>
+        <v>2473918.989474564</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>2441032.858920817</v>
+        <v>2506827.473726377</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>2473321.851352232</v>
+        <v>2539910.725102433</v>
       </c>
     </row>
     <row r="350">
@@ -3232,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>2505769.363370333</v>
+        <v>2573154.578966031</v>
       </c>
     </row>
     <row r="351">
@@ -3240,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>2538361.078374026</v>
+        <v>2606544.311195097</v>
       </c>
     </row>
     <row r="352">
@@ -3248,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2571082.145000277</v>
+        <v>2640064.650215779</v>
       </c>
     </row>
     <row r="353">
@@ -3256,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2603917.190770461</v>
+        <v>2673699.791108041</v>
       </c>
     </row>
     <row r="354">
@@ -3264,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2636850.337795831</v>
+        <v>2707433.411823679</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2669865.220580871</v>
+        <v>2741248.691556063</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2702945.005951383</v>
+        <v>2775128.331288698</v>
       </c>
     </row>
     <row r="357">
@@ -3288,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2736072.415129477</v>
+        <v>2809054.576544881</v>
       </c>
     </row>
     <row r="358">
@@ -3296,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2769229.747968627</v>
+        <v>2776109.664221636</v>
       </c>
     </row>
     <row r="359">
@@ -3304,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2802398.909352215</v>
+        <v>2809337.172545706</v>
       </c>
     </row>
     <row r="360">
@@ -3312,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2835561.437751828</v>
+        <v>2842557.399756503</v>
       </c>
     </row>
     <row r="361">
@@ -3320,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2868698.535930963</v>
+        <v>2875751.500148525</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2901791.103771468</v>
+        <v>2908900.325031503</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2934819.773185853</v>
+        <v>2941984.457745175</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2967764.945077944</v>
+        <v>2974984.250725699</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>3000606.828291418</v>
+        <v>3007879.864562954</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>3033325.48048486</v>
+        <v>3040651.308987085</v>
       </c>
     </row>
     <row r="367">
@@ -3368,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>3065900.85086129</v>
+        <v>3073278.48571193</v>
       </c>
     </row>
     <row r="368">
@@ -3376,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>3098312.824660514</v>
+        <v>3105741.233043332</v>
       </c>
     </row>
     <row r="369">
@@ -3384,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>3130541.269327273</v>
+        <v>3138019.372164967</v>
       </c>
     </row>
     <row r="370">
@@ -3392,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>3162566.082242435</v>
+        <v>3170092.754988556</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>3194367.239907307</v>
+        <v>3201941.31345814</v>
       </c>
     </row>
     <row r="372">
@@ -3408,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>3225924.848456042</v>
+        <v>3233545.110182997</v>
       </c>
     </row>
     <row r="373">
@@ -3416,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>3257219.195360191</v>
+        <v>3388885.299281784</v>
       </c>
     </row>
     <row r="374">
@@ -3424,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>3288230.802186533</v>
+        <v>3420978.981664509</v>
       </c>
     </row>
     <row r="375">
@@ -3432,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>3318940.478258152</v>
+        <v>3452754.873753157</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>3349329.375059051</v>
+        <v>3484193.401135608</v>
       </c>
     </row>
     <row r="377">
@@ -3448,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>3379379.04122184</v>
+        <v>3515275.406654988</v>
       </c>
     </row>
     <row r="378">
@@ -3456,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>3409071.477927062</v>
+        <v>3545982.207956288</v>
       </c>
     </row>
     <row r="379">
@@ -3464,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>3438389.194539387</v>
+        <v>3576295.65526115</v>
       </c>
     </row>
     <row r="380">
@@ -3472,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>3467315.264301209</v>
+        <v>3606198.189183963</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>3495833.379901437</v>
+        <v>3635672.898399531</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>3523927.908732612</v>
+        <v>3664703.576967916</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3551583.947651749</v>
+        <v>3833192.298430792</v>
       </c>
     </row>
     <row r="384">
@@ -3504,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3578787.377051414</v>
+        <v>3862229.316188761</v>
       </c>
     </row>
     <row r="385">
@@ -3512,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3605524.914059177</v>
+        <v>3890757.807750467</v>
       </c>
     </row>
     <row r="386">
@@ -3520,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3631784.164671948</v>
+        <v>3918764.5038021</v>
       </c>
     </row>
     <row r="387">
@@ -3528,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3657553.67464302</v>
+        <v>3946237.154025984</v>
       </c>
     </row>
     <row r="388">
@@ -3536,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3682822.978936432</v>
+        <v>3973164.580058241</v>
       </c>
     </row>
     <row r="389">
@@ -3544,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3707582.649568729</v>
+        <v>3999536.726676525</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3731824.341662609</v>
+        <v>4025344.711029299</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3755540.837538695</v>
+        <v>4050580.869720103</v>
       </c>
     </row>
     <row r="392">
@@ -3568,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3778726.088681207</v>
+        <v>4075238.8035707</v>
       </c>
     </row>
     <row r="393">
@@ -3576,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>3801375.255412557</v>
+        <v>3680989.316617112</v>
       </c>
     </row>
     <row r="394">
@@ -3584,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3823484.744128304</v>
+        <v>3702600.674778486</v>
       </c>
     </row>
     <row r="395">
@@ -3592,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3845052.241935718</v>
+        <v>3723690.029721843</v>
       </c>
     </row>
     <row r="396">
@@ -3600,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3866076.748561339</v>
+        <v>3744256.337885962</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3886558.605387601</v>
+        <v>3764299.854546647</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3906499.52149086</v>
+        <v>3783822.159391264</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3925902.59656266</v>
+        <v>3802826.179085458</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3944772.340591895</v>
+        <v>3821316.20671246</v>
       </c>
     </row>
     <row r="401">
@@ -3640,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3963114.690209061</v>
+        <v>3839297.917988157</v>
       </c>
     </row>
     <row r="402">
@@ -3648,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3980937.021578389</v>
+        <v>3856778.384140082</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>3998248.159749791</v>
+        <v>3395040.766573231</v>
       </c>
     </row>
     <row r="404">
@@ -3664,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>4015058.384375766</v>
+        <v>3410125.849054364</v>
       </c>
     </row>
     <row r="405">
@@ -3672,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>4031379.431700853</v>
+        <v>3424804.35753828</v>
       </c>
     </row>
     <row r="406">
@@ -3680,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>4047224.49274682</v>
+        <v>3439087.239600531</v>
       </c>
     </row>
     <row r="407">
@@ -3688,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>4062608.207609488</v>
+        <v>3452986.683770251</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>4077546.65578495</v>
+        <v>3466516.112848943</v>
       </c>
     </row>
     <row r="409">
@@ -3704,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>4092057.342459621</v>
+        <v>3479690.173797821</v>
       </c>
     </row>
     <row r="410">
@@ -3712,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>4106159.18067237</v>
+        <v>3492524.724109916</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>4119872.469291909</v>
+        <v>3505036.814612577</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>4133218.86671643</v>
+        <v>3517244.668615105</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>4146221.360233791</v>
+        <v>3556575.487217341</v>
       </c>
     </row>
     <row r="414">
@@ -3744,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>4158904.230953337</v>
+        <v>3568312.323414119</v>
       </c>
     </row>
     <row r="415">
@@ -3752,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>4171293.014236344</v>
+        <v>3579804.370263181</v>
       </c>
     </row>
     <row r="416">
@@ -3760,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>4183414.455541428</v>
+        <v>3591074.434707449</v>
       </c>
     </row>
     <row r="417">
@@ -3768,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>4195296.461602616</v>
+        <v>3602146.342187083</v>
       </c>
     </row>
     <row r="418">
@@ -3776,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>4206968.046851293</v>
+        <v>3613044.891983778</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>4218459.274998545</v>
+        <v>3623795.808351746</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>4229801.195687062</v>
+        <v>3634425.687349672</v>
       </c>
     </row>
     <row r="421">
@@ -3800,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>4241025.77612635</v>
+        <v>3644961.939291673</v>
       </c>
     </row>
     <row r="422">
@@ -3808,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>4252165.827617534</v>
+        <v>3655432.726728595</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>4263254.926890777</v>
+        <v>3665866.897885169</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>4274327.332160539</v>
+        <v>3676293.915462994</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>4285417.893835502</v>
+        <v>3686743.780746231</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>4296561.959799056</v>
+        <v>3697246.952928734</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>4307795.275212068</v>
+        <v>3707834.263611849</v>
       </c>
     </row>
     <row r="428">
@@ -3856,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>4319153.876788716</v>
+        <v>3718536.826421198</v>
       </c>
     </row>
     <row r="429">
@@ -3864,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>4330673.981511137</v>
+        <v>3729385.94170343</v>
       </c>
     </row>
     <row r="430">
@@ -3872,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>4342391.869780151</v>
+        <v>3740412.996290877</v>
       </c>
     </row>
     <row r="431">
@@ -3880,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>4354343.763011163</v>
+        <v>3751649.358332188</v>
       </c>
     </row>
     <row r="432">
@@ -3888,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>4366565.695715584</v>
+        <v>3763126.26721382</v>
       </c>
     </row>
     <row r="433">
@@ -3896,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>4379093.382146899</v>
+        <v>3774874.718630632</v>
       </c>
     </row>
     <row r="434">
@@ -3904,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>4391962.077613003</v>
+        <v>3786925.344883303</v>
       </c>
     </row>
     <row r="435">
@@ -3912,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>4405206.434615657</v>
+        <v>3799308.290531385</v>
       </c>
     </row>
     <row r="436">
@@ -3920,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>4418860.354001562</v>
+        <v>3812053.083551436</v>
       </c>
     </row>
     <row r="437">
@@ -3928,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>4432956.831386471</v>
+        <v>3825188.502216199</v>
       </c>
     </row>
     <row r="438">
@@ -3936,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>4447527.799141227</v>
+        <v>3838742.437934902</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>4462603.964316703</v>
+        <v>3852741.754371205</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>4478214.642921796</v>
+        <v>3867212.143187949</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>4494387.591062447</v>
+        <v>3882177.976849611</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>4511148.83350539</v>
+        <v>3897662.158962271</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>4528522.490310355</v>
+        <v>3913685.972701021</v>
       </c>
     </row>
     <row r="444">
@@ -3984,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>4546530.602261056</v>
+        <v>3930268.92795068</v>
       </c>
     </row>
     <row r="445">
@@ -3992,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>4565192.95589602</v>
+        <v>3947428.607848088</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>4584526.909028713</v>
+        <v>3965180.515492109</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>4604547.217726693</v>
+        <v>3983537.921658471</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>4625265.865802713</v>
+        <v>4002511.714430354</v>
       </c>
     </row>
     <row r="449">
@@ -4024,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>4646691.897958526</v>
+        <v>4022110.251733501</v>
       </c>
     </row>
     <row r="450">
@@ -4032,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>4668831.257775955</v>
+        <v>4042339.217813387</v>
       </c>
     </row>
     <row r="451">
@@ -4040,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>4691686.631859739</v>
+        <v>4063201.484789383</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>4715257.301471528</v>
+        <v>4084696.980453511</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>16809798.93693321</v>
+        <v>24038906.3850759</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>20233.51388291655</v>
+        <v>28931.17366267106</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>20543.8154838252</v>
+        <v>29370.96996600106</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>20860.75444258505</v>
+        <v>29820.12961069287</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>21184.55988185206</v>
+        <v>30278.97595935772</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>21515.47011524139</v>
+        <v>30747.84532008644</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>21853.73290415585</v>
+        <v>31227.08730381621</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>22199.60571084013</v>
+        <v>31717.06517595852</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>22553.35594666439</v>
+        <v>32218.15620086791</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>22915.26121429186</v>
+        <v>32730.75197723418</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>23285.60954284319</v>
+        <v>33255.25876313686</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>23664.69961487014</v>
+        <v>33792.09778907381</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>24052.84098358939</v>
+        <v>34341.70555676104</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>24450.35427949483</v>
+        <v>34904.53412245605</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>24857.57140456807</v>
+        <v>35481.0513622764</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>25274.83571306758</v>
+        <v>36071.74121807304</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>25702.50217709884</v>
+        <v>36677.10392130951</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>26140.93753568469</v>
+        <v>37297.656193139</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>26590.52042574553</v>
+        <v>37933.93141843074</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>27051.64149324371</v>
+        <v>38586.47979127956</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>27524.70348317829</v>
+        <v>39255.86843015016</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>28010.12130643505</v>
+        <v>39942.68145983873</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>28508.32208202362</v>
+        <v>40647.52005818983</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>29019.74515300817</v>
+        <v>41371.00246518651</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>29544.8420741967</v>
+        <v>42113.76395169138</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>30084.07657015154</v>
+        <v>42876.45674582875</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>30637.92446153298</v>
+        <v>43659.74991421455</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>31206.87355816062</v>
+        <v>44464.32919577739</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>31791.42351712579</v>
+        <v>45290.8967858418</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>32392.08566405288</v>
+        <v>46140.17106781359</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>33009.38277602369</v>
+        <v>47012.88629040297</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>33643.8488244302</v>
+        <v>47909.79218796983</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>34296.02867611612</v>
+        <v>48831.65354171403</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>34966.47775134652</v>
+        <v>49779.24967969092</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>35655.76163699247</v>
+        <v>50753.37391341887</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>36364.45565365123</v>
+        <v>51754.83290932302</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>37093.14437514734</v>
+        <v>52784.44599287015</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>37842.42109941996</v>
+        <v>53843.04438405027</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>38612.88726944599</v>
+        <v>54931.47036235551</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>39405.15184324539</v>
+        <v>56050.57635997441</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>40219.8306119257</v>
+        <v>57201.22398179524</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>41057.54546530249</v>
+        <v>58384.28295163765</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>41918.92360396123</v>
+        <v>59600.62998317974</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>42804.59669774858</v>
+        <v>60851.14757564523</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>43715.19999004903</v>
+        <v>62136.72273341841</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>44651.37134775261</v>
+        <v>63458.24560953621</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>45613.75025718634</v>
+        <v>64816.60807353072</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>46602.97676582755</v>
+        <v>66212.70220344847</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>47619.69037053444</v>
+        <v>67647.41870317706</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>48664.52885291264</v>
+        <v>69121.64524604419</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>49738.12706249458</v>
+        <v>70636.2647457352</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>50841.11564904459</v>
+        <v>72192.15355647876</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>51974.11974510513</v>
+        <v>73790.17960416783</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>53137.75760065444</v>
+        <v>75431.20045115406</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>54332.639171301</v>
+        <v>77116.06129681887</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>55559.36466239314</v>
+        <v>78845.59291737618</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>56818.52303137883</v>
+        <v>80620.60954829578</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>58110.69045069156</v>
+        <v>82441.90671264996</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>59436.42873436557</v>
+        <v>84310.25899999785</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>60796.28373137362</v>
+        <v>86226.41780011912</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>62190.78368899077</v>
+        <v>88191.10899634421</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>63620.43758984707</v>
+        <v>90205.03062373254</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>65085.73346681067</v>
+        <v>92268.85049802369</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>66587.13669932546</v>
+        <v>94383.20382054512</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>68125.08829631378</v>
+        <v>96548.69076636239</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>69700.00316958553</v>
+        <v>98765.8740612913</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>71312.26840313515</v>
+        <v>101035.2765554267</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>72962.24152328307</v>
+        <v>103357.37880023</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>74650.24877488968</v>
+        <v>105732.616636596</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>76376.58340921627</v>
+        <v>108161.3788017988</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>78141.50398932502</v>
+        <v>110644.0045636592</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>79945.23271855491</v>
+        <v>113180.7813897605</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>81787.95379846304</v>
+        <v>115771.9426607393</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>83669.81182219688</v>
+        <v>118417.6654360648</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>85590.91020967398</v>
+        <v>121118.0682812925</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>87551.30969094421</v>
+        <v>123873.2091657631</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>89551.02684428693</v>
+        <v>126683.0834399593</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>91590.03269541213</v>
+        <v>129547.6219014596</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>93668.25138452357</v>
+        <v>132466.6889589678</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>95785.55890764686</v>
+        <v>135440.0809033826</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>97941.78193884337</v>
+        <v>138467.524295167</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>100136.6967397819</v>
+        <v>141548.6744770557</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>102370.0281631109</v>
+        <v>144683.1142210836</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>104641.4487558907</v>
+        <v>147870.3525186485</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>106950.5779693686</v>
+        <v>151109.8235223399</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>109296.9814808476</v>
+        <v>154400.885647508</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>111680.1706338805</v>
+        <v>157742.8208422041</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>114099.6020021367</v>
+        <v>161134.8340328744</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>116554.677082083</v>
+        <v>164576.0527528782</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>119044.7421200806</v>
+        <v>168065.5269615471</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>121569.0880782212</v>
+        <v>171602.2290596815</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>124126.9507433726</v>
+        <v>175185.0541075802</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>126717.5109836756</v>
+        <v>178812.8202513684</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>129339.8951560192</v>
+        <v>182484.2693623695</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>131993.1756676117</v>
+        <v>186198.0678936799</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>134676.3716946802</v>
+        <v>189952.8079579817</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>137388.4500604187</v>
+        <v>193747.0086293317</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>140128.3262741074</v>
+        <v>197579.1174713788</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>142894.8657326814</v>
+        <v>201447.5122935555</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>145686.8850854158</v>
+        <v>205350.5031359127</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>148503.1537622883</v>
+        <v>209286.3344831245</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>151342.3956652654</v>
+        <v>213253.1877063259</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>154203.2910217681</v>
+        <v>217249.183731465</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>157084.4783990844</v>
+        <v>221272.3859321581</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>159984.5568770469</v>
+        <v>225320.8032429982</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>162902.0883768988</v>
+        <v>229392.3934901218</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>165835.6001424966</v>
+        <v>233485.0669333382</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>168783.5873703416</v>
+        <v>237596.6900146205</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>171744.5159837153</v>
+        <v>241725.0893060436</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>174716.8255457644</v>
+        <v>245868.055649659</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>177698.9323060075</v>
+        <v>250023.3484812781</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>180689.2323736846</v>
+        <v>254188.7003286669</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>183686.1050114066</v>
+        <v>258361.8214747118</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>186687.9160414003</v>
+        <v>262540.4047744976</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>189693.0213565283</v>
+        <v>266722.1306150863</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>192699.7705275945</v>
+        <v>270904.672005857</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>195706.5104980158</v>
+        <v>275085.6997866787</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>198711.5893562739</v>
+        <v>279262.8879402653</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>201713.3601765057</v>
+        <v>283433.9189950014</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>204710.1849168195</v>
+        <v>287596.4895034602</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>207700.4383647979</v>
+        <v>291748.3155816759</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>210682.5121191524</v>
+        <v>295887.1384935569</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>213654.8185963495</v>
+        <v>300010.7302646402</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>216615.7950506706</v>
+        <v>304116.8993089068</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>219563.9075960306</v>
+        <v>308203.496052207</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>222497.6552175735</v>
+        <v>312268.4185354366</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>225415.5737612367</v>
+        <v>316309.6179808676</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>228316.239888928</v>
+        <v>320325.1043042946</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>231198.2749875968</v>
+        <v>324312.9515565767</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>234060.3490195804</v>
+        <v>328271.3032769083</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>236901.1843028014</v>
+        <v>332198.3777418604</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>239719.5592085052</v>
+        <v>336092.473093009</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>242514.3117647696</v>
+        <v>339951.9723267516</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>245284.3431547614</v>
+        <v>343775.348130982</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>248028.6210976414</v>
+        <v>347561.1675518057</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>250746.1831020245</v>
+        <v>351308.0964763212</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>253436.1395808244</v>
+        <v>355014.9039159936</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>256097.6768173354</v>
+        <v>358680.4660766122</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>258730.059773093</v>
+        <v>362303.7702018087</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>261332.6347278752</v>
+        <v>365883.9181768732</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>263904.8317431882</v>
+        <v>369420.129881015</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>266446.1669412616</v>
+        <v>372911.7462771733</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>268956.2445915138</v>
+        <v>376358.2322284224</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>271434.7589980073</v>
+        <v>379759.1790322061</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>273881.4961810801</v>
+        <v>383114.3066631944</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>276296.3353481145</v>
+        <v>386423.4657180435</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>278679.2501478716</v>
+        <v>389686.6390546193</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>281030.3097048222</v>
+        <v>392903.9431210484</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>283349.6794297925</v>
+        <v>396075.6289698171</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>285637.6216040882</v>
+        <v>399202.0829533363</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>287894.4957357648</v>
+        <v>402283.8270994871</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>290120.7586863743</v>
+        <v>405321.5191652137</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>292316.9645684839</v>
+        <v>408315.9523689653</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>294483.7644140313</v>
+        <v>411268.0548024827</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>296621.905615059</v>
+        <v>414178.8885244788</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>298732.2311391806</v>
+        <v>417049.64833991</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>300815.6785220437</v>
+        <v>419881.6602683924</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>302873.2786412659</v>
+        <v>422676.3797084171</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>304906.1542756059</v>
+        <v>425435.3893030105</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>306915.5184549644</v>
+        <v>428160.3965150334</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>308902.6726069123</v>
+        <v>430853.230920457</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>310869.0045063802</v>
+        <v>433515.841229245</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>312815.9860358458</v>
+        <v>436150.2920444395</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>314745.1707635951</v>
+        <v>438758.7603703769</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>316658.1913489495</v>
+        <v>441343.53188277</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>318556.7567832867</v>
+        <v>443906.996973303</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>320442.6494763206</v>
+        <v>446451.6465822417</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>322317.7221978772</v>
+        <v>448980.0678336342</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>324183.8948856911</v>
+        <v>451494.9394880468</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>326043.1513299292</v>
+        <v>453999.0272280248</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>327897.5357458849</v>
+        <v>456495.1787924619</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>329749.1492463492</v>
+        <v>458986.3189761405</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>331600.1462255323</v>
+        <v>461475.4445111806</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>333452.7306664815</v>
+        <v>463965.6188472253</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>335309.152384384</v>
+        <v>466459.9668477707</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>337171.7032180289</v>
+        <v>468961.6694198764</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>339042.7131817831</v>
+        <v>471473.95809457</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>340924.5465906634</v>
+        <v>474000.1095755563</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>342819.5981707723</v>
+        <v>476543.4402733754</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>344730.2891676167</v>
+        <v>479107.3008424806</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>346659.0634644849</v>
+        <v>481695.0707381996</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>348608.3837228983</v>
+        <v>484310.1528103013</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>350580.7275570478</v>
+        <v>486955.967949711</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>352578.5837540508</v>
+        <v>489635.9498047909</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>354604.4485510446</v>
+        <v>492353.5395824419</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>356660.8219803565</v>
+        <v>495112.1809495632</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>358750.2042935371</v>
+        <v>497915.3150497563</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>360875.0924740902</v>
+        <v>500766.3756488123</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>363037.9768494093</v>
+        <v>503668.7844234371</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>365241.3378107153</v>
+        <v>506625.9464052642</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>367487.6426501464</v>
+        <v>509641.2455926861</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>369779.3425237712</v>
+        <v>512718.0407424713</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>372118.8695476752</v>
+        <v>515859.6613508855</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>374508.6340350566</v>
+        <v>519069.4038350928</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>376951.0218809984</v>
+        <v>522350.5279238387</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>379448.392100924</v>
+        <v>525706.2532654905</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>382003.0745284934</v>
+        <v>529139.7562611412</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>384617.3676780353</v>
+        <v>532654.1671295586</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>387293.5367756766</v>
+        <v>536252.5672094484</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>390033.8119633217</v>
+        <v>539937.9865044794</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>392840.3866784497</v>
+        <v>543713.4014748693</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>395715.5045142638</v>
+        <v>547581.8552689541</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>398661.1144247758</v>
+        <v>551545.9806156873</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>401679.3711675465</v>
+        <v>555608.692443642</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>404772.3087998829</v>
+        <v>559772.7360446659</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>407941.9192843369</v>
+        <v>564040.7959135106</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>411190.1519578526</v>
+        <v>568415.4950594479</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>414518.9131829426</v>
+        <v>572899.3945706685</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>417930.0661793515</v>
+        <v>577494.9934289779</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>421425.4310344109</v>
+        <v>582204.7285719563</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>425006.7848897535</v>
+        <v>587030.9751990071</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>428675.8623014046</v>
+        <v>591976.0473168263</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>432434.3557701315</v>
+        <v>597042.1985196359</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>436283.9164385328</v>
+        <v>602231.6229989832</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>440226.1549503486</v>
+        <v>607546.4567765237</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>444262.6424679052</v>
+        <v>612988.7791538185</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>448394.9118428724</v>
+        <v>618560.614372163</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>452624.4589349673</v>
+        <v>624263.9334747227</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>456952.744073418</v>
+        <v>630100.6563635111</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>461381.193655864</v>
+        <v>636072.6540435624</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>465911.201877496</v>
+        <v>642181.7510440808</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>470544.1325862114</v>
+        <v>648429.7280104604</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>475281.3212555706</v>
+        <v>654818.3244555739</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>480124.0770707641</v>
+        <v>661349.2416634716</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>485073.6851190325</v>
+        <v>668024.1457334403</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>490131.4086801916</v>
+        <v>674844.6707581955</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>495298.4916079786</v>
+        <v>681812.4221231932</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>500576.1607970268</v>
+        <v>688928.9799196895</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>505965.6287275979</v>
+        <v>696195.9024605139</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>511468.0960817501</v>
+        <v>703614.729889658</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>517084.7544228365</v>
+        <v>711186.9878743537</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>522816.7889324353</v>
+        <v>718914.1913713531</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>528665.3811972736</v>
+        <v>726797.8484570335</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>534631.7120385981</v>
+        <v>734839.4642108064</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>540716.9643780509</v>
+        <v>743040.5446435378</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>546922.3261323259</v>
+        <v>751402.6006602478</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>553248.9931300461</v>
+        <v>759927.1520479799</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>559698.1720442745</v>
+        <v>768615.7314797018</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>566271.0833337209</v>
+        <v>777469.8885246343</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>572968.9641857789</v>
+        <v>786491.1936555288</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>579793.0714556964</v>
+        <v>795681.2422450188</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>586744.684594535</v>
+        <v>805041.6585409378</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>593825.1085597606</v>
+        <v>814574.0996121336</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>601035.6767028088</v>
+        <v>824280.2592570143</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>608377.753626351</v>
+        <v>834161.8718648576</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>615852.7380062368</v>
+        <v>844220.7162230125</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>623462.0653711953</v>
+        <v>854458.6192605492</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>631207.2108347855</v>
+        <v>864877.4597208505</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>639089.6917735077</v>
+        <v>875479.1717548643</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>647111.0704454321</v>
+        <v>886265.7484273619</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>655272.9565428937</v>
+        <v>897239.2451274528</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>663577.0096744068</v>
+        <v>908401.7828768232</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>672024.9417693657</v>
+        <v>919755.5515270047</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>680618.5193995936</v>
+        <v>931302.8128376763</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>689359.566012789</v>
+        <v>943045.9034293685</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>698249.9640715041</v>
+        <v>954987.2376020161</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>707291.6570917994</v>
+        <v>967129.3100115269</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>716486.6515759911</v>
+        <v>979474.6981969101</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>725837.0188338978</v>
+        <v>992026.0649505258</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>735344.8966855578</v>
+        <v>1004786.160522058</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>745012.4910410054</v>
+        <v>1017757.824650417</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>754842.0773493762</v>
+        <v>1030943.98841326</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>764836.0019118597</v>
+        <v>1044347.675886897</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>774996.6830531663</v>
+        <v>1057972.005609593</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>785326.6121421771</v>
+        <v>1071820.191835804</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>795828.354458841</v>
+        <v>1085895.545577675</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>806504.5498978638</v>
+        <v>1100201.475421216</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>817357.9135029691</v>
+        <v>1114741.488109022</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>828391.23582557</v>
+        <v>1129519.188881505</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>839607.3830992212</v>
+        <v>1144538.281565264</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>851009.2972237893</v>
+        <v>1159802.568400727</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>862599.9955504943</v>
+        <v>1175315.949597442</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>874382.5704610473</v>
+        <v>1191082.422608247</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>886360.1887325118</v>
+        <v>1207106.081111367</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>898536.0906794448</v>
+        <v>1223391.113689453</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>910913.5890659121</v>
+        <v>1239941.802195994</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>923496.0677778824</v>
+        <v>1256762.519796714</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>936286.980248114</v>
+        <v>1273857.728675801</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>949289.8476242262</v>
+        <v>1291231.977394898</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>962508.2566715785</v>
+        <v>1308889.89789407</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>975945.8574013772</v>
+        <v>1326836.202122384</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>989606.3604152479</v>
+        <v>1345075.678286856</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1003493.533956822</v>
+        <v>1363613.186707621</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1017611.200661194</v>
+        <v>1382453.655267628</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1031963.233993218</v>
+        <v>1401602.074445377</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1046553.554364362</v>
+        <v>1421063.491917483</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1061386.124920353</v>
+        <v>1440843.006721368</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1076464.946989167</v>
+        <v>1460945.762964756</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1091794.055181113</v>
+        <v>1481376.943071615</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1107377.512131823</v>
+        <v>1502141.760553045</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1123219.402879464</v>
+        <v>1523245.452292206</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1139323.828867885</v>
+        <v>1544693.270333078</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1155694.901568371</v>
+        <v>1566490.473164077</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1172336.735710577</v>
+        <v>1588642.316484787</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1189253.442117805</v>
+        <v>1611154.043450316</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1206449.120138504</v>
+        <v>1634030.874383345</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1223927.849668349</v>
+        <v>1657277.995947354</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1241693.682757689</v>
+        <v>1680900.549775077</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1259750.634800513</v>
+        <v>1704903.620548153</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1278102.675300361</v>
+        <v>1729292.223522967</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1296753.71821054</v>
+        <v>1754071.291500279</v>
       </c>
     </row>
     <row r="303">

--- a/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24038906.3850759</v>
+        <v>24242567.43811562</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>28931.17366267106</v>
+        <v>29176.18588614433</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>29370.96996600106</v>
+        <v>29619.60824384165</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>29820.12961069287</v>
+        <v>30072.47002142364</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>30278.97595935772</v>
+        <v>30535.09721242367</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>30747.84532008644</v>
+        <v>31007.82886051981</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>31227.08730381621</v>
+        <v>31491.01741967832</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>31717.06517595852</v>
+        <v>31985.0291085014</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>32218.15620086791</v>
+        <v>32490.24425734637</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>32730.75197723418</v>
+        <v>33007.05764628314</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>33255.25876313686</v>
+        <v>33535.87883261809</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>33792.09778907381</v>
+        <v>34077.13246628252</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>34341.70555676104</v>
+        <v>34631.25859086381</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>34904.53412245605</v>
+        <v>35198.71292902207</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>35481.0513622764</v>
+        <v>35779.9671497425</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>36071.74121807304</v>
+        <v>36375.50911597131</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>36677.10392130951</v>
+        <v>36985.84311006558</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>37297.656193139</v>
+        <v>37611.49003523383</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>37933.93141843074</v>
+        <v>38252.98759070095</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>38586.47979127956</v>
+        <v>38910.89041811051</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>39255.86843015016</v>
+        <v>39585.77021730186</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>39942.68145983873</v>
+        <v>40278.2158286211</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>40647.52005818983</v>
+        <v>40988.83327968751</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>41371.00246518651</v>
+        <v>41718.2457942144</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>42113.76395169138</v>
+        <v>42467.09376013991</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>42876.45674582875</v>
+        <v>43236.03465504207</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>43659.74991421455</v>
+        <v>44025.74292602272</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>44464.32919577739</v>
+        <v>44836.9098217853</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>45290.8967858418</v>
+        <v>45670.24317455976</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>46140.17106781359</v>
+        <v>46526.46712919319</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>47012.88629040297</v>
+        <v>47406.32181732598</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>47909.79218796983</v>
+        <v>48310.56297421915</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>48831.65354171403</v>
+        <v>49239.96149593774</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>49779.24967969092</v>
+        <v>50195.30293485573</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>50753.37391341887</v>
+        <v>51177.38693123175</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>51754.83290932302</v>
+        <v>52187.0265790867</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>52784.44599287015</v>
+        <v>53225.0477242227</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>53843.04438405027</v>
+        <v>54292.28819302853</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>54931.47036235551</v>
+        <v>55389.59695020936</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>56050.57635997441</v>
+        <v>56517.83318414973</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>57201.22398179524</v>
+        <v>57677.86531849363</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>58384.28295163765</v>
+        <v>58870.56994935833</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>59600.62998317974</v>
+        <v>60096.83070663796</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>60851.14757564523</v>
+        <v>61357.53703946473</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>62136.72273341841</v>
+        <v>62653.58292498997</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>63458.24560953621</v>
+        <v>63985.86550043656</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>64816.60807353072</v>
+        <v>65355.28361890197</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>66212.70220344847</v>
+        <v>66762.73632873895</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>67647.41870317706</v>
+        <v>68209.12127765604</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>69121.64524604419</v>
+        <v>69695.33304251333</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>70636.2647457352</v>
+        <v>71222.26138586993</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>72192.15355647876</v>
+        <v>72790.78944125194</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>73790.17960416783</v>
+        <v>74401.79182882298</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>75431.20045115406</v>
+        <v>76056.13270422132</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>77116.06129681887</v>
+        <v>77754.66374268537</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>78845.59291737618</v>
+        <v>79498.22206195374</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80620.60954829578</v>
+        <v>81287.62808735851</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>82441.90671264996</v>
+        <v>83123.68336244395</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>84310.25899999785</v>
+        <v>85007.16830976428</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>86226.41780011912</v>
+        <v>86938.8399462104</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>88191.10899634421</v>
+        <v>88919.42955765278</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>90205.03062373254</v>
+        <v>90949.64033819753</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>92268.85049802369</v>
+        <v>93030.14500002973</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>94383.20382054512</v>
+        <v>95161.58335907322</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>96548.69076636239</v>
+        <v>97344.55990381222</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>98765.8740612913</v>
+        <v>99579.64135294271</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>101035.2765554267</v>
+        <v>101867.3542095712</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>103357.37880023</v>
+        <v>104208.1823190625</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>105732.616636596</v>
+        <v>106602.5644380167</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>108161.3788017988</v>
+        <v>109050.891822343</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>110644.0045636592</v>
+        <v>111553.5058428382</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>113180.7813897605</v>
+        <v>114110.6956361636</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>115771.9426607393</v>
+        <v>116722.6958003186</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>118417.6654360648</v>
+        <v>119389.684143094</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>121118.0682812925</v>
+        <v>122111.7794925625</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>123873.2091657631</v>
+        <v>124889.0395786512</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>126683.0834399593</v>
+        <v>127721.4589950812</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>129547.6219014596</v>
+        <v>130608.9672506856</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>132466.6889589678</v>
+        <v>133551.4269196604</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>135440.0809033826</v>
+        <v>136548.6318997836</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>138467.524295167</v>
+        <v>139600.3057879348</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>141548.6744770557</v>
+        <v>142706.1003820257</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>144683.1142210836</v>
+        <v>145865.5943183937</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>147870.3525186485</v>
+        <v>149078.2918534408</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>151109.8235223399</v>
+        <v>152343.6217983159</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>154400.885647508</v>
+        <v>155660.9366146767</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>157742.8208422041</v>
+        <v>159029.5116802281</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>161134.8340328744</v>
+        <v>162448.5447314754</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>164576.0527528782</v>
+        <v>165917.1554908155</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>168065.5269615471</v>
+        <v>169434.3854857407</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>171602.2290596815</v>
+        <v>172999.1980660944</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>175185.0541075802</v>
+        <v>176610.4786255188</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>178812.8202513684</v>
+        <v>180267.0350329008</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>182484.2693623695</v>
+        <v>183967.5982785932</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>186198.0678936799</v>
+        <v>187710.8233396008</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>189952.8079579817</v>
+        <v>191495.2902677899</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>193747.0086293317</v>
+        <v>195319.5055038763</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>197579.1174713788</v>
+        <v>199181.9034196596</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>201447.5122935555</v>
+        <v>203080.8480900501</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>205350.5031359127</v>
+        <v>207014.6352955618</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>209286.3344831245</v>
+        <v>210981.4947557923</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>213253.1877063259</v>
+        <v>214979.5925925341</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>217249.183731465</v>
+        <v>219007.0340211851</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>221272.3859321581</v>
+        <v>223061.8662684187</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>225320.8032429982</v>
+        <v>227142.081712027</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>229392.3934901218</v>
+        <v>231245.6212397091</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>233485.0669333382</v>
+        <v>235370.3778210552</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>237596.6900146205</v>
+        <v>239514.2002874762</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>241725.0893060436</v>
+        <v>243674.8973131032</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>245868.055649659</v>
+        <v>247850.2415890782</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>250023.3484812781</v>
+        <v>252037.9741831378</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>254188.7003286669</v>
+        <v>256235.809074908</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>258361.8214747118</v>
+        <v>260441.4378573903</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>262540.4047744976</v>
+        <v>264652.5345934837</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>266722.1306150863</v>
+        <v>268866.7608162361</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>270904.672005857</v>
+        <v>273081.7706605826</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>275085.6997866787</v>
+        <v>277295.2161137348</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>279262.8879402653</v>
+        <v>281504.7523704573</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>283433.9189950014</v>
+        <v>285708.0432794048</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>287596.4895034602</v>
+        <v>289902.7668656192</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>291748.3155816759</v>
+        <v>294086.6209141252</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>295887.1384935569</v>
+        <v>298257.3285988847</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>300010.7302646402</v>
+        <v>302412.6441411778</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>304116.8993089068</v>
+        <v>306550.3584810013</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>308203.496052207</v>
+        <v>310668.3049448996</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>312268.4185354366</v>
+        <v>314764.36489323</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>316309.6179808676</v>
+        <v>318836.473330138</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>320325.1043042946</v>
+        <v>322882.6244587612</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>324312.9515565767</v>
+        <v>326900.8771651119</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>328271.3032769083</v>
+        <v>330889.3604128338</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>332198.3777418604</v>
+        <v>334846.2785327454</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>336092.473093009</v>
+        <v>338769.9163898547</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>339951.9723267516</v>
+        <v>342658.6444113173</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>343775.348130982</v>
+        <v>346510.923459887</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>347561.1675518057</v>
+        <v>350325.3095359156</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>351308.0964763212</v>
+        <v>354100.4582938153</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>355014.9039159936</v>
+        <v>357835.1293573965</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>358680.4660766122</v>
+        <v>361528.1904199623</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>362303.7702018087</v>
+        <v>365178.6211160412</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>365883.9181768732</v>
+        <v>368785.5166513976</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>369420.129881015</v>
+        <v>372348.0911793748</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>372911.7462771733</v>
+        <v>375865.6809126009</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>376358.2322284224</v>
+        <v>379337.7469590222</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>379759.1790322061</v>
+        <v>382763.8778734357</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>383114.3066631944</v>
+        <v>386143.7919152491</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>386423.4657180435</v>
+        <v>389477.3390057084</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>389686.6390546193</v>
+        <v>392764.5023770987</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>392903.9431210484</v>
+        <v>396005.3999092586</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>396075.6289698171</v>
+        <v>399200.2851485982</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>399202.0829533363</v>
+        <v>402349.5480060206</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>402283.8270994871</v>
+        <v>405453.7151322623</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>405321.5191652137</v>
+        <v>408513.4499687093</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>408315.9523689653</v>
+        <v>411529.5524745116</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>411268.0548024827</v>
+        <v>414502.9585305038</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>414178.8885244788</v>
+        <v>417434.7390225124</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>417049.64833991</v>
+        <v>420326.0986077844</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>419881.6602683924</v>
+        <v>423178.374168133</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>422676.3797084171</v>
+        <v>425993.0329565139</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>425435.3893030105</v>
+        <v>428771.6704427339</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>428160.3965150334</v>
+        <v>431516.0078665604</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>430853.230920457</v>
+        <v>434227.8895066454</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>433515.841229245</v>
+        <v>436909.2796749768</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>436150.2920444395</v>
+        <v>439562.2594475495</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>438758.7603703769</v>
+        <v>442189.0231422754</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>441343.53188277</v>
+        <v>444791.8745569781</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>443906.996973303</v>
+        <v>447373.2229802263</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>446451.6465822417</v>
+        <v>449935.5789886215</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>448980.0678336342</v>
+        <v>452481.5500452381</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>451494.9394880468</v>
+        <v>455013.8359142826</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>453999.0272280248</v>
+        <v>457535.2239072905</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>456495.1787924619</v>
+        <v>460048.5839771724</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>458986.3189761405</v>
+        <v>462556.8636765111</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>461475.4445111806</v>
+        <v>465063.0829969739</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>463965.6188472253</v>
+        <v>467570.3291068151</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>466459.9668477707</v>
+        <v>470081.7510040066</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>468961.6694198764</v>
+        <v>472600.5541023768</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>471473.95809457</v>
+        <v>475129.9947682064</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>474000.1095755563</v>
+        <v>477673.3748250313</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>476543.4402733754</v>
+        <v>480234.0360439338</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>479107.3008424806</v>
+        <v>482815.3546369276</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>481695.0707381996</v>
+        <v>485420.7357705339</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>484310.1528103013</v>
+        <v>488053.6081164013</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>486955.967949711</v>
+        <v>490717.4184556389</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>489635.9498047909</v>
+        <v>493415.6263534063</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>492353.5395824419</v>
+        <v>496151.6989191333</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>495112.1809495632</v>
+        <v>498929.1056680236</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>497915.3150497563</v>
+        <v>501751.313498841</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>500766.3756488123</v>
+        <v>504621.7818016206</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>503668.7844234371</v>
+        <v>507543.9577098649</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>506625.9464052642</v>
+        <v>510521.2715093641</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>509641.2455926861</v>
+        <v>513557.1322162648</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>512718.0407424713</v>
+        <v>516654.9233364402</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>515859.6613508855</v>
+        <v>519817.9988159487</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>519069.4038350928</v>
+        <v>523049.6791934355</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>522350.5279238387</v>
+        <v>526353.2479635414</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>525706.2532654905</v>
+        <v>529731.9481594479</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>529139.7562611412</v>
+        <v>533188.9791623187</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>532654.1671295586</v>
+        <v>536727.4937444652</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>536252.5672094484</v>
+        <v>540350.5953517325</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>539937.9865044794</v>
+        <v>544061.3356305975</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>543713.4014748693</v>
+        <v>547862.7122037903</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>547581.8552689541</v>
+        <v>551757.789819721</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>551545.9806156873</v>
+        <v>555749.2196067959</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>555608.692443642</v>
+        <v>559839.9369775129</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>559772.7360446659</v>
+        <v>564032.7063456186</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>564040.7959135106</v>
+        <v>568330.2307975197</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>568415.4950594479</v>
+        <v>572735.1513998568</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>572899.3945706685</v>
+        <v>577250.0467618129</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>577494.9934289779</v>
+        <v>581877.4328496413</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>582204.7285719563</v>
+        <v>586619.76305055</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>587030.9751990071</v>
+        <v>591479.4284823313</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>591976.0473168263</v>
+        <v>596458.7585442227</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>597042.1985196359</v>
+        <v>601560.0217043047</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>602231.6229989832</v>
+        <v>606785.4265181801</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>607546.4567765237</v>
+        <v>612137.1228723016</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>612988.7791538185</v>
+        <v>617617.2034459205</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>618560.614372163</v>
+        <v>623227.705384612</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>624263.9334747227</v>
+        <v>628970.6121775894</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>630100.6563635111</v>
+        <v>634847.855731274</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>636072.6540435624</v>
+        <v>640861.3186314092</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>642181.7510440808</v>
+        <v>647012.8365834167</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>648429.7280104604</v>
+        <v>653304.2010248352</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>654818.3244555739</v>
+        <v>659737.1618981425</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>661349.2416634716</v>
+        <v>666313.4305770493</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>668024.1457334403</v>
+        <v>673034.6829341113</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>674844.6707581955</v>
+        <v>679902.562543385</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>681812.4221231932</v>
+        <v>686918.684005006</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>688928.9799196895</v>
+        <v>694084.6363842599</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>696195.9024605139</v>
+        <v>701401.9867540209</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>703614.729889658</v>
+        <v>708872.2838315913</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>711186.9878743537</v>
+        <v>716497.0616985236</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>718914.1913713531</v>
+        <v>724277.843595074</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>726797.8484570335</v>
+        <v>732216.1457788257</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>734839.4642108064</v>
+        <v>740313.4814368824</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>743040.5446435378</v>
+        <v>748571.3646432718</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>751402.6006602478</v>
+        <v>756991.3143507439</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>759927.1520479799</v>
+        <v>765574.8584077879</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>768615.7314797018</v>
+        <v>774323.5375916524</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>777469.8885246343</v>
+        <v>783238.9096476997</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>786491.1936555288</v>
+        <v>792322.5533255379</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>795681.2422450188</v>
+        <v>801576.0724039975</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>805041.6585409378</v>
+        <v>811001.0996947709</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>814574.0996121336</v>
+        <v>820599.3010161786</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>824280.2592570143</v>
+        <v>830372.3791292442</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>834161.8718648576</v>
+        <v>840322.077626031</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>844220.7162230125</v>
+        <v>850450.1847633229</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>854458.6192605492</v>
+        <v>860758.537232135</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>864877.4597208505</v>
+        <v>871249.0238554955</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>875479.1717548643</v>
+        <v>881923.5892061539</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>886265.7484273619</v>
+        <v>892784.2371365111</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>897239.2451274528</v>
+        <v>903833.0342119598</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>908401.7828768232</v>
+        <v>915072.1130410503</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>919755.5515270047</v>
+        <v>926503.6754937374</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>931302.8128376763</v>
+        <v>938129.9957996499</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>943045.9034293685</v>
+        <v>949953.4235197057</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>954987.2376020161</v>
+        <v>961976.3863824661</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>967129.3100115269</v>
+        <v>974201.3929773396</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>979474.6981969101</v>
+        <v>986631.0352971287</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>992026.0649505258</v>
+        <v>999267.9911224361</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>1004786.160522058</v>
+        <v>1012115.026238466</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>1017757.824650417</v>
+        <v>1025174.996478391</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>1030943.98841326</v>
+        <v>1038450.849582909</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>1044347.675886897</v>
+        <v>1051945.626868703</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>1057972.005609593</v>
+        <v>1065662.464698777</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>1071820.191835804</v>
+        <v>1079604.595742126</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>1085895.545577675</v>
+        <v>1093775.350019045</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>1100201.475421216</v>
+        <v>1108178.155719405</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>1114741.488109022</v>
+        <v>1122816.539785726</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>1129519.188881505</v>
+        <v>1137694.12825296</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>1144538.281565264</v>
+        <v>1152814.646333525</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1159802.568400727</v>
+        <v>1168181.918239708</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1175315.949597442</v>
+        <v>1183799.866731715</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1191082.422608247</v>
+        <v>1199672.512382546</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1207106.081111367</v>
+        <v>1215803.972548705</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1223391.113689453</v>
+        <v>1232198.460035661</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1239941.802195994</v>
+        <v>1248860.281448453</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1256762.519796714</v>
+        <v>1265793.835214977</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1273857.728675801</v>
+        <v>1283003.609271737</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1291231.977394898</v>
+        <v>1300494.17839992</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1308889.89789407</v>
+        <v>1318270.201200958</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1326836.202122384</v>
+        <v>1336336.416699132</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1345075.678286856</v>
+        <v>1354697.640559907</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1363613.186707621</v>
+        <v>1373358.760911798</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1382453.655267628</v>
+        <v>1392324.733760004</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1401602.074445377</v>
+        <v>1411600.577980241</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1421063.491917483</v>
+        <v>1431191.369879528</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1440843.006721368</v>
+        <v>1451102.237314139</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1460945.762964756</v>
+        <v>1471338.353351342</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1481376.943071615</v>
+        <v>1491904.929464537</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1502141.760553045</v>
+        <v>1512807.208250182</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1523245.452292206</v>
+        <v>1534050.455655614</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1544693.270333078</v>
+        <v>1555639.952707462</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1566490.473164077</v>
+        <v>1577580.986731654</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1588642.316484787</v>
+        <v>1599878.842053232</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1611154.043450316</v>
+        <v>1622538.790170459</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1634030.874383345</v>
+        <v>1645566.079393251</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1657277.995947354</v>
+        <v>1668965.923939402</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1680900.549775077</v>
+        <v>1692743.49248264</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1704903.620548153</v>
+        <v>1716903.896148492</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1729292.223522967</v>
+        <v>1741452.17595293</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1754071.291500279</v>
+        <v>1766393.289681434</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1315707.611848977</v>
+        <v>1439161.289223908</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1334968.128384865</v>
+        <v>1460071.504584418</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1354538.952899281</v>
+        <v>1481316.135161261</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1374423.672022819</v>
+        <v>1502898.974354746</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1394625.762152717</v>
+        <v>1524823.692706209</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1415148.577255358</v>
+        <v>1547093.824614606</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1435995.336262589</v>
+        <v>1569712.75461823</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1457169.110069691</v>
+        <v>1592683.703250537</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1478672.808145575</v>
+        <v>1616009.712482021</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1500509.164770793</v>
+        <v>1639693.630765614</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1522680.724917152</v>
+        <v>1663738.097701073</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1545189.829786086</v>
+        <v>1688145.528337484</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1568038.60202825</v>
+        <v>1712918.097138812</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1591228.930665888</v>
+        <v>1738057.721636401</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1614762.455743155</v>
+        <v>1763566.045796291</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1638640.552734904</v>
+        <v>1789444.423134996</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1662864.316742544</v>
+        <v>1815693.899615285</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1687434.546512829</v>
+        <v>1842315.196361437</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1712351.728318154</v>
+        <v>1869308.692236311</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1737616.019735391</v>
+        <v>1896674.40632091</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1763227.233370952</v>
+        <v>1924411.980348685</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1789184.820574845</v>
+        <v>1952520.661141411</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1815487.855198504</v>
+        <v>1980999.283106528</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1842135.017444921</v>
+        <v>2009846.250849005</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1869124.577870648</v>
+        <v>2039059.521962708</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1896454.381598765</v>
+        <v>2068636.590065773</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1924121.832804355</v>
+        <v>2098574.468146991</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1952123.879539246</v>
+        <v>2128869.672295928</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1980456.998964331</v>
+        <v>2159518.205891076</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2009117.183060829</v>
+        <v>2190515.54432359</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2038099.924893235</v>
+        <v>2221856.620335634</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2067400.205501971</v>
+        <v>2253535.810057979</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2097012.481502317</v>
+        <v>2285546.919829876</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2126930.673470617</v>
+        <v>2317883.173888948</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2157148.155199892</v>
+        <v>2350537.20302001</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2187657.743906911</v>
+        <v>2383501.034251506</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2218451.691474487</v>
+        <v>2416766.081690092</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2249521.676816475</v>
+        <v>2450323.138587783</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2280858.799446257</v>
+        <v>2484162.370728734</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2312453.574335605</v>
+        <v>2518273.31122926</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2344295.928148406</v>
+        <v>2552644.856841983</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2376375.196930222</v>
+        <v>2587265.265851073</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>2408680.125337665</v>
+        <v>2622122.157648738</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>2441198.86748265</v>
+        <v>2657202.514073279</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>2473918.989474564</v>
+        <v>2692492.682597659</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>2506827.473726377</v>
+        <v>2727978.381438866</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>2539910.725102433</v>
+        <v>2763644.706671058</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>2573154.578966031</v>
+        <v>2799476.141404001</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>2606544.311195097</v>
+        <v>2835456.567099297</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2640064.650215779</v>
+        <v>2871569.277076768</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2673699.791108041</v>
+        <v>2907796.992267866</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2707433.411823679</v>
+        <v>2944121.879258074</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2741248.691556063</v>
+        <v>2980525.57065895</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2775128.331288698</v>
+        <v>3016989.187837192</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2809054.576544881</v>
+        <v>3053493.366022754</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2776109.664221636</v>
+        <v>3012617.138676833</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2809337.172545706</v>
+        <v>3048296.673617281</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2842557.399756503</v>
+        <v>3083958.3632908</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2875751.500148525</v>
+        <v>3119581.728607132</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2908900.325031503</v>
+        <v>3155145.971901514</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2941984.457745175</v>
+        <v>3190630.015180107</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2974984.250725699</v>
+        <v>3226012.540563587</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>3007879.864562954</v>
+        <v>3261272.032860833</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>3040651.308987085</v>
+        <v>3296386.824203708</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>3073278.48571193</v>
+        <v>3331335.140662363</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>3105741.233043332</v>
+        <v>3366095.15073926</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>3138019.372164967</v>
+        <v>3400645.015645223</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>3170092.754988556</v>
+        <v>3434962.941232964</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>3201941.31345814</v>
+        <v>3469027.231466705</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>3233545.110182997</v>
+        <v>3502816.343290248</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>3388885.299281784</v>
+        <v>3659922.127459828</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>3420978.981664509</v>
+        <v>3694132.557319592</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>3452754.873753157</v>
+        <v>3727990.190311072</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>3484193.401135608</v>
+        <v>3761473.981004417</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>3515275.406654988</v>
+        <v>3794563.345231359</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>3545982.207956288</v>
+        <v>3827238.221992581</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>3576295.65526115</v>
+        <v>3859479.135563596</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>3606198.189183963</v>
+        <v>3891267.257596863</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>3635672.898399531</v>
+        <v>3922584.469014923</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>3664703.576967916</v>
+        <v>3953413.421484507</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3833192.298430792</v>
+        <v>4161645.251832432</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3862229.316188761</v>
+        <v>4192612.159886813</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3890757.807750467</v>
+        <v>4223017.14202742</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3918764.5038021</v>
+        <v>4252845.977350749</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3946237.154025984</v>
+        <v>4282085.559420215</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3973164.580058241</v>
+        <v>4310723.953040086</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3999536.726676525</v>
+        <v>4338750.449057057</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>4025344.711029299</v>
+        <v>4366155.616986191</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>4050580.869720103</v>
+        <v>4392931.355260487</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>4075238.8035707</v>
+        <v>4419070.938914787</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>3680989.316617112</v>
+        <v>4070952.694389866</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3702600.674778486</v>
+        <v>4094106.119829217</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3723690.029721843</v>
+        <v>4116671.797094228</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3744256.337885962</v>
+        <v>4138648.849377917</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3764299.854546647</v>
+        <v>4160037.837529271</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3783822.159391264</v>
+        <v>4180840.787001327</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3802826.179085458</v>
+        <v>4201061.211434957</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3821316.20671246</v>
+        <v>4220704.132750168</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3839297.917988157</v>
+        <v>4239776.097642186</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3856778.384140082</v>
+        <v>4258285.190363117</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>3395040.766573231</v>
+        <v>3604373.065533468</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>3410125.849054364</v>
+        <v>3619814.006645972</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>3424804.35753828</v>
+        <v>3634817.072264071</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>3439087.239600531</v>
+        <v>3649394.064366398</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>3452986.683770251</v>
+        <v>3663558.094966281</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>3466516.112848943</v>
+        <v>3677323.577932963</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>3479690.173797821</v>
+        <v>3690706.217172807</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>3492524.724109916</v>
+        <v>3703722.991085635</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>3505036.814612577</v>
+        <v>3716392.133242862</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>3517244.668615105</v>
+        <v>3728733.109201331</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>3556575.487217341</v>
+        <v>3805602.002610945</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>3568312.323414119</v>
+        <v>3817472.312904816</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>3579804.370263181</v>
+        <v>3829074.694648435</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>3591074.434707449</v>
+        <v>3840433.660019023</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>3602146.342187083</v>
+        <v>3851574.793050908</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>3613044.891983778</v>
+        <v>3862524.700807441</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>3623795.808351746</v>
+        <v>3873310.960094301</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>3634425.687349672</v>
+        <v>3883962.059628763</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>3644961.939291673</v>
+        <v>3894507.337583606</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>3655432.726728595</v>
+        <v>3904976.914417441</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>3665866.897885169</v>
+        <v>3915401.620918539</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>3676293.915462994</v>
+        <v>3925812.921372845</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>3686743.780746231</v>
+        <v>3936242.831795781</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>3697246.952928734</v>
+        <v>3946723.833148256</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>3707834.263611849</v>
+        <v>3957288.77948998</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>3718536.826421198</v>
+        <v>3967970.801022474</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>3729385.94170343</v>
+        <v>3978803.201987694</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>3740412.996290877</v>
+        <v>3989819.353417183</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>3751649.358332188</v>
+        <v>4001052.58073749</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>3763126.26721382</v>
+        <v>4012536.046266313</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>3774874.718630632</v>
+        <v>4024302.62666937</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>3786925.344883303</v>
+        <v>4036384.785468788</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>3799308.290531385</v>
+        <v>4048814.440748169</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>3812053.083551436</v>
+        <v>4061622.828221331</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>3825188.502216199</v>
+        <v>4074840.359902447</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>3838742.437934902</v>
+        <v>4088496.478640671</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>3852741.754371205</v>
+        <v>4102619.50886344</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>3867212.143187949</v>
+        <v>4117236.503906924</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>3882177.976849611</v>
+        <v>4132373.090398604</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>3897662.158962271</v>
+        <v>4148053.310208353</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>3913685.972701021</v>
+        <v>4164299.460558272</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>3930268.92795068</v>
+        <v>4181131.932961443</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>3947428.607848088</v>
+        <v>4198569.051725157</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>3965180.515492109</v>
+        <v>4216626.912835855</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>3983537.921658471</v>
+        <v>4235319.224117244</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>4002511.714430354</v>
+        <v>4254657.147630109</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>4022110.251733501</v>
+        <v>4274649.145363582</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>4042339.217813387</v>
+        <v>4295300.829317715</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>4063201.484789383</v>
+        <v>4316614.817179024</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>4084696.980453511</v>
+        <v>4338590.594823262</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24242567.43811562</v>
+        <v>24201835.22750768</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>29176.18588614433</v>
+        <v>29127.18344144967</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>29619.60824384165</v>
+        <v>29569.88058827353</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>30072.47002142364</v>
+        <v>30022.00193927748</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>30535.09721242367</v>
+        <v>30483.87296181049</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>31007.82886051981</v>
+        <v>30955.83215243314</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>31491.01741967832</v>
+        <v>31438.2313965059</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>31985.0291085014</v>
+        <v>31931.43632199283</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>32490.24425734637</v>
+        <v>32435.82664605068</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>33007.05764628314</v>
+        <v>32951.79651247335</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>33535.87883261809</v>
+        <v>33479.75481872186</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>34077.13246628252</v>
+        <v>34020.12553084078</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>34631.25859086381</v>
+        <v>34573.34798404326</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>35198.71292902207</v>
+        <v>35139.87716770887</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>35779.9671497425</v>
+        <v>35720.18399224927</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>36375.50911597131</v>
+        <v>36314.75553639166</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>36985.84311006558</v>
+        <v>36924.09527231437</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>37611.49003523383</v>
+        <v>37548.72326681487</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>38252.98759070095</v>
+        <v>38189.17635624691</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>38910.89041811051</v>
+        <v>38846.00829274433</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>39585.77021730186</v>
+        <v>39519.78985987153</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>40278.2158286211</v>
+        <v>40211.10895486463</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>40988.83327968751</v>
+        <v>40920.57063538798</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>41718.2457942144</v>
+        <v>41648.79712840882</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>42467.09376013991</v>
+        <v>42396.4277984502</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>43236.03465504207</v>
+        <v>43164.11907319941</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>44025.74292602272</v>
+        <v>43952.5443236611</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>44836.9098217853</v>
+        <v>44762.39369658373</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>45670.24317455976</v>
+        <v>45594.37389681618</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>46526.46712919319</v>
+        <v>46449.20791691728</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>47406.32181732598</v>
+        <v>47327.63471194138</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>48310.56297421915</v>
+        <v>48230.40881696929</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>49239.96149593774</v>
+        <v>49158.299905093</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>50195.30293485573</v>
+        <v>50112.09228382278</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>51177.38693123175</v>
+        <v>51092.58432766917</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>52187.0265790867</v>
+        <v>52100.58784513396</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>53225.0477242227</v>
+        <v>53136.92737795218</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>54292.28819302853</v>
+        <v>54202.43943123289</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>55389.59695020936</v>
+        <v>55297.9716326386</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>56517.83318414973</v>
+        <v>56424.38181931467</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>57677.86531849363</v>
+        <v>57582.53705115397</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>58870.56994935833</v>
+        <v>58773.3125498142</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>60096.83070663796</v>
+        <v>59997.59056194632</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>61357.53703946473</v>
+        <v>61256.25914670085</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>62653.58292498997</v>
+        <v>62550.21088667567</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>63985.86550043656</v>
+        <v>63880.34152225649</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>65355.28361890197</v>
+        <v>65247.54850982772</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>66762.73632873895</v>
+        <v>66652.72950368084</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>68209.12127765604</v>
+        <v>68096.78076276025</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>69695.33304251333</v>
+        <v>69580.5954832195</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>71222.26138586993</v>
+        <v>71105.06205784298</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>72790.78944125194</v>
+        <v>72671.0622642973</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>74401.79182882298</v>
+        <v>74279.46938389196</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>76056.13270422132</v>
+        <v>75931.14625360789</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>77754.66374268537</v>
+        <v>77626.94325351207</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>79498.22206195374</v>
+        <v>79367.69623303824</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>81287.62808735851</v>
+        <v>81154.22437954597</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>83123.68336244395</v>
+        <v>82987.32803248515</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>85007.16830976428</v>
+        <v>84867.78644781098</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>86938.8399462104</v>
+        <v>86796.35551699215</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>88919.42955765278</v>
+        <v>88773.76544539107</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>90949.64033819753</v>
+        <v>90800.71839530453</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>93030.14500002973</v>
+        <v>92877.88609962854</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>95161.58335907322</v>
+        <v>95005.9074513676</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>97344.55990381222</v>
+        <v>97185.38607632228</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>99579.64135294271</v>
+        <v>99416.88789461243</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>101867.3542095712</v>
+        <v>101700.9386787423</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>104208.1823190625</v>
+        <v>104038.021615296</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>106602.5644380167</v>
+        <v>106428.5748777325</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>109050.891822343</v>
+        <v>108872.9892182342</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>111553.5058428382</v>
+        <v>111371.6055870024</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>114110.6956361636</v>
+        <v>113924.712786883</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>116722.6958003186</v>
+        <v>116532.5451724028</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>119389.684143094</v>
+        <v>119195.2804016882</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>122111.7794925625</v>
+        <v>121913.0372503085</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>124889.0395786512</v>
+        <v>124685.8734960736</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>127721.4589950812</v>
+        <v>127513.7838840569</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>130608.9672506856</v>
+        <v>130396.6981808404</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>133551.4269196604</v>
+        <v>133334.4793275219</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>136548.6318997836</v>
+        <v>136326.9217005034</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>139600.3057879348</v>
+        <v>139373.7494893812</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>142706.1003820257</v>
+        <v>142474.6152010317</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>145865.5943183937</v>
+        <v>145629.0982989317</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>149078.2918534408</v>
+        <v>148836.7039864823</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>152343.6217983159</v>
+        <v>152096.8621431207</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>155660.9366146767</v>
+        <v>155408.926421243</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>159029.5116802281</v>
+        <v>158772.1735126233</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>162448.5447314754</v>
+        <v>162185.8025917552</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>165917.1554908155</v>
+        <v>165648.9349432281</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>169434.3854857407</v>
+        <v>169160.613780902</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>172999.1980660944</v>
+        <v>172719.8042648118</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>176610.4786255188</v>
+        <v>176325.3937219311</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>180267.0350329008</v>
+        <v>179976.1920765943</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>183967.5982785932</v>
+        <v>183670.9324953484</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>187710.8233396008</v>
+        <v>187408.2722504166</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>191495.2902677899</v>
+        <v>191186.7938058282</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>195319.5055038763</v>
+        <v>195005.0061289674</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>199181.9034196596</v>
+        <v>198861.3462300035</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>203080.8480900501</v>
+        <v>202754.1809307512</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>207014.6352955618</v>
+        <v>206681.808863632</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>210981.4947557923</v>
+        <v>210642.4627012587</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>214979.5925925341</v>
+        <v>214634.3116152925</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>219007.0340211851</v>
+        <v>218655.4639632411</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>223061.8662684187</v>
+        <v>222703.9702011666</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>227142.081712027</v>
+        <v>226777.8260182213</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>231245.6212397091</v>
+        <v>230874.9756897917</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>235370.3778210552</v>
+        <v>234993.3156435118</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>239514.2002874762</v>
+        <v>239130.6982329051</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>243674.8973131032</v>
+        <v>243284.9357116913</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>247850.2415890782</v>
+        <v>247453.8044011944</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>252037.9741831378</v>
+        <v>251635.0490427659</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>256235.809074908</v>
+        <v>255826.3873256598</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>260441.4378573903</v>
+        <v>260025.5145808546</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>264652.5345934837</v>
+        <v>264230.1086296865</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>268866.7608162361</v>
+        <v>268437.8347760062</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>273081.7706605826</v>
+        <v>272646.3509296376</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>277295.2161137348</v>
+        <v>276853.3128483236</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>281504.7523704573</v>
+        <v>281056.3794844189</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>285708.0432794048</v>
+        <v>285253.2184225241</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>289902.7668656192</v>
+        <v>289441.5113931873</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>294086.6209141252</v>
+        <v>293618.9598476354</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>298257.3285988847</v>
+        <v>297783.2905778192</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>302412.6441411778</v>
+        <v>301932.2613658702</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>306550.3584810013</v>
+        <v>306063.6666465824</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>310668.3049448996</v>
+        <v>310175.343166361</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>314764.36489323</v>
+        <v>314265.1756216713</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>318836.473330138</v>
+        <v>318331.102260284</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>322882.6244587612</v>
+        <v>322371.1204278679</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>326900.8771651119</v>
+        <v>326383.2920434049</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>330889.3604128338</v>
+        <v>330365.7489856487</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>334846.2785327454</v>
+        <v>334316.6983745684</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>338769.9163898547</v>
+        <v>338234.4277304856</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>342658.6444113173</v>
+        <v>342117.3099944041</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>346510.923459887</v>
+        <v>345963.808394106</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>350325.3095359156</v>
+        <v>349772.4811390936</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>354100.4582938153</v>
+        <v>353541.9859303166</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>357835.1293573965</v>
+        <v>357271.0842691159</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>361528.1904199623</v>
+        <v>360958.6455512923</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>365178.6211160412</v>
+        <v>364603.6509331948</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>368785.5166513976</v>
+        <v>368205.1969564928</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>372348.0911793748</v>
+        <v>371762.4989197028</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>375865.6809126009</v>
+        <v>375274.8939855154</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>379337.7469590222</v>
+        <v>378741.8440129023</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>382763.8778734357</v>
+        <v>382162.9381051899</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>386143.7919152491</v>
+        <v>385537.8948648382</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>389477.3390057084</v>
+        <v>388866.5643481754</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>392764.5023770987</v>
+        <v>392148.9297126029</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>396005.3999092586</v>
+        <v>395385.1085516166</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>399200.2851485982</v>
+        <v>398575.353912842</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>402349.5480060206</v>
+        <v>401720.0549954838</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>405453.7151322623</v>
+        <v>404819.7375257074</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>408513.4499687093</v>
+        <v>407875.0638080102</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>411529.5524745116</v>
+        <v>410886.8324534024</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>414502.9585305038</v>
+        <v>413855.9777848996</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>417434.7390225124</v>
+        <v>416783.5689229057</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>420326.0986077844</v>
+        <v>419670.8085542095</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>423178.374168133</v>
+        <v>422519.0313881848</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>425993.0329565139</v>
+        <v>425329.7023068946</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>428771.6704427339</v>
+        <v>428104.4142147893</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>431516.0078665604</v>
+        <v>430844.8855962551</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>434227.8895066454</v>
+        <v>433552.9577894077</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>436909.2796749768</v>
+        <v>436230.5919858304</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>439562.2594475495</v>
+        <v>438879.8659669275</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>442189.0231422754</v>
+        <v>441502.9705878957</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>444791.8745569781</v>
+        <v>444102.2060221365</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>447373.2229802263</v>
+        <v>446679.9777788417</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>449935.5789886215</v>
+        <v>449238.7925073456</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>452481.5500452381</v>
+        <v>451781.2536029174</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>455013.8359142826</v>
+        <v>454310.0566290355</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>457535.2239072905</v>
+        <v>456827.9845714374</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>460048.5839771724</v>
+        <v>459337.9029402304</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>462556.8636765111</v>
+        <v>461842.754736437</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>465063.0829969739</v>
+        <v>464345.5552998153</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>467570.3291068151</v>
+        <v>466849.3870548971</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>470081.7510040066</v>
+        <v>469357.3941727594</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>472600.5541023768</v>
+        <v>471872.7771658767</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>475129.9947682064</v>
+        <v>474398.7874334791</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>477673.3748250313</v>
+        <v>476938.7217751364</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>480234.0360439338</v>
+        <v>479495.9168898222</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>482815.3546369276</v>
+        <v>482073.7438780382</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>485420.7357705339</v>
+        <v>484675.6027640671</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>488053.6081164013</v>
+        <v>487304.9170551813</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>490717.4184556389</v>
+        <v>489965.1283544534</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>493415.6263534063</v>
+        <v>492659.6910436833</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>496151.6989191333</v>
+        <v>495392.0670517951</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>498929.1056680236</v>
+        <v>498165.7207243316</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>501751.313498841</v>
+        <v>500984.1138090242</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>504621.7818016206</v>
+        <v>503850.700571059</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>507543.9577098649</v>
+        <v>506768.9230525793</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>510521.2715093641</v>
+        <v>509742.2064885442</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>513557.1322162648</v>
+        <v>512773.9548915491</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>516654.9233364402</v>
+        <v>515867.5468176465</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>519817.9988159487</v>
+        <v>519026.3313229361</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>523049.6791934355</v>
+        <v>522253.624121767</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>526353.2479635414</v>
+        <v>525552.703955601</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>529731.9481594479</v>
+        <v>528926.8091806564</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>533188.9791623187</v>
+        <v>532379.1345820833</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>536727.4937444652</v>
+        <v>535912.8284214839</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>540350.5953517325</v>
+        <v>539530.9897232756</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>544061.3356305975</v>
+        <v>543236.6658053738</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>547862.7122037903</v>
+        <v>547032.8500580061</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>551757.789819721</v>
+        <v>550922.6029095676</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>555749.2196067959</v>
+        <v>554908.5718085741</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>559839.9369775129</v>
+        <v>558993.6880707387</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>564032.7063456186</v>
+        <v>563180.7122854282</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>568330.2307975197</v>
+        <v>567472.343820718</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>572735.1513998568</v>
+        <v>571871.2201317751</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>577250.0467618129</v>
+        <v>576379.9163235839</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>581877.4328496413</v>
+        <v>581000.9449655087</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>586619.76305055</v>
+        <v>585736.7561548313</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>591479.4284823313</v>
+        <v>590589.7378256664</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>596458.7585442227</v>
+        <v>595562.2162987434</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>601560.0217043047</v>
+        <v>600656.457067371</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>606785.4265181801</v>
+        <v>605874.6658143408</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>612137.1228723016</v>
+        <v>611218.9896531461</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>617617.2034459205</v>
+        <v>616691.5185875002</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>623227.705384612</v>
+        <v>622294.2871821221</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>628970.6121775894</v>
+        <v>628029.276437016</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>634847.855731274</v>
+        <v>633898.4158577216</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>640861.3186314092</v>
+        <v>639903.5857138399</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>647012.8365834167</v>
+        <v>646046.6194755496</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>653304.2010248352</v>
+        <v>652329.3064219604</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>659737.1618981425</v>
+        <v>658753.3944096289</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>666313.4305770493</v>
+        <v>665320.5927943337</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>673034.6829341113</v>
+        <v>672032.5754939772</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>679902.562543385</v>
+        <v>678890.9841863471</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>686918.684005006</v>
+        <v>685897.4316286435</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>694084.6363842599</v>
+        <v>693053.5050913458</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>701401.9867540209</v>
+        <v>700360.7698953197</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>708872.2838315913</v>
+        <v>707820.7730432047</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>716497.0616985236</v>
+        <v>715435.0469336896</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>724277.843595074</v>
+        <v>723205.1131503299</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>732216.1457788257</v>
+        <v>731132.4863144674</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>740313.4814368824</v>
+        <v>739218.6779916673</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>748571.3646432718</v>
+        <v>747465.2006433251</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>756991.3143507439</v>
+        <v>755873.5716126448</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>765574.8584077879</v>
+        <v>764445.3171358263</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>774323.5375916524</v>
+        <v>773181.9763692622</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>783238.9096476997</v>
+        <v>782085.1054230867</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>792322.5533255379</v>
+        <v>791156.2813915362</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>801576.0724039975</v>
+        <v>800397.1063722018</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>811001.0996947709</v>
+        <v>809809.2114640042</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>820599.3010161786</v>
+        <v>819394.2607353695</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>830372.3791292442</v>
+        <v>829153.9551547985</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>840322.077626031</v>
+        <v>839090.0364737964</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>850450.1847633229</v>
+        <v>849204.2910552608</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>860758.537232135</v>
+        <v>859498.5536378179</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>871249.0238554955</v>
+        <v>869974.7110285665</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>881923.5892061539</v>
+        <v>880634.7057158959</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>892784.2371365111</v>
+        <v>891480.5393946813</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>903833.0342119598</v>
+        <v>902514.2763950585</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>915072.1130410503</v>
+        <v>913738.047008205</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>926503.6754937374</v>
+        <v>925154.0507003911</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>938129.9957996499</v>
+        <v>936764.5592072553</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>949953.4235197057</v>
+        <v>948571.9195016384</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>961976.3863824661</v>
+        <v>960578.5566263762</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>974201.3929773396</v>
+        <v>972786.9763841771</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>986631.0352971287</v>
+        <v>985199.767877085</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>999267.9911224361</v>
+        <v>997819.6058880541</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>1012115.026238466</v>
+        <v>1010649.253095184</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>1025174.996478391</v>
+        <v>1023691.562112797</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>1038450.849582909</v>
+        <v>1036949.477348979</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>1051945.626868703</v>
+        <v>1050426.036672342</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>1065662.464698777</v>
+        <v>1064124.37288094</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>1079604.595742126</v>
+        <v>1078047.714960862</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>1093775.350019045</v>
+        <v>1092199.389130771</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>1108178.155719405</v>
+        <v>1106582.819659768</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>1122816.539785726</v>
+        <v>1121201.529450386</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>1137694.12825296</v>
+        <v>1136059.140378669</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>1152814.646333525</v>
+        <v>1151159.373379873</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1168181.918239708</v>
+        <v>1166506.048271912</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1183799.866731715</v>
+        <v>1182103.08330486</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1199672.512382546</v>
+        <v>1197954.494427686</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1215803.972548705</v>
+        <v>1214064.394261237</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1232198.460035661</v>
+        <v>1230436.99076642</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1248860.281448453</v>
+        <v>1247076.585597961</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1265793.835214977</v>
+        <v>1263987.572131325</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1283003.609271737</v>
+        <v>1281174.43315255</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1300494.17839992</v>
+        <v>1298641.738198915</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1318270.201200958</v>
+        <v>1316394.140539581</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1336336.416699132</v>
+        <v>1334436.373783783</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1354697.640559907</v>
+        <v>1352773.248105297</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1373358.760911798</v>
+        <v>1371409.646070962</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1392324.733760004</v>
+        <v>1390350.518061528</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1411600.577980241</v>
+        <v>1409600.877273269</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1431191.369879528</v>
+        <v>1429165.79428712</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1451102.237314139</v>
+        <v>1449050.391195585</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1471338.353351342</v>
+        <v>1469259.835274025</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1491904.929464537</v>
+        <v>1489799.332185953</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1512807.208250182</v>
+        <v>1510674.118710754</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1534050.455655614</v>
+        <v>1531889.454982933</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1555639.952707462</v>
+        <v>1553450.616232585</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1577580.986731654</v>
+        <v>1575362.884018139</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1599878.842053232</v>
+        <v>1597631.536939543</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1622538.790170459</v>
+        <v>1620261.840826431</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1645566.079393251</v>
+        <v>1643259.03839127</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1668965.923939402</v>
+        <v>1666628.338340993</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1692743.49248264</v>
+        <v>1690374.903941128</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1716903.896148492</v>
+        <v>1714503.841028424</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1741452.17595293</v>
+        <v>1739020.185466938</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1766393.289681434</v>
+        <v>1763928.890045203</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1439161.289223908</v>
+        <v>1473887.991505672</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1460071.504584418</v>
+        <v>1495286.19025564</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1481316.135161261</v>
+        <v>1517026.346496729</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1502898.974354746</v>
+        <v>1539112.331508271</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1524823.692706209</v>
+        <v>1561547.890505891</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1547093.824614606</v>
+        <v>1584336.629043742</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1569712.75461823</v>
+        <v>1607481.998972359</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1592683.703250537</v>
+        <v>1630987.283961377</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1616009.712482021</v>
+        <v>1654855.584599389</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1639693.630765614</v>
+        <v>1679089.803088878</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1663738.097701073</v>
+        <v>1703692.627552101</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1688145.528337484</v>
+        <v>1728666.515967559</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1712918.097138812</v>
+        <v>1754013.679762607</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1738057.721636401</v>
+        <v>1779736.067086746</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1763566.045796291</v>
+        <v>1805835.34579414</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1789444.423134996</v>
+        <v>1832312.886169859</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1815693.899615285</v>
+        <v>1859169.743432184</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1842315.196361437</v>
+        <v>1886406.640051402</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1869308.692236311</v>
+        <v>1914023.947928492</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1896674.40632091</v>
+        <v>1942021.670475367</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1924411.980348685</v>
+        <v>1970399.424650183</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1952520.661141411</v>
+        <v>1999156.422995703</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1980999.283106528</v>
+        <v>2028291.455742026</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2009846.250849005</v>
+        <v>2057802.873028041</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2039059.521962708</v>
+        <v>2087688.567308119</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2068636.590065773</v>
+        <v>2117945.956010088</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2098574.468146991</v>
+        <v>2148571.964513091</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2128869.672295928</v>
+        <v>2179563.009519768</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>2159518.205891076</v>
+        <v>2210914.982898802</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2190515.54432359</v>
+        <v>2242623.23607721</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2221856.620335634</v>
+        <v>2274682.56506325</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2253535.810057979</v>
+        <v>2307087.19618654</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2285546.919829876</v>
+        <v>2339830.772640373</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2317883.173888948</v>
+        <v>2372906.34191596</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2350537.20302001</v>
+        <v>2406306.344219583</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2383501.034251506</v>
+        <v>2440022.601963368</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2416766.081690092</v>
+        <v>2474046.310422279</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2450323.138587783</v>
+        <v>2508368.029653883</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2484162.370728734</v>
+        <v>2542977.677769943</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2518273.31122926</v>
+        <v>2577864.52565553</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2552644.856841983</v>
+        <v>2613017.193228588</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2587265.265851073</v>
+        <v>2648423.64732884</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>2622122.157648738</v>
+        <v>2684071.201328202</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>2657202.514073279</v>
+        <v>2719946.516544744</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>2692492.682597659</v>
+        <v>2756035.605551116</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>2727978.381438866</v>
+        <v>2792323.837449216</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>2763644.706671058</v>
+        <v>2828795.945195848</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>2799476.141404001</v>
+        <v>2865436.03504217</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>2835456.567099297</v>
+        <v>2902227.598160958</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2871569.277076768</v>
+        <v>2939153.524515046</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2907796.992267866</v>
+        <v>2976196.119024995</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2944121.879258074</v>
+        <v>3013337.120078694</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2980525.57065895</v>
+        <v>3050557.720424304</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>3016989.187837192</v>
+        <v>3087838.590474337</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>3053493.366022754</v>
+        <v>3125159.904043172</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>3012617.138676833</v>
+        <v>3103730.921525499</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>3048296.673617281</v>
+        <v>3140427.770475206</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>3083958.3632908</v>
+        <v>3177104.612458239</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>3119581.728607132</v>
+        <v>3213740.344471265</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>3155145.971901514</v>
+        <v>3250313.536968937</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>3190630.015180107</v>
+        <v>3286802.473306398</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>3226012.540563587</v>
+        <v>3323185.191441833</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>3261272.032860833</v>
+        <v>3359439.527828583</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>3296386.824203708</v>
+        <v>3395543.163425372</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>3331335.140662363</v>
+        <v>3431473.67174133</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>3366095.15073926</v>
+        <v>3467208.5688106</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>3400645.015645223</v>
+        <v>3502725.364996593</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>3434962.941232964</v>
+        <v>3538001.618497306</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>3469027.231466705</v>
+        <v>3573014.990426354</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>3502816.343290248</v>
+        <v>3607743.301327685</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>3659922.127459828</v>
+        <v>3741171.454033359</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>3694132.557319592</v>
+        <v>3776093.269082083</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>3727990.190311072</v>
+        <v>3810653.430752249</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>3761473.981004417</v>
+        <v>3844830.436506965</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>3794563.345231359</v>
+        <v>3878603.256446943</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>3827238.221992581</v>
+        <v>3911951.396566345</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>3859479.135563596</v>
+        <v>3944854.962206475</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>3891267.257596863</v>
+        <v>3977294.721500425</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>3922584.469014923</v>
+        <v>4009252.168598926</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>3953413.421484507</v>
+        <v>4040709.586462632</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>4161645.251832432</v>
+        <v>4129005.729423003</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>4192612.159886813</v>
+        <v>4159844.64749885</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>4223017.14202742</v>
+        <v>4190128.069077375</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>4252845.977350749</v>
+        <v>4219841.846629051</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>4282085.559420215</v>
+        <v>4248972.936671871</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>4310723.953040086</v>
+        <v>4277509.456248505</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>4338750.449057057</v>
+        <v>4305440.737456999</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>4366155.616986191</v>
+        <v>4332757.379833085</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>4392931.355260487</v>
+        <v>4359451.300384516</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>4419070.938914787</v>
+        <v>4385515.781089293</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>4070952.694389866</v>
+        <v>4148679.925578616</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>4094106.119829217</v>
+        <v>4172256.371065659</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>4116671.797094228</v>
+        <v>4195233.580219085</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>4138648.849377917</v>
+        <v>4217610.666559218</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>4160037.837529271</v>
+        <v>4239388.208742813</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>4180840.787001327</v>
+        <v>4260568.277991608</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>4201061.211434957</v>
+        <v>4281154.462091384</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>4220704.132750168</v>
+        <v>4301151.885831005</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>4239776.097642186</v>
+        <v>4320567.227776824</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>4258285.190363117</v>
+        <v>4339408.733261153</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>3604373.065533468</v>
+        <v>3261737.211154975</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>3619814.006645972</v>
+        <v>3276175.17305807</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>3634817.072264071</v>
+        <v>3290221.929800625</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>3649394.064366398</v>
+        <v>3303888.016234769</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>3663558.094966281</v>
+        <v>3317185.158731556</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>3677323.577932963</v>
+        <v>3330126.268658444</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>3690706.217172807</v>
+        <v>3342725.432560371</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>3703722.991085635</v>
+        <v>3354997.898964277</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>3716392.133242862</v>
+        <v>3366960.061755291</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>3728733.109201331</v>
+        <v>3378629.44004307</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>3805602.002610945</v>
+        <v>3471513.265126787</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>3817472.312904816</v>
+        <v>3482805.316421841</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>3829074.694648435</v>
+        <v>3493857.00288797</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>3840433.660019023</v>
+        <v>3504690.611818173</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>3851574.793050908</v>
+        <v>3515329.420363713</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>3862524.700807441</v>
+        <v>3525797.651697183</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>3873310.960094301</v>
+        <v>3536120.427074881</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>3883962.059628763</v>
+        <v>3546323.713716328</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>3894507.337583606</v>
+        <v>3556434.268422437</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>3904976.914417441</v>
+        <v>3566479.576847383</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>3915401.620918539</v>
+        <v>3576487.788353083</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>3925812.921372845</v>
+        <v>3586487.64636008</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>3936242.831795781</v>
+        <v>3596508.414134943</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>3946723.833148256</v>
+        <v>3606579.795936582</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>3957288.77948998</v>
+        <v>3616731.853473726</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>3967970.801022474</v>
+        <v>3626994.917624923</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>3978803.201987694</v>
+        <v>3637399.495384825</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>3989819.353417183</v>
+        <v>3647976.172026838</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>4001052.58073749</v>
+        <v>3658755.508482116</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>4012536.046266313</v>
+        <v>3669767.933961058</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>4024302.62666937</v>
+        <v>3681043.633875981</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>4036384.785468788</v>
+        <v>3692612.433142659</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>4048814.440748169</v>
+        <v>3704503.674988205</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>4061622.828221331</v>
+        <v>3716746.095412835</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>4074840.359902447</v>
+        <v>3729367.693517943</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>4088496.478640671</v>
+        <v>3742395.59793624</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>4102619.50886344</v>
+        <v>3755855.929674278</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>4117236.503906924</v>
+        <v>3769773.661709284</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>4132373.090398604</v>
+        <v>3784172.47576186</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>4148053.310208353</v>
+        <v>3799074.616713568</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>4164299.460558272</v>
+        <v>3814500.745206627</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>4181131.932961443</v>
+        <v>3830469.789036723</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>4198569.051725157</v>
+        <v>3846998.794010522</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>4216626.912835855</v>
+        <v>3864102.775015097</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>4235319.224117244</v>
+        <v>3881794.568115359</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>4254657.147630109</v>
+        <v>3900084.684567128</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>4274649.145363582</v>
+        <v>3918981.167709026</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>4295300.829317715</v>
+        <v>3938489.453743427</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>4316614.817179024</v>
+        <v>3958612.237511252</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>4338590.594823262</v>
+        <v>3979349.344396639</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24201835.22750768</v>
+        <v>13311009.37512922</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>29127.18344144967</v>
+        <v>16019.95089279732</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>29569.88058827353</v>
+        <v>16263.43432355044</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>30022.00193927748</v>
+        <v>16512.10106660262</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>30483.87296181049</v>
+        <v>16766.13012899577</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>30955.83215243314</v>
+        <v>17025.70768383823</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>31438.2313965059</v>
+        <v>17291.02726807825</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>31931.43632199283</v>
+        <v>17562.28997709606</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>32435.82664605068</v>
+        <v>17839.70465532787</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>32951.79651247335</v>
+        <v>18123.48808186035</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>33479.75481872186</v>
+        <v>18413.86515029702</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>34020.12553084078</v>
+        <v>18711.06904196243</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>34573.34798404326</v>
+        <v>19015.34139122379</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>35139.87716770887</v>
+        <v>19326.93244223988</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>35720.18399224927</v>
+        <v>19646.1011957371</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>36314.75553639166</v>
+        <v>19973.11554501541</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>36924.09527231437</v>
+        <v>20308.25239977291</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>37548.72326681487</v>
+        <v>20651.79779674818</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>38189.17635624691</v>
+        <v>21004.0469959358</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>38846.00829274433</v>
+        <v>21365.30456100938</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>39519.78985987153</v>
+        <v>21735.88442292935</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>40211.10895486463</v>
+        <v>22116.10992517554</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>40920.57063538798</v>
+        <v>22506.31384946339</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>41648.79712840882</v>
+        <v>22906.83842062485</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>42396.4277984502</v>
+        <v>23318.03528914761</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>43164.11907319941</v>
+        <v>23740.26549025967</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>43952.5443236611</v>
+        <v>24173.8993780136</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>44762.39369658373</v>
+        <v>24619.31653312105</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>45594.37389681618</v>
+        <v>25076.9056432489</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>46449.20791691728</v>
+        <v>25547.0643543045</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>47327.63471194138</v>
+        <v>26030.19909156776</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>48230.40881696929</v>
+        <v>26526.72484933311</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>49158.299905093</v>
+        <v>27037.06494780115</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>50112.09228382278</v>
+        <v>27561.65075610253</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>51092.58432766917</v>
+        <v>28100.92138021805</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>52100.58784513396</v>
+        <v>28655.32331482368</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>53136.92737795218</v>
+        <v>29225.3100578737</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>54202.43943123289</v>
+        <v>29811.34168717809</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>55297.9716326386</v>
+        <v>30413.88439795123</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>56424.38181931467</v>
+        <v>31033.41000062307</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>57582.53705115397</v>
+        <v>31670.39537813469</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>58773.3125498142</v>
+        <v>32325.32190239781</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>59997.59056194632</v>
+        <v>32998.67480907048</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>61256.25914670085</v>
+        <v>33690.94253068547</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>62550.21088667567</v>
+        <v>34402.61598767162</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>63880.34152225649</v>
+        <v>35134.18783724107</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>65247.54850982772</v>
+        <v>35886.15168040525</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>66652.72950368084</v>
+        <v>36659.00122702447</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>68096.78076276025</v>
+        <v>37453.22941951815</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>69580.5954832195</v>
+        <v>38269.32751577072</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>71105.06205784298</v>
+        <v>39107.78413181365</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>72671.0622642973</v>
+        <v>39969.08424536353</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>74279.46938389196</v>
+        <v>40853.70816114058</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>75931.14625360789</v>
+        <v>41762.13043948434</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>77626.94325351207</v>
+        <v>42694.81878943164</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>79367.69623303824</v>
+        <v>43652.23292817103</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>81154.22437954597</v>
+        <v>44634.82340875029</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>82987.32803248515</v>
+        <v>45643.03041786684</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>84867.78644781098</v>
+        <v>46677.28254629605</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>86796.35551699215</v>
+        <v>47737.99553434568</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>88773.76544539107</v>
+        <v>48825.57099496508</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>90800.71839530453</v>
+        <v>49940.39511741749</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>92877.88609962854</v>
+        <v>51082.83735479569</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>95005.9074513676</v>
+        <v>52253.24909825218</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>97185.38607632228</v>
+        <v>53451.96234197725</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>99416.88789461243</v>
+        <v>54679.28834203684</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>101700.9386787423</v>
+        <v>55935.51627330829</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>104038.021615296</v>
+        <v>57220.91188841281</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>106428.5748777325</v>
+        <v>58535.71618275291</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>108872.9892182342</v>
+        <v>59880.1440700288</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>111371.6055870024</v>
+        <v>61254.38307285133</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>113924.712786883</v>
+        <v>62658.59203278564</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>116532.5451724028</v>
+        <v>64092.89984482151</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>119195.2804016882</v>
+        <v>65557.40422092851</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>121913.0372503085</v>
+        <v>67052.17048766969</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>124685.8734960736</v>
+        <v>68577.2304228405</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>127513.7838840569</v>
+        <v>70132.58113623127</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>130396.6981808404</v>
+        <v>71718.18399946223</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>133334.4793275219</v>
+        <v>73333.96363013708</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>136326.9217005034</v>
+        <v>74979.80693527691</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>139373.7494893812</v>
+        <v>76655.56221915968</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>142474.6152010317</v>
+        <v>78361.03836056744</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>145629.0982989317</v>
+        <v>80096.00406441244</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>148836.7039864823</v>
+        <v>81860.18719256527</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>152096.8621431207</v>
+        <v>83653.27417871638</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>155408.926421243</v>
+        <v>85474.90953168362</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>158772.1735126233</v>
+        <v>87324.69543194283</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>162185.8025917552</v>
+        <v>89202.19142546537</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>165648.9349432281</v>
+        <v>91106.91421877545</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>169160.613780902</v>
+        <v>93038.33757949613</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>172719.8042648118</v>
+        <v>94995.89234564653</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>176325.3937219311</v>
+        <v>96978.9665470621</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>179976.1920765943</v>
+        <v>98986.90564212689</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>183670.9324953484</v>
+        <v>101019.0128724417</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>187408.2722504166</v>
+        <v>103074.5497377292</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>191186.7938058282</v>
+        <v>105152.7365932055</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>195005.0061289674</v>
+        <v>107252.7533709321</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>198861.3462300035</v>
+        <v>109373.7404265019</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>202754.1809307512</v>
+        <v>111514.7995119132</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>206681.808863632</v>
+        <v>113674.9948749976</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>210642.4627012587</v>
+        <v>115853.3544856923</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>214634.3116152925</v>
+        <v>118048.8713884109</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>218655.4639632411</v>
+        <v>120260.5051797826</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>222703.9702011666</v>
+        <v>122487.1836106416</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>226777.8260182213</v>
+        <v>124727.8043100217</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>230874.9756897917</v>
+        <v>126981.2366293854</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>234993.3156435118</v>
+        <v>129246.3236039315</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>239130.6982329051</v>
+        <v>131521.8840280978</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>243284.9357116913</v>
+        <v>133806.7146414302</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>247453.8044011944</v>
+        <v>136099.5924206569</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>251635.0490427659</v>
+        <v>138399.2769735212</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>255826.3873256598</v>
+        <v>140704.5130291129</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>260025.5145808546</v>
+        <v>143014.0330194701</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>264230.1086296865</v>
+        <v>145326.5597463276</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>268437.8347760062</v>
+        <v>147640.8091268034</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>272646.3509296376</v>
+        <v>149955.4930113007</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>276853.3128483236</v>
+        <v>152269.322066578</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>281056.3794844189</v>
+        <v>154581.0087164304</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>285253.2184225241</v>
+        <v>156889.2701323883</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>289441.5113931873</v>
+        <v>159192.8312662531</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>293618.9598476354</v>
+        <v>161490.4279161995</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>297783.2905778192</v>
+        <v>163780.8098178006</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>301932.2613658702</v>
+        <v>166062.7437512287</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>306063.6666465824</v>
+        <v>168335.0166556203</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>310175.343166361</v>
+        <v>170596.4387414986</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>314265.1756216713</v>
+        <v>172845.8465919193</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>318331.102260284</v>
+        <v>175082.1062431562</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>322371.1204278679</v>
+        <v>177304.1162353274</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>326383.2920434049</v>
+        <v>179510.8106238727</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>330365.7489856487</v>
+        <v>181701.1619421068</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>334316.6983745684</v>
+        <v>183874.1841060126</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>338234.4277304856</v>
+        <v>186028.935251767</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>342117.3099944041</v>
+        <v>188164.5204969223</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>345963.808394106</v>
+        <v>190280.0946167583</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>349772.4811390936</v>
+        <v>192374.8646265015</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>353541.9859303166</v>
+        <v>194448.0922616741</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>357271.0842691159</v>
+        <v>196499.0963480138</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>360958.6455512923</v>
+        <v>198527.2550532108</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>364603.6509331948</v>
+        <v>200532.0080132571</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>368205.1969564928</v>
+        <v>202512.858326071</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>371762.4989197028</v>
+        <v>204469.3744058366</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>375274.8939855154</v>
+        <v>206401.1916920335</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>378741.8440129023</v>
+        <v>208308.0142070963</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>382162.9381051899</v>
+        <v>210189.6159578544</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>385537.8948648382</v>
+        <v>212045.842175661</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>388866.5643481754</v>
+        <v>213876.6103914965</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>392148.9297126029</v>
+        <v>215681.9113419316</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>395385.1085516166</v>
+        <v>217461.8097033892</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>398575.353912842</v>
+        <v>219216.4446520631</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>401720.0549954838</v>
+        <v>220946.0302475161</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>404819.7375257074</v>
+        <v>222650.8556391391</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>407875.0638080102</v>
+        <v>224331.2850944056</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>410886.8324534024</v>
+        <v>225987.7578493714</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>413855.9777848996</v>
+        <v>227620.7877816948</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>416783.5689229057</v>
+        <v>229230.9629075981</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>419670.8085542095</v>
+        <v>230818.9447048153</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>422519.0313881848</v>
+        <v>232385.4672635017</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>425329.7023068946</v>
+        <v>233931.336268792</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>428104.4142147893</v>
+        <v>235457.4278181341</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>430844.8855962551</v>
+        <v>236964.6870779403</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>433552.9577894077</v>
+        <v>238454.1267841743</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>436230.5919858304</v>
+        <v>239926.8255922067</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>438879.8659669275</v>
+        <v>241383.9262818102</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>441502.9705878957</v>
+        <v>242826.6338233427</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>444102.2060221365</v>
+        <v>244256.2133121751</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>446679.9777788417</v>
+        <v>245673.9877783629</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>449238.7925073456</v>
+        <v>247081.3358790401</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>451781.2536029174</v>
+        <v>248479.6894816046</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>454310.0566290355</v>
+        <v>249870.5311459695</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>456827.9845714374</v>
+        <v>251255.3915142906</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>459337.9029402304</v>
+        <v>252635.8466171268</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>461842.754736437</v>
+        <v>254013.5151050404</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>464345.5552998153</v>
+        <v>255390.0554148984</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>466849.3870548971</v>
+        <v>256767.1628801934</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>469357.3941727594</v>
+        <v>258146.5667950177</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>471872.7771658767</v>
+        <v>259530.0274412322</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>474398.7874334791</v>
+        <v>260919.3330884135</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>476938.7217751364</v>
+        <v>262316.296976325</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>479495.9168898222</v>
+        <v>263722.7542894023</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>482073.7438780382</v>
+        <v>265140.559132921</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>484675.6027640671</v>
+        <v>266571.5815202369</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>487304.9170551813</v>
+        <v>268017.7043803498</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>489965.1283544534</v>
+        <v>269480.8205949494</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>492659.6910436833</v>
+        <v>270962.8300740258</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>495392.0670517951</v>
+        <v>272465.6368784873</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>498165.7207243316</v>
+        <v>273991.1463983824</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>500984.1138090242</v>
+        <v>275541.2625949633</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>503850.700571059</v>
+        <v>277117.8853140825</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>506768.9230525793</v>
+        <v>278722.9076789186</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>509742.2064885442</v>
+        <v>280358.2135686993</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>512773.9548915491</v>
+        <v>282025.6751903521</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>515867.5468176465</v>
+        <v>283727.1507497056</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>519026.3313229361</v>
+        <v>285464.4822276148</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>522253.624121767</v>
+        <v>287239.4932669718</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>525552.703955601</v>
+        <v>289053.9871755805</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>528926.8091806564</v>
+        <v>290909.745049361</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>532379.1345820833</v>
+        <v>292808.5240201458</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>535912.8284214839</v>
+        <v>294752.0556318162</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>539530.9897232756</v>
+        <v>296742.0443478017</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>543236.6658053738</v>
+        <v>298780.1661929556</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>547032.8500580061</v>
+        <v>300868.0675319033</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>550922.6029095676</v>
+        <v>303007.4316002622</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>554908.5718085741</v>
+        <v>305199.7144947159</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>558993.6880707387</v>
+        <v>307446.5284389063</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>563180.7122854282</v>
+        <v>309749.3917569855</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>567472.343820718</v>
+        <v>312109.7891013949</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>571871.2201317751</v>
+        <v>314529.1710724764</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>576379.9163235839</v>
+        <v>317008.9539779712</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>581000.9449655087</v>
+        <v>319550.5197310298</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>585736.7561548313</v>
+        <v>322155.2158851573</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>590589.7378256664</v>
+        <v>324824.3558041166</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>595562.2162987434</v>
+        <v>327559.2189643089</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>600656.457067371</v>
+        <v>330361.051387054</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>605874.6658143408</v>
+        <v>333231.0661978874</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>611218.9896531461</v>
+        <v>336170.4443092304</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>616691.5185875002</v>
+        <v>339180.3352231251</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>622294.2871821221</v>
+        <v>342261.8579501672</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>628029.276437016</v>
+        <v>345416.1020403588</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>633898.4158577216</v>
+        <v>348644.1287217469</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>639903.5857138399</v>
+        <v>351946.9721426119</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>646046.6194755496</v>
+        <v>355325.6407115523</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>652329.3064219604</v>
+        <v>358781.1185320782</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>658753.3944096289</v>
+        <v>362314.366925296</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>665320.5927943337</v>
+        <v>365926.3260368836</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>672032.5754939772</v>
+        <v>369617.9165216875</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>678890.9841863471</v>
+        <v>373390.041302491</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>685897.4316286435</v>
+        <v>377243.587395754</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>693053.5050913458</v>
+        <v>381179.4278002402</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>700360.7698953197</v>
+        <v>385198.4234424258</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>707820.7730432047</v>
+        <v>389301.4251737626</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>715435.0469336896</v>
+        <v>393489.2758135293</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>723205.1131503299</v>
+        <v>397762.8122326815</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>731132.4863144674</v>
+        <v>402122.8674729571</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>739218.6779916673</v>
+        <v>406570.2728954171</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>747465.2006433251</v>
+        <v>411105.8603538288</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>755873.5716126448</v>
+        <v>415730.4643869547</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>764445.3171358263</v>
+        <v>420444.9244247045</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>773181.9763692622</v>
+        <v>425250.0870030943</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>782085.1054230867</v>
+        <v>430146.8079826976</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>791156.2813915362</v>
+        <v>435135.954765345</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>800397.1063722018</v>
+        <v>440218.4085047111</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>809809.2114640042</v>
+        <v>445395.0663052024</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>819394.2607353695</v>
+        <v>450666.8434044533</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>829153.9551547985</v>
+        <v>456034.6753351391</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>839090.0364737964</v>
+        <v>461499.520060588</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>849204.2910552608</v>
+        <v>467062.3600803934</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>859498.5536378179</v>
+        <v>472724.2045007999</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>869974.7110285665</v>
+        <v>478486.0910657116</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>880634.7057158959</v>
+        <v>484349.0881437428</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>891480.5393946813</v>
+        <v>490314.2966670748</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>902514.2763950585</v>
+        <v>496382.8520172822</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>913738.047008205</v>
+        <v>502555.9258545127</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>925154.0507003911</v>
+        <v>508834.7278852152</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>936764.5592072553</v>
+        <v>515220.5075639905</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>948571.9195016384</v>
+        <v>521714.5557259011</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>960578.5566263762</v>
+        <v>528318.2061445069</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>972786.9763841771</v>
+        <v>535032.8370112975</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>985199.767877085</v>
+        <v>541859.8723323968</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>997819.6058880541</v>
+        <v>548800.7832384298</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>1010649.253095184</v>
+        <v>555857.0892023512</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>1023691.562112797</v>
+        <v>563030.3591620382</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>1036949.477348979</v>
+        <v>570322.2125419388</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>1050426.036672342</v>
+        <v>577734.3201697883</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>1064124.37288094</v>
+        <v>585268.4050845172</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>1078047.714960862</v>
+        <v>592926.2432284742</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>1092199.389130771</v>
+        <v>600709.6640219243</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>1106582.819659768</v>
+        <v>608620.5508128721</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>1121201.529450386</v>
+        <v>616660.8411977121</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>1136059.140378669</v>
+        <v>624832.5272082679</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>1151159.373379873</v>
+        <v>633137.6553589302</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1166506.048271912</v>
+        <v>641578.3265495517</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1182103.08330486</v>
+        <v>650156.6958176733</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1197954.494427686</v>
+        <v>658874.9719352275</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1214064.394261237</v>
+        <v>667735.4168436807</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1230436.99076642</v>
+        <v>676740.3449215308</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1247076.585597961</v>
+        <v>685892.1220788787</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1263987.572131325</v>
+        <v>695193.1646722286</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1281174.43315255</v>
+        <v>704645.9382339026</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1298641.738198915</v>
+        <v>714252.9560094035</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1316394.140539581</v>
+        <v>724016.7772967694</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1334436.373783783</v>
+        <v>733940.0055810804</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1352773.248105297</v>
+        <v>744025.2864579133</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1371409.646070962</v>
+        <v>754275.3053390294</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1390350.518061528</v>
+        <v>764692.7849338407</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1409600.877273269</v>
+        <v>775280.4825002977</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1429165.79428712</v>
+        <v>786041.1868579158</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1449050.391195585</v>
+        <v>796977.7151575716</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1469259.835274025</v>
+        <v>808092.9094007139</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1489799.332185953</v>
+        <v>819389.632702274</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1510674.118710754</v>
+        <v>830870.7652909148</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1531889.454982933</v>
+        <v>842539.2002406132</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1553450.616232585</v>
+        <v>854397.8389279218</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1575362.884018139</v>
+        <v>866449.5862099766</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1597631.536939543</v>
+        <v>878697.3453167488</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1620261.840826431</v>
+        <v>891144.012454537</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1643259.03839127</v>
+        <v>903792.4711151986</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1666628.338340993</v>
+        <v>916645.5860875463</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1690374.903941128</v>
+        <v>929706.1971676203</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1714503.841028424</v>
+        <v>942977.1125656336</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1739020.185466938</v>
+        <v>956461.102006816</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1763928.890045203</v>
+        <v>970160.8895248617</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1473887.991505672</v>
+        <v>810638.3953281194</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1495286.19025564</v>
+        <v>822407.4046406022</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1517026.346496729</v>
+        <v>834364.4905732009</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1539112.331508271</v>
+        <v>846511.7823295491</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1561547.890505891</v>
+        <v>858851.3397782401</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1584336.629043742</v>
+        <v>871385.145974058</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1607481.998972359</v>
+        <v>884115.0994347974</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1630987.283961377</v>
+        <v>897043.0061787572</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1654855.584599389</v>
+        <v>910170.5715296639</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1679089.803088878</v>
+        <v>923499.3916988827</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1703692.627552101</v>
+        <v>937030.9451536554</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1728666.515967559</v>
+        <v>950766.5837821572</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1754013.679762607</v>
+        <v>964707.5238694336</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1779736.067086746</v>
+        <v>978854.8368977106</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1805835.34579414</v>
+        <v>993209.4401867772</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1832312.886169859</v>
+        <v>1007772.087393422</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1859169.743432184</v>
+        <v>1022543.358887701</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1886406.640051402</v>
+        <v>1037523.652028271</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1914023.947928492</v>
+        <v>1052713.171360671</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1942021.670475367</v>
+        <v>1068111.918761452</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1970399.424650183</v>
+        <v>1083719.683557601</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1999156.422995703</v>
+        <v>1099536.032647636</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>2028291.455742026</v>
+        <v>1115560.300658114</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>2057802.873028041</v>
+        <v>1131791.580165423</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>2087688.567308119</v>
+        <v>1148228.712019466</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>2117945.956010088</v>
+        <v>1164870.275805549</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>2148571.964513091</v>
+        <v>1181714.5804822</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>2179563.009519768</v>
+        <v>1198759.655235873</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>2210914.982898802</v>
+        <v>1216003.240594341</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2242623.23607721</v>
+        <v>1233442.779842466</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2274682.56506325</v>
+        <v>1251075.410784787</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2307087.19618654</v>
+        <v>1268897.957902597</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2339830.772640373</v>
+        <v>1286906.924952206</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2372906.34191596</v>
+        <v>1305098.488053778</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2406306.344219583</v>
+        <v>1323468.489320771</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2440022.601963368</v>
+        <v>1342012.431079853</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2474046.310422279</v>
+        <v>1360725.470732254</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2508368.029653883</v>
+        <v>1379602.416309636</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2542977.677769943</v>
+        <v>1398637.722773469</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2577864.52565553</v>
+        <v>1417825.489110542</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2613017.193228588</v>
+        <v>1437159.456275723</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2648423.64732884</v>
+        <v>1456633.006030862</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>2684071.201328202</v>
+        <v>1476239.160730511</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>2719946.516544744</v>
+        <v>1495970.584099609</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>2756035.605551116</v>
+        <v>1515819.583053114</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>2792323.837449216</v>
+        <v>1535778.110597069</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>2828795.945195848</v>
+        <v>1555837.769857717</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>2865436.03504217</v>
+        <v>1575989.819273194</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>2902227.598160958</v>
+        <v>1596225.178988527</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2939153.524515046</v>
+        <v>1616534.438483275</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2976196.119024995</v>
+        <v>1636907.865463747</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>3013337.120078694</v>
+        <v>1657335.416043282</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>3050557.720424304</v>
+        <v>1677806.746233367</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>3087838.590474337</v>
+        <v>1698311.224760886</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>3125159.904043172</v>
+        <v>1718837.947223744</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>3103730.921525499</v>
+        <v>1707052.006839024</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>3140427.770475206</v>
+        <v>1727235.273761363</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>3177104.612458239</v>
+        <v>1747407.536852031</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>3213740.344471265</v>
+        <v>1767557.189459196</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>3250313.536968937</v>
+        <v>1787672.445332915</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>3286802.473306398</v>
+        <v>1807741.360318519</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>3323185.191441833</v>
+        <v>1827751.855293008</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>3359439.527828583</v>
+        <v>1847691.740305721</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>3395543.163425372</v>
+        <v>1867548.739883954</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>3431473.67174133</v>
+        <v>1887310.519457731</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>3467208.5688106</v>
+        <v>1906964.71284583</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>3502725.364996593</v>
+        <v>1926498.950748126</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>3538001.618497306</v>
+        <v>1945900.890173518</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>3573014.990426354</v>
+        <v>1965158.244734495</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>3607743.301327685</v>
+        <v>1984258.815730227</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>3741171.454033359</v>
+        <v>2057644.299718348</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>3776093.269082083</v>
+        <v>2076851.297995146</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>3810653.430752249</v>
+        <v>2095859.386913737</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>3844830.436506965</v>
+        <v>2114656.740078831</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>3878603.256446943</v>
+        <v>2133231.791045818</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>3911951.396566345</v>
+        <v>2151573.26811149</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>3944854.962206475</v>
+        <v>2169670.229213561</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>3977294.721500425</v>
+        <v>2187512.096825234</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>4009252.168598926</v>
+        <v>2205088.692729409</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>4040709.586462632</v>
+        <v>2222390.272554448</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>4129005.729423003</v>
+        <v>2270953.151182652</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>4159844.64749885</v>
+        <v>2287914.556124368</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>4190128.069077375</v>
+        <v>2304570.437992556</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>4219841.846629051</v>
+        <v>2320913.015645978</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>4248972.936671871</v>
+        <v>2336935.115169529</v>
       </c>
     </row>
     <row r="388">

--- a/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>13311009.37512922</v>
+        <v>24038906.3850759</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>16019.95089279732</v>
+        <v>28931.17366267106</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>16263.43432355044</v>
+        <v>29370.96996600106</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>16512.10106660262</v>
+        <v>29820.12961069287</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>16766.13012899577</v>
+        <v>30278.97595935772</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>17025.70768383823</v>
+        <v>30747.84532008644</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>17291.02726807825</v>
+        <v>31227.08730381621</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>17562.28997709606</v>
+        <v>31717.06517595852</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>17839.70465532787</v>
+        <v>32218.15620086791</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>18123.48808186035</v>
+        <v>32730.75197723418</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>18413.86515029702</v>
+        <v>33255.25876313686</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>18711.06904196243</v>
+        <v>33792.09778907381</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>19015.34139122379</v>
+        <v>34341.70555676104</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>19326.93244223988</v>
+        <v>34904.53412245605</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>19646.1011957371</v>
+        <v>35481.0513622764</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>19973.11554501541</v>
+        <v>36071.74121807304</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>20308.25239977291</v>
+        <v>36677.10392130951</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>20651.79779674818</v>
+        <v>37297.656193139</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>21004.0469959358</v>
+        <v>37933.93141843074</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>21365.30456100938</v>
+        <v>38586.47979127956</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>21735.88442292935</v>
+        <v>39255.86843015016</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>22116.10992517554</v>
+        <v>39942.68145983873</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>22506.31384946339</v>
+        <v>40647.52005818983</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>22906.83842062485</v>
+        <v>41371.00246518651</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>23318.03528914761</v>
+        <v>42113.76395169138</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>23740.26549025967</v>
+        <v>42876.45674582875</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>24173.8993780136</v>
+        <v>43659.74991421455</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>24619.31653312105</v>
+        <v>44464.32919577739</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>25076.9056432489</v>
+        <v>45290.8967858418</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>25547.0643543045</v>
+        <v>46140.17106781359</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>26030.19909156776</v>
+        <v>47012.88629040297</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>26526.72484933311</v>
+        <v>47909.79218796983</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>27037.06494780115</v>
+        <v>48831.65354171403</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>27561.65075610253</v>
+        <v>49779.24967969092</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>28100.92138021805</v>
+        <v>50753.37391341887</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>28655.32331482368</v>
+        <v>51754.83290932302</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>29225.3100578737</v>
+        <v>52784.44599287015</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>29811.34168717809</v>
+        <v>53843.04438405027</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>30413.88439795123</v>
+        <v>54931.47036235551</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>31033.41000062307</v>
+        <v>56050.57635997441</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>31670.39537813469</v>
+        <v>57201.22398179524</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>32325.32190239781</v>
+        <v>58384.28295163765</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>32998.67480907048</v>
+        <v>59600.62998317974</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>33690.94253068547</v>
+        <v>60851.14757564523</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>34402.61598767162</v>
+        <v>62136.72273341841</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>35134.18783724107</v>
+        <v>63458.24560953621</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>35886.15168040525</v>
+        <v>64816.60807353072</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>36659.00122702447</v>
+        <v>66212.70220344847</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>37453.22941951815</v>
+        <v>67647.41870317706</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>38269.32751577072</v>
+        <v>69121.64524604419</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>39107.78413181365</v>
+        <v>70636.2647457352</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>39969.08424536353</v>
+        <v>72192.15355647876</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>40853.70816114058</v>
+        <v>73790.17960416783</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>41762.13043948434</v>
+        <v>75431.20045115406</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>42694.81878943164</v>
+        <v>77116.06129681887</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>43652.23292817103</v>
+        <v>78845.59291737618</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>44634.82340875029</v>
+        <v>80620.60954829578</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>45643.03041786684</v>
+        <v>82441.90671264996</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>46677.28254629605</v>
+        <v>84310.25899999785</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>47737.99553434568</v>
+        <v>86226.41780011912</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>48825.57099496508</v>
+        <v>88191.10899634421</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>49940.39511741749</v>
+        <v>90205.03062373254</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>51082.83735479569</v>
+        <v>92268.85049802369</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>52253.24909825218</v>
+        <v>94383.20382054512</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>53451.96234197725</v>
+        <v>96548.69076636239</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>54679.28834203684</v>
+        <v>98765.8740612913</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>55935.51627330829</v>
+        <v>101035.2765554267</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>57220.91188841281</v>
+        <v>103357.37880023</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>58535.71618275291</v>
+        <v>105732.616636596</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>59880.1440700288</v>
+        <v>108161.3788017988</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>61254.38307285133</v>
+        <v>110644.0045636592</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>62658.59203278564</v>
+        <v>113180.7813897605</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>64092.89984482151</v>
+        <v>115771.9426607393</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>65557.40422092851</v>
+        <v>118417.6654360648</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>67052.17048766969</v>
+        <v>121118.0682812925</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>68577.2304228405</v>
+        <v>123873.2091657631</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>70132.58113623127</v>
+        <v>126683.0834399593</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>71718.18399946223</v>
+        <v>129547.6219014596</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>73333.96363013708</v>
+        <v>132466.6889589678</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>74979.80693527691</v>
+        <v>135440.0809033826</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>76655.56221915968</v>
+        <v>138467.524295167</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>78361.03836056744</v>
+        <v>141548.6744770557</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>80096.00406441244</v>
+        <v>144683.1142210836</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>81860.18719256527</v>
+        <v>147870.3525186485</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>83653.27417871638</v>
+        <v>151109.8235223399</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>85474.90953168362</v>
+        <v>154400.885647508</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>87324.69543194283</v>
+        <v>157742.8208422041</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>89202.19142546537</v>
+        <v>161134.8340328744</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>91106.91421877545</v>
+        <v>164576.0527528782</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>93038.33757949613</v>
+        <v>168065.5269615471</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>94995.89234564653</v>
+        <v>171602.2290596815</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>96978.9665470621</v>
+        <v>175185.0541075802</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>98986.90564212689</v>
+        <v>178812.8202513684</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>101019.0128724417</v>
+        <v>182484.2693623695</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>103074.5497377292</v>
+        <v>186198.0678936799</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>105152.7365932055</v>
+        <v>189952.8079579817</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>107252.7533709321</v>
+        <v>193747.0086293317</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>109373.7404265019</v>
+        <v>197579.1174713788</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>111514.7995119132</v>
+        <v>201447.5122935555</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>113674.9948749976</v>
+        <v>205350.5031359127</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>115853.3544856923</v>
+        <v>209286.3344831245</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>118048.8713884109</v>
+        <v>213253.1877063259</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>120260.5051797826</v>
+        <v>217249.183731465</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>122487.1836106416</v>
+        <v>221272.3859321581</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>124727.8043100217</v>
+        <v>225320.8032429982</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>126981.2366293854</v>
+        <v>229392.3934901218</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>129246.3236039315</v>
+        <v>233485.0669333382</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>131521.8840280978</v>
+        <v>237596.6900146205</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>133806.7146414302</v>
+        <v>241725.0893060436</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>136099.5924206569</v>
+        <v>245868.055649659</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>138399.2769735212</v>
+        <v>250023.3484812781</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>140704.5130291129</v>
+        <v>254188.7003286669</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>143014.0330194701</v>
+        <v>258361.8214747118</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>145326.5597463276</v>
+        <v>262540.4047744976</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>147640.8091268034</v>
+        <v>266722.1306150863</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>149955.4930113007</v>
+        <v>270904.672005857</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>152269.322066578</v>
+        <v>275085.6997866787</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>154581.0087164304</v>
+        <v>279262.8879402653</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>156889.2701323883</v>
+        <v>283433.9189950014</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>159192.8312662531</v>
+        <v>287596.4895034602</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>161490.4279161995</v>
+        <v>291748.3155816759</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>163780.8098178006</v>
+        <v>295887.1384935569</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>166062.7437512287</v>
+        <v>300010.7302646402</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>168335.0166556203</v>
+        <v>304116.8993089068</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>170596.4387414986</v>
+        <v>308203.496052207</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>172845.8465919193</v>
+        <v>312268.4185354366</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>175082.1062431562</v>
+        <v>316309.6179808676</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>177304.1162353274</v>
+        <v>320325.1043042946</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>179510.8106238727</v>
+        <v>324312.9515565767</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>181701.1619421068</v>
+        <v>328271.3032769083</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>183874.1841060126</v>
+        <v>332198.3777418604</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>186028.935251767</v>
+        <v>336092.473093009</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>188164.5204969223</v>
+        <v>339951.9723267516</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>190280.0946167583</v>
+        <v>343775.348130982</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>192374.8646265015</v>
+        <v>347561.1675518057</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>194448.0922616741</v>
+        <v>351308.0964763212</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>196499.0963480138</v>
+        <v>355014.9039159936</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>198527.2550532108</v>
+        <v>358680.4660766122</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>200532.0080132571</v>
+        <v>362303.7702018087</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>202512.858326071</v>
+        <v>365883.9181768732</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>204469.3744058366</v>
+        <v>369420.129881015</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>206401.1916920335</v>
+        <v>372911.7462771733</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>208308.0142070963</v>
+        <v>376358.2322284224</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>210189.6159578544</v>
+        <v>379759.1790322061</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>212045.842175661</v>
+        <v>383114.3066631944</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>213876.6103914965</v>
+        <v>386423.4657180435</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>215681.9113419316</v>
+        <v>389686.6390546193</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>217461.8097033892</v>
+        <v>392903.9431210484</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>219216.4446520631</v>
+        <v>396075.6289698171</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>220946.0302475161</v>
+        <v>399202.0829533363</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>222650.8556391391</v>
+        <v>402283.8270994871</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>224331.2850944056</v>
+        <v>405321.5191652137</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>225987.7578493714</v>
+        <v>408315.9523689653</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>227620.7877816948</v>
+        <v>411268.0548024827</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>229230.9629075981</v>
+        <v>414178.8885244788</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>230818.9447048153</v>
+        <v>417049.64833991</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>232385.4672635017</v>
+        <v>419881.6602683924</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>233931.336268792</v>
+        <v>422676.3797084171</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>235457.4278181341</v>
+        <v>425435.3893030105</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>236964.6870779403</v>
+        <v>428160.3965150334</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>238454.1267841743</v>
+        <v>430853.230920457</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>239926.8255922067</v>
+        <v>433515.841229245</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>241383.9262818102</v>
+        <v>436150.2920444395</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>242826.6338233427</v>
+        <v>438758.7603703769</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>244256.2133121751</v>
+        <v>441343.53188277</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>245673.9877783629</v>
+        <v>443906.996973303</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>247081.3358790401</v>
+        <v>446451.6465822417</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>248479.6894816046</v>
+        <v>448980.0678336342</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>249870.5311459695</v>
+        <v>451494.9394880468</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>251255.3915142906</v>
+        <v>453999.0272280248</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>252635.8466171268</v>
+        <v>456495.1787924619</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>254013.5151050404</v>
+        <v>458986.3189761405</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>255390.0554148984</v>
+        <v>461475.4445111806</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>256767.1628801934</v>
+        <v>463965.6188472253</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>258146.5667950177</v>
+        <v>466459.9668477707</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>259530.0274412322</v>
+        <v>468961.6694198764</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>260919.3330884135</v>
+        <v>471473.95809457</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>262316.296976325</v>
+        <v>474000.1095755563</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>263722.7542894023</v>
+        <v>476543.4402733754</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>265140.559132921</v>
+        <v>479107.3008424806</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>266571.5815202369</v>
+        <v>481695.0707381996</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>268017.7043803498</v>
+        <v>484310.1528103013</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>269480.8205949494</v>
+        <v>486955.967949711</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>270962.8300740258</v>
+        <v>489635.9498047909</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>272465.6368784873</v>
+        <v>492353.5395824419</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>273991.1463983824</v>
+        <v>495112.1809495632</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>275541.2625949633</v>
+        <v>497915.3150497563</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>277117.8853140825</v>
+        <v>500766.3756488123</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>278722.9076789186</v>
+        <v>503668.7844234371</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>280358.2135686993</v>
+        <v>506625.9464052642</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>282025.6751903521</v>
+        <v>509641.2455926861</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>283727.1507497056</v>
+        <v>512718.0407424713</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>285464.4822276148</v>
+        <v>515859.6613508855</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>287239.4932669718</v>
+        <v>519069.4038350928</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>289053.9871755805</v>
+        <v>522350.5279238387</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>290909.745049361</v>
+        <v>525706.2532654905</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>292808.5240201458</v>
+        <v>529139.7562611412</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>294752.0556318162</v>
+        <v>532654.1671295586</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>296742.0443478017</v>
+        <v>536252.5672094484</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>298780.1661929556</v>
+        <v>539937.9865044794</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>300868.0675319033</v>
+        <v>543713.4014748693</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>303007.4316002622</v>
+        <v>547581.8552689541</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>305199.7144947159</v>
+        <v>551545.9806156873</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>307446.5284389063</v>
+        <v>555608.692443642</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>309749.3917569855</v>
+        <v>559772.7360446659</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>312109.7891013949</v>
+        <v>564040.7959135106</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>314529.1710724764</v>
+        <v>568415.4950594479</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>317008.9539779712</v>
+        <v>572899.3945706685</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>319550.5197310298</v>
+        <v>577494.9934289779</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>322155.2158851573</v>
+        <v>582204.7285719563</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>324824.3558041166</v>
+        <v>587030.9751990071</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>327559.2189643089</v>
+        <v>591976.0473168263</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>330361.051387054</v>
+        <v>597042.1985196359</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>333231.0661978874</v>
+        <v>602231.6229989832</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>336170.4443092304</v>
+        <v>607546.4567765237</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>339180.3352231251</v>
+        <v>612988.7791538185</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>342261.8579501672</v>
+        <v>618560.614372163</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>345416.1020403588</v>
+        <v>624263.9334747227</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>348644.1287217469</v>
+        <v>630100.6563635111</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>351946.9721426119</v>
+        <v>636072.6540435624</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>355325.6407115523</v>
+        <v>642181.7510440808</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>358781.1185320782</v>
+        <v>648429.7280104604</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>362314.366925296</v>
+        <v>654818.3244555739</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>365926.3260368836</v>
+        <v>661349.2416634716</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>369617.9165216875</v>
+        <v>668024.1457334403</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>373390.041302491</v>
+        <v>674844.6707581955</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>377243.587395754</v>
+        <v>681812.4221231932</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>381179.4278002402</v>
+        <v>688928.9799196895</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>385198.4234424258</v>
+        <v>696195.9024605139</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>389301.4251737626</v>
+        <v>703614.729889658</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>393489.2758135293</v>
+        <v>711186.9878743537</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>397762.8122326815</v>
+        <v>718914.1913713531</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>402122.8674729571</v>
+        <v>726797.8484570335</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>406570.2728954171</v>
+        <v>734839.4642108064</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>411105.8603538288</v>
+        <v>743040.5446435378</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>415730.4643869547</v>
+        <v>751402.6006602478</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>420444.9244247045</v>
+        <v>759927.1520479799</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>425250.0870030943</v>
+        <v>768615.7314797018</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>430146.8079826976</v>
+        <v>777469.8885246343</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>435135.954765345</v>
+        <v>786491.1936555288</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>440218.4085047111</v>
+        <v>795681.2422450188</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>445395.0663052024</v>
+        <v>805041.6585409378</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>450666.8434044533</v>
+        <v>814574.0996121336</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>456034.6753351391</v>
+        <v>824280.2592570143</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>461499.520060588</v>
+        <v>834161.8718648576</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>467062.3600803934</v>
+        <v>844220.7162230125</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>472724.2045007999</v>
+        <v>854458.6192605492</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>478486.0910657116</v>
+        <v>864877.4597208505</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>484349.0881437428</v>
+        <v>875479.1717548643</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>490314.2966670748</v>
+        <v>886265.7484273619</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>496382.8520172822</v>
+        <v>897239.2451274528</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>502555.9258545127</v>
+        <v>908401.7828768232</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>508834.7278852152</v>
+        <v>919755.5515270047</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>515220.5075639905</v>
+        <v>931302.8128376763</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>521714.5557259011</v>
+        <v>943045.9034293685</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>528318.2061445069</v>
+        <v>954987.2376020161</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>535032.8370112975</v>
+        <v>967129.3100115269</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>541859.8723323968</v>
+        <v>979474.6981969101</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>548800.7832384298</v>
+        <v>992026.0649505258</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>555857.0892023512</v>
+        <v>1004786.160522058</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>563030.3591620382</v>
+        <v>1017757.824650417</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>570322.2125419388</v>
+        <v>1030943.98841326</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>577734.3201697883</v>
+        <v>1044347.675886897</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>585268.4050845172</v>
+        <v>1057972.005609593</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>592926.2432284742</v>
+        <v>1071820.191835804</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>600709.6640219243</v>
+        <v>1085895.545577675</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>608620.5508128721</v>
+        <v>1100201.475421216</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>616660.8411977121</v>
+        <v>1114741.488109022</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>624832.5272082679</v>
+        <v>1129519.188881505</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>633137.6553589302</v>
+        <v>1144538.281565264</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>641578.3265495517</v>
+        <v>1159802.568400727</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>650156.6958176733</v>
+        <v>1175315.949597442</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>658874.9719352275</v>
+        <v>1191082.422608247</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>667735.4168436807</v>
+        <v>1207106.081111367</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>676740.3449215308</v>
+        <v>1223391.113689453</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>685892.1220788787</v>
+        <v>1239941.802195994</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>695193.1646722286</v>
+        <v>1256762.519796714</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>704645.9382339026</v>
+        <v>1273857.728675801</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>714252.9560094035</v>
+        <v>1291231.977394898</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>724016.7772967694</v>
+        <v>1308889.89789407</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>733940.0055810804</v>
+        <v>1326836.202122384</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>744025.2864579133</v>
+        <v>1345075.678286856</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>754275.3053390294</v>
+        <v>1363613.186707621</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>764692.7849338407</v>
+        <v>1382453.655267628</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>775280.4825002977</v>
+        <v>1401602.074445377</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>786041.1868579158</v>
+        <v>1421063.491917483</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>796977.7151575716</v>
+        <v>1440843.006721368</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>808092.9094007139</v>
+        <v>1460945.762964756</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>819389.632702274</v>
+        <v>1481376.943071615</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>830870.7652909148</v>
+        <v>1502141.760553045</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>842539.2002406132</v>
+        <v>1523245.452292206</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>854397.8389279218</v>
+        <v>1544693.270333078</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>866449.5862099766</v>
+        <v>1566490.473164077</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>878697.3453167488</v>
+        <v>1588642.316484787</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>891144.012454537</v>
+        <v>1611154.043450316</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>903792.4711151986</v>
+        <v>1634030.874383345</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>916645.5860875463</v>
+        <v>1657277.995947354</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>929706.1971676203</v>
+        <v>1680900.549775077</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>942977.1125656336</v>
+        <v>1704903.620548153</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>956461.102006816</v>
+        <v>1729292.223522967</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>970160.8895248617</v>
+        <v>1754071.291500279</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>810638.3953281194</v>
+        <v>1315707.611848977</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>822407.4046406022</v>
+        <v>1334968.128384865</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>834364.4905732009</v>
+        <v>1354538.952899281</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>846511.7823295491</v>
+        <v>1374423.672022819</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>858851.3397782401</v>
+        <v>1394625.762152717</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>871385.145974058</v>
+        <v>1415148.577255358</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>884115.0994347974</v>
+        <v>1435995.336262589</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>897043.0061787572</v>
+        <v>1457169.110069691</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>910170.5715296639</v>
+        <v>1478672.808145575</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>923499.3916988827</v>
+        <v>1500509.164770793</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>937030.9451536554</v>
+        <v>1522680.724917152</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>950766.5837821572</v>
+        <v>1545189.829786086</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>964707.5238694336</v>
+        <v>1568038.60202825</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>978854.8368977106</v>
+        <v>1591228.930665888</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>993209.4401867772</v>
+        <v>1614762.455743155</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1007772.087393422</v>
+        <v>1638640.552734904</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1022543.358887701</v>
+        <v>1662864.316742544</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1037523.652028271</v>
+        <v>1687434.546512829</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1052713.171360671</v>
+        <v>1712351.728318154</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1068111.918761452</v>
+        <v>1737616.019735391</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1083719.683557601</v>
+        <v>1763227.233370952</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1099536.032647636</v>
+        <v>1789184.820574845</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1115560.300658114</v>
+        <v>1815487.855198504</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1131791.580165423</v>
+        <v>1842135.017444921</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1148228.712019466</v>
+        <v>1869124.577870648</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1164870.275805549</v>
+        <v>1896454.381598765</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1181714.5804822</v>
+        <v>1924121.832804355</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1198759.655235873</v>
+        <v>1952123.879539246</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1216003.240594341</v>
+        <v>1980456.998964331</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1233442.779842466</v>
+        <v>2009117.183060829</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1251075.410784787</v>
+        <v>2038099.924893235</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1268897.957902597</v>
+        <v>2067400.205501971</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1286906.924952206</v>
+        <v>2097012.481502317</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1305098.488053778</v>
+        <v>2126930.673470617</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1323468.489320771</v>
+        <v>2157148.155199892</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1342012.431079853</v>
+        <v>2187657.743906911</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1360725.470732254</v>
+        <v>2218451.691474487</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1379602.416309636</v>
+        <v>2249521.676816475</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1398637.722773469</v>
+        <v>2280858.799446257</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1417825.489110542</v>
+        <v>2312453.574335605</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1437159.456275723</v>
+        <v>2344295.928148406</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1456633.006030862</v>
+        <v>2376375.196930222</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1476239.160730511</v>
+        <v>2408680.125337665</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1495970.584099609</v>
+        <v>2441198.86748265</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1515819.583053114</v>
+        <v>2473918.989474564</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1535778.110597069</v>
+        <v>2506827.473726377</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1555837.769857717</v>
+        <v>2539910.725102433</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1575989.819273194</v>
+        <v>2573154.578966031</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1596225.178988527</v>
+        <v>2606544.311195097</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>1616534.438483275</v>
+        <v>2640064.650215779</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>1636907.865463747</v>
+        <v>2673699.791108041</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>1657335.416043282</v>
+        <v>2707433.411823679</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1677806.746233367</v>
+        <v>2741248.691556063</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>1698311.224760886</v>
+        <v>2775128.331288698</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>1718837.947223744</v>
+        <v>2809054.576544881</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>1707052.006839024</v>
+        <v>2776109.664221636</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>1727235.273761363</v>
+        <v>2809337.172545706</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>1747407.536852031</v>
+        <v>2842557.399756503</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>1767557.189459196</v>
+        <v>2875751.500148525</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>1787672.445332915</v>
+        <v>2908900.325031503</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>1807741.360318519</v>
+        <v>2941984.457745175</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>1827751.855293008</v>
+        <v>2974984.250725699</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>1847691.740305721</v>
+        <v>3007879.864562954</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>1867548.739883954</v>
+        <v>3040651.308987085</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>1887310.519457731</v>
+        <v>3073278.48571193</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>1906964.71284583</v>
+        <v>3105741.233043332</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>1926498.950748126</v>
+        <v>3138019.372164967</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>1945900.890173518</v>
+        <v>3170092.754988556</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>1965158.244734495</v>
+        <v>3201941.31345814</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>1984258.815730227</v>
+        <v>3233545.110182997</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2057644.299718348</v>
+        <v>3388885.299281784</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2076851.297995146</v>
+        <v>3420978.981664509</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2095859.386913737</v>
+        <v>3452754.873753157</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2114656.740078831</v>
+        <v>3484193.401135608</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2133231.791045818</v>
+        <v>3515275.406654988</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2151573.26811149</v>
+        <v>3545982.207956288</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2169670.229213561</v>
+        <v>3576295.65526115</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2187512.096825234</v>
+        <v>3606198.189183963</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2205088.692729409</v>
+        <v>3635672.898399531</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2222390.272554448</v>
+        <v>3664703.576967916</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>2270953.151182652</v>
+        <v>3833192.298430792</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>2287914.556124368</v>
+        <v>3862229.316188761</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>2304570.437992556</v>
+        <v>3890757.807750467</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>2320913.015645978</v>
+        <v>3918764.5038021</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>2336935.115169529</v>
+        <v>3946237.154025984</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>4277509.456248505</v>
+        <v>3973164.580058241</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>4305440.737456999</v>
+        <v>3999536.726676525</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>4332757.379833085</v>
+        <v>4025344.711029299</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>4359451.300384516</v>
+        <v>4050580.869720103</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>4385515.781089293</v>
+        <v>4075238.8035707</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>4148679.925578616</v>
+        <v>3680989.316617112</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>4172256.371065659</v>
+        <v>3702600.674778486</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>4195233.580219085</v>
+        <v>3723690.029721843</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>4217610.666559218</v>
+        <v>3744256.337885962</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>4239388.208742813</v>
+        <v>3764299.854546647</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>4260568.277991608</v>
+        <v>3783822.159391264</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>4281154.462091384</v>
+        <v>3802826.179085458</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>4301151.885831005</v>
+        <v>3821316.20671246</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>4320567.227776824</v>
+        <v>3839297.917988157</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>4339408.733261153</v>
+        <v>3856778.384140082</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>3261737.211154975</v>
+        <v>3395040.766573231</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>3276175.17305807</v>
+        <v>3410125.849054364</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>3290221.929800625</v>
+        <v>3424804.35753828</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>3303888.016234769</v>
+        <v>3439087.239600531</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>3317185.158731556</v>
+        <v>3452986.683770251</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>3330126.268658444</v>
+        <v>3466516.112848943</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>3342725.432560371</v>
+        <v>3479690.173797821</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>3354997.898964277</v>
+        <v>3492524.724109916</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>3366960.061755291</v>
+        <v>3505036.814612577</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>3378629.44004307</v>
+        <v>3517244.668615105</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>3471513.265126787</v>
+        <v>3556575.487217341</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>3482805.316421841</v>
+        <v>3568312.323414119</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>3493857.00288797</v>
+        <v>3579804.370263181</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>3504690.611818173</v>
+        <v>3591074.434707449</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>3515329.420363713</v>
+        <v>3602146.342187083</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>3525797.651697183</v>
+        <v>3613044.891983778</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>3536120.427074881</v>
+        <v>3623795.808351746</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>3546323.713716328</v>
+        <v>3634425.687349672</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>3556434.268422437</v>
+        <v>3644961.939291673</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>3566479.576847383</v>
+        <v>3655432.726728595</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>3576487.788353083</v>
+        <v>3665866.897885169</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>3586487.64636008</v>
+        <v>3676293.915462994</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>3596508.414134943</v>
+        <v>3686743.780746231</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>3606579.795936582</v>
+        <v>3697246.952928734</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>3616731.853473726</v>
+        <v>3707834.263611849</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>3626994.917624923</v>
+        <v>3718536.826421198</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>3637399.495384825</v>
+        <v>3729385.94170343</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>3647976.172026838</v>
+        <v>3740412.996290877</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>3658755.508482116</v>
+        <v>3751649.358332188</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>3669767.933961058</v>
+        <v>3763126.26721382</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>3681043.633875981</v>
+        <v>3774874.718630632</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>3692612.433142659</v>
+        <v>3786925.344883303</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>3704503.674988205</v>
+        <v>3799308.290531385</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>3716746.095412835</v>
+        <v>3812053.083551436</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>3729367.693517943</v>
+        <v>3825188.502216199</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>3742395.59793624</v>
+        <v>3838742.437934902</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>3755855.929674278</v>
+        <v>3852741.754371205</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>3769773.661709284</v>
+        <v>3867212.143187949</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>3784172.47576186</v>
+        <v>3882177.976849611</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>3799074.616713568</v>
+        <v>3897662.158962271</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>3814500.745206627</v>
+        <v>3913685.972701021</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>3830469.789036723</v>
+        <v>3930268.92795068</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>3846998.794010522</v>
+        <v>3947428.607848088</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>3864102.775015097</v>
+        <v>3965180.515492109</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>3881794.568115359</v>
+        <v>3983537.921658471</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>3900084.684567128</v>
+        <v>4002511.714430354</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>3918981.167709026</v>
+        <v>4022110.251733501</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>3938489.453743427</v>
+        <v>4042339.217813387</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>3958612.237511252</v>
+        <v>4063201.484789383</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>3979349.344396639</v>
+        <v>4084696.980453511</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>24038906.3850759</v>
+        <v>9760351.082809815</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>28931.17366267106</v>
+        <v>11758.76019983362</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>29370.96996600106</v>
+        <v>11949.75427027961</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>29820.12961069287</v>
+        <v>12144.95396997498</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>30278.97595935772</v>
+        <v>12344.50409840904</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>30747.84532008644</v>
+        <v>12548.55533415814</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>31227.08730381621</v>
+        <v>12757.26441115494</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>31717.06517595852</v>
+        <v>12970.79429370109</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>32218.15620086791</v>
+        <v>13189.31434963278</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>32730.75197723418</v>
+        <v>13413.00052084013</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>33255.25876313686</v>
+        <v>13642.03549060374</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>33792.09778907381</v>
+        <v>13876.6088470324</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>34341.70555676104</v>
+        <v>14116.91724166776</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>34904.53412245605</v>
+        <v>14363.16454270769</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>35481.0513622764</v>
+        <v>14615.56198176779</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>36071.74121807304</v>
+        <v>14874.3282935397</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>36677.10392130951</v>
+        <v>15139.68984724278</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>37297.656193139</v>
+        <v>15411.88076906189</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>37933.93141843074</v>
+        <v>15691.14305457557</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>38586.47979127956</v>
+        <v>15977.72667008019</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>39255.86843015016</v>
+        <v>16271.88964196266</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>39942.68145983873</v>
+        <v>16573.89813286533</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>40647.52005818983</v>
+        <v>16884.02650368943</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>41371.00246518651</v>
+        <v>17202.55736034285</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>42113.76395169138</v>
+        <v>17529.78158398707</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>42876.45674582875</v>
+        <v>17865.99834382429</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>43659.74991421455</v>
+        <v>18211.51509113131</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>44464.32919577739</v>
+        <v>18566.6475334593</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>45290.8967858418</v>
+        <v>18931.71958788026</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>46140.17106781359</v>
+        <v>19307.0633120117</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>47012.88629040297</v>
+        <v>19693.01881179098</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>47909.79218796983</v>
+        <v>20089.93412481426</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>48831.65354171403</v>
+        <v>20498.16507810304</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>49779.24967969092</v>
+        <v>20918.07511926008</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>50753.37391341887</v>
+        <v>21350.03511987756</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>51754.83290932302</v>
+        <v>21794.42315025214</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>52784.44599287015</v>
+        <v>22251.62422428896</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>53843.04438405027</v>
+        <v>22722.03001380536</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>54931.47036235551</v>
+        <v>23206.03853122489</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>56050.57635997441</v>
+        <v>23704.05377988364</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>57201.22398179524</v>
+        <v>24216.48537111132</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>58384.28295163765</v>
+        <v>24743.7481075929</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>59600.62998317974</v>
+        <v>25286.26153210758</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>60851.14757564523</v>
+        <v>25844.44944141342</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>62136.72273341841</v>
+        <v>26418.73936466192</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>63458.24560953621</v>
+        <v>27009.56200605499</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>64816.60807353072</v>
+        <v>27617.35065167673</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>66212.70220344847</v>
+        <v>28242.54054015649</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>67647.41870317706</v>
+        <v>28885.56819737348</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>69121.64524604419</v>
+        <v>29546.87073534408</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>70636.2647457352</v>
+        <v>30226.88511546906</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>72192.15355647876</v>
+        <v>30926.0473767066</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>73790.17960416783</v>
+        <v>31644.79182912058</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>75431.20045115406</v>
+        <v>32383.55021371718</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>77116.06129681887</v>
+        <v>33142.75082921832</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>78845.59291737618</v>
+        <v>33922.81762700727</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>80620.60954829578</v>
+        <v>34724.16927546414</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>82441.90671264996</v>
+        <v>35547.21819488249</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>84310.25899999785</v>
+        <v>36392.36956473464</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>86226.41780011912</v>
+        <v>37260.02030493821</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>88191.10899634421</v>
+        <v>38150.55803297864</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>90205.03062373254</v>
+        <v>39064.35999897791</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>92268.85049802369</v>
+        <v>40001.79200110874</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>94383.20382054512</v>
+        <v>40963.2072834543</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>96548.69076636239</v>
+        <v>41948.94541934349</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>98765.8740612913</v>
+        <v>42959.3311824956</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>101035.2765554267</v>
+        <v>43994.67340921297</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>103357.37880023</v>
+        <v>45055.26385462297</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>105732.616636596</v>
+        <v>46141.37604616185</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>108161.3788017988</v>
+        <v>47253.26413773018</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>110644.0045636592</v>
+        <v>48391.16176817372</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>113180.7813897605</v>
+        <v>49555.28092755037</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>115771.9426607393</v>
+        <v>50745.81083519986</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>118417.6654360648</v>
+        <v>51962.91683339922</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>121118.0682812925</v>
+        <v>53206.73930067263</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>123873.2091657631</v>
+        <v>54477.39258885363</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>126683.0834399593</v>
+        <v>55774.96398813967</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>129547.6219014596</v>
+        <v>57099.51272429717</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>132466.6889589678</v>
+        <v>58451.06899245</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>135440.0809033826</v>
+        <v>59829.63303169597</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>138467.524295167</v>
+        <v>61235.17424496572</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>141548.6744770557</v>
+        <v>62667.63036847806</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>144683.1142210836</v>
+        <v>64126.90669516178</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>147870.3525186485</v>
+        <v>65612.87535633265</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>151109.8235223399</v>
+        <v>67125.37466596063</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>154400.885647508</v>
+        <v>68664.20853156515</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>157742.8208422041</v>
+        <v>70229.14593610451</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>161134.8340328744</v>
+        <v>71819.92049470785</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>164576.0527528782</v>
+        <v>73436.23008999435</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>168065.5269615471</v>
+        <v>75077.73659004644</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>171602.2290596815</v>
+        <v>76744.06565232585</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>175185.0541075802</v>
+        <v>78434.80661694112</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>178812.8202513684</v>
+        <v>80149.51249255761</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>182484.2693623695</v>
+        <v>81887.70003781203</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>186198.0678936799</v>
+        <v>83648.84994085901</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>189952.8079579817</v>
+        <v>85432.40709964112</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>193747.0086293317</v>
+        <v>87237.78100491727</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>197579.1174713788</v>
+        <v>89064.34622797176</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>201447.5122935555</v>
+        <v>90911.44301453432</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>205350.5031359127</v>
+        <v>92778.37798606187</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>209286.3344831245</v>
+        <v>94664.42494947602</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>213253.1877063259</v>
+        <v>96568.82581561737</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>217249.183731465</v>
+        <v>98490.79162669001</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>221272.3859321581</v>
+        <v>100429.5036926543</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>225320.8032429982</v>
+        <v>102384.1148356029</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>229392.3934901218</v>
+        <v>104353.7507415321</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>233485.0669333382</v>
+        <v>106337.5114177799</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>237596.6900146205</v>
+        <v>108334.472754606</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>241725.0893060436</v>
+        <v>110343.6881885992</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>245868.055649659</v>
+        <v>112364.1904653002</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>250023.3484812781</v>
+        <v>114394.9934981676</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>254188.7003286669</v>
+        <v>116435.0943203147</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>258361.8214747118</v>
+        <v>118483.4751254399</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>262540.4047744976</v>
+        <v>120539.1053935962</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>266722.1306150863</v>
+        <v>122600.944097332</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>270904.672005857</v>
+        <v>124667.9419832722</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>275085.6997866787</v>
+        <v>126739.0439238876</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>279262.8879402653</v>
+        <v>128813.1913337267</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>283433.9189950014</v>
+        <v>130889.3246443042</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>287596.4895034602</v>
+        <v>132966.3858312917</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>291748.3155816759</v>
+        <v>135043.3209875237</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>295887.1384935569</v>
+        <v>137119.0829349579</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>300010.7302646402</v>
+        <v>139192.6338685776</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>304116.8993089068</v>
+        <v>141262.9480249368</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>308203.496052207</v>
+        <v>143329.0143679007</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>312268.4185354366</v>
+        <v>145389.8392838694</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>316309.6179808676</v>
+        <v>147444.4492788318</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>320325.1043042946</v>
+        <v>149491.8936691696</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>324312.9515565767</v>
+        <v>151531.2472584875</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>328271.3032769083</v>
+        <v>153561.6129920935</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>332198.3777418604</v>
+        <v>155582.1245814658</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>336092.473093009</v>
+        <v>157591.9490904049</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>339951.9723267516</v>
+        <v>159590.2894748519</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>343775.348130982</v>
+        <v>161576.3870687864</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>347561.1675518057</v>
+        <v>163549.5240078403</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>351308.0964763212</v>
+        <v>165509.0255835259</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>355014.9039159936</v>
+        <v>167454.262520205</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>358680.4660766122</v>
+        <v>169384.6531675356</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>362303.7702018087</v>
+        <v>171299.6656015369</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>365883.9181768732</v>
+        <v>173198.8196272292</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>369420.129881015</v>
+        <v>175081.6886764089</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>372911.7462771733</v>
+        <v>176947.90159451</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>376358.2322284224</v>
+        <v>178797.1443104187</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>379759.1790322061</v>
+        <v>180629.1613840886</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>383114.3066631944</v>
+        <v>182443.7574265459</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>386423.4657180435</v>
+        <v>184240.798388007</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>389686.6390546193</v>
+        <v>186020.2127094462</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>392903.9431210484</v>
+        <v>187781.9923342459</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>396075.6289698171</v>
+        <v>189526.193576462</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>399202.0829533363</v>
+        <v>191252.9378427737</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>402283.8270994871</v>
+        <v>192962.4122061704</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>405321.5191652137</v>
+        <v>194654.8698291867</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>408315.9523689653</v>
+        <v>196330.6302357971</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>411268.0548024827</v>
+        <v>197990.0794309238</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>414178.8885244788</v>
+        <v>199633.6698674871</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>417049.64833991</v>
+        <v>201261.920261488</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>419881.6602683924</v>
+        <v>202875.4152555404</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>422676.3797084171</v>
+        <v>204474.8049327834</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>425435.3893030105</v>
+        <v>206060.8041826241</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>428160.3965150334</v>
+        <v>207634.1919210193</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>430853.230920457</v>
+        <v>209195.8101680997</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>433515.841229245</v>
+        <v>210746.5629865899</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>436150.2920444395</v>
+        <v>212287.4152849902</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>438758.7603703769</v>
+        <v>213819.3914896797</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>441343.53188277</v>
+        <v>215343.5740910291</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>443906.996973303</v>
+        <v>216861.102068612</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>446451.6465822417</v>
+        <v>218373.1692010773</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>448980.0678336342</v>
+        <v>219881.0222668246</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>451494.9394880468</v>
+        <v>221385.9591418649</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>453999.0272280248</v>
+        <v>222889.3268014324</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>456495.1787924619</v>
+        <v>224392.5192324692</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>458986.3189761405</v>
+        <v>225896.9752642121</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>461475.4445111806</v>
+        <v>227404.176324417</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>463965.6188472253</v>
+        <v>228915.6441288753</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>466459.9668477707</v>
+        <v>230432.9383122434</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>468961.6694198764</v>
+        <v>231957.654008195</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>471473.95809457</v>
+        <v>233491.4193870283</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>474000.1095755563</v>
+        <v>235035.8931590907</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>476543.4402733754</v>
+        <v>236592.7620522303</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>479107.3008424806</v>
+        <v>238163.7382717312</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>481695.0707381996</v>
+        <v>239750.5569510254</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>484310.1528103013</v>
+        <v>241354.9736014288</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>486955.967949711</v>
+        <v>242978.7615691507</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>489635.9498047909</v>
+        <v>244623.7095078413</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>492353.5395824419</v>
+        <v>246291.6188744466</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>495112.1809495632</v>
+        <v>247984.3014563581</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>497915.3150497563</v>
+        <v>249703.5769375991</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>500766.3756488123</v>
+        <v>251451.2705111936</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>503668.7844234371</v>
+        <v>253229.2105453932</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>506625.9464052642</v>
+        <v>255039.2263103077</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>509641.2455926861</v>
+        <v>256883.1457717905</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>512718.0407424713</v>
+        <v>258762.7934592208</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>515859.6613508855</v>
+        <v>260679.9884127505</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>519069.4038350928</v>
+        <v>262636.5422161767</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>522350.5279238387</v>
+        <v>264634.2571207697</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>525706.2532654905</v>
+        <v>266674.924264961</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>529139.7562611412</v>
+        <v>268760.3219946716</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>532654.1671295586</v>
+        <v>270892.2142886276</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>536252.5672094484</v>
+        <v>273072.3492923926</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>539937.9865044794</v>
+        <v>275302.4579648754</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>543713.4014748693</v>
+        <v>277584.2528402607</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>547581.8552689541</v>
+        <v>279919.489370716</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>551545.9806156873</v>
+        <v>282309.7219950196</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>555608.692443642</v>
+        <v>284756.6578162342</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>559772.7360446659</v>
+        <v>287261.9257176314</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>564040.7959135106</v>
+        <v>289827.1317823166</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>568415.4950594479</v>
+        <v>292453.85879119</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>572899.3945706685</v>
+        <v>295143.6658472201</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>577494.9934289779</v>
+        <v>297898.0881259035</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>582204.7285719563</v>
+        <v>300718.6367515917</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>587030.9751990071</v>
+        <v>303606.7987989889</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>591976.0473168263</v>
+        <v>306564.0374186486</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>597042.1985196359</v>
+        <v>309591.7920851905</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>602231.6229989832</v>
+        <v>312691.4789666606</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>607546.4567765237</v>
+        <v>315864.4914127278</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>612988.7791538185</v>
+        <v>319112.2005596966</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>618560.614372163</v>
+        <v>322435.9560497741</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>624263.9334747227</v>
+        <v>325837.0868616096</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>630100.6563635111</v>
+        <v>329316.9022492336</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>636072.6540435624</v>
+        <v>332876.6927863915</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>642181.7510440808</v>
+        <v>336517.7315118976</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>648429.7280104604</v>
+        <v>340241.2751737358</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>654818.3244555739</v>
+        <v>344048.5655667287</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>661349.2416634716</v>
+        <v>347940.8309610373</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>668024.1457334403</v>
+        <v>351919.2876159825</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>674844.6707581955</v>
+        <v>355985.1413767056</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>681812.4221231932</v>
+        <v>360139.589347558</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>688928.9799196895</v>
+        <v>364383.8216390418</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>696195.9024605139</v>
+        <v>368719.0231831451</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>703614.729889658</v>
+        <v>373146.3756129908</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>711186.9878743537</v>
+        <v>377667.0592013873</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>718914.1913713531</v>
+        <v>382282.2548544296</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>726797.8484570335</v>
+        <v>386993.146155139</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>734839.4642108064</v>
+        <v>391800.9214520056</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>743040.5446435378</v>
+        <v>396706.7759884275</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>751402.6006602478</v>
+        <v>401711.914067695</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>759927.1520479799</v>
+        <v>406817.5512489813</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>768615.7314797018</v>
+        <v>412024.9165697302</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>777469.8885246343</v>
+        <v>417335.2547895401</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>786491.1936555288</v>
+        <v>422749.8286506492</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>795681.2422450188</v>
+        <v>428269.9211509445</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>805041.6585409378</v>
+        <v>433896.8378241629</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>814574.0996121336</v>
+        <v>439631.9090227839</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>824280.2592570143</v>
+        <v>445476.4921994418</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>834161.8718648576</v>
+        <v>451431.9741814485</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>844220.7162230125</v>
+        <v>457499.7734346408</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>854458.6192605492</v>
+        <v>463681.3423113179</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>864877.4597208505</v>
+        <v>469978.1692780447</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>875479.1717548643</v>
+        <v>476391.7811186187</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>886265.7484273619</v>
+        <v>482923.7451077893</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>897239.2451274528</v>
+        <v>489575.6711506763</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>908401.7828768232</v>
+        <v>496349.2138839831</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>919755.5515270047</v>
+        <v>503246.0747338869</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>931302.8128376763</v>
+        <v>510268.0039257964</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>943045.9034293685</v>
+        <v>517416.8024418785</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>954987.2376020161</v>
+        <v>524694.3239211458</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>967129.3100115269</v>
+        <v>532102.4764972402</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>979474.6981969101</v>
+        <v>539643.2245691953</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>992026.0649505258</v>
+        <v>547318.5905004221</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>1004786.160522058</v>
+        <v>555130.6562400291</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>1017757.824650417</v>
+        <v>563081.5648625117</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>1030943.98841326</v>
+        <v>571173.5220192933</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>1044347.675886897</v>
+        <v>579408.7972972566</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>1057972.005609593</v>
+        <v>587789.7254794535</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>1071820.191835804</v>
+        <v>596318.707700114</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>1085895.545577675</v>
+        <v>604998.2124908613</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>1100201.475421216</v>
+        <v>613830.7767100409</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>1114741.488109022</v>
+        <v>622819.0063494708</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>1129519.188881505</v>
+        <v>631965.5772129056</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>1144538.281565264</v>
+        <v>641273.2354585751</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>1159802.568400727</v>
+        <v>650744.7980000364</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>1175315.949597442</v>
+        <v>660383.1527574055</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>1191082.422608247</v>
+        <v>670191.2587525469</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>1207106.081111367</v>
+        <v>680172.1460404999</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>1223391.113689453</v>
+        <v>690328.9154693128</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>1239941.802195994</v>
+        <v>700664.7382611588</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>1256762.519796714</v>
+        <v>711182.8554059576</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>1273857.728675801</v>
+        <v>721886.5768598514</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>1291231.977394898</v>
+        <v>732779.2805397437</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>1308889.89789407</v>
+        <v>743864.4111057301</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>1326836.202122384</v>
+        <v>755145.4785222424</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>1345075.678286856</v>
+        <v>766626.056389277</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>1363613.186707621</v>
+        <v>778309.7800344646</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>1382453.655267628</v>
+        <v>790200.3443568761</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>1401602.074445377</v>
+        <v>802301.5014134827</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>1421063.491917483</v>
+        <v>814617.0577381002</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>1440843.006721368</v>
+        <v>827150.8713845324</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>1460945.762964756</v>
+        <v>839906.848683453</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>1481376.943071615</v>
+        <v>852888.9407041663</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>1502141.760553045</v>
+        <v>866101.1394115965</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>1523245.452292206</v>
+        <v>879547.4735091222</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>1544693.270333078</v>
+        <v>893232.0039581279</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>1566490.473164077</v>
+        <v>907158.8191657846</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>1588642.316484787</v>
+        <v>921332.0298308524</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>1611154.043450316</v>
+        <v>935755.7634408075</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>1634030.874383345</v>
+        <v>950434.1584109369</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>1657277.995947354</v>
+        <v>965371.3578579363</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>1680900.549775077</v>
+        <v>980571.5030007608</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>1704903.620548153</v>
+        <v>996038.7261825493</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1729292.223522967</v>
+        <v>1011777.143506762</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1754071.291500279</v>
+        <v>1027790.847082151</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>1315707.611848977</v>
+        <v>894371.1824060458</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>1334968.128384865</v>
+        <v>908570.6812945392</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>1354538.952899281</v>
+        <v>923016.3138968707</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>1374423.672022819</v>
+        <v>937711.430092927</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>1394625.762152717</v>
+        <v>952659.3208671319</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>1415148.577255358</v>
+        <v>967863.2096052562</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>1435995.336262589</v>
+        <v>983326.2430489906</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>1457169.110069691</v>
+        <v>999051.4819107371</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1478672.808145575</v>
+        <v>1015041.891152914</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1500509.164770793</v>
+        <v>1031300.329939627</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1522680.724917152</v>
+        <v>1047829.541267351</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1545189.829786086</v>
+        <v>1064632.141283677</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1568038.60202825</v>
+        <v>1081710.608306904</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1591228.930665888</v>
+        <v>1099067.271558795</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1614762.455743155</v>
+        <v>1116704.299625398</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1638640.552734904</v>
+        <v>1134623.688664715</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1662864.316742544</v>
+        <v>1152827.250378835</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1687434.546512829</v>
+        <v>1171316.599773382</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1712351.728318154</v>
+        <v>1190093.142729222</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1737616.019735391</v>
+        <v>1209158.063410579</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1763227.233370952</v>
+        <v>1228512.311541338</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1789184.820574845</v>
+        <v>1248156.58957822</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1815487.855198504</v>
+        <v>1268091.339818198</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1842135.017444921</v>
+        <v>1288316.731473502</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1869124.577870648</v>
+        <v>1308832.647755648</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1896454.381598765</v>
+        <v>1329638.673010009</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1924121.832804355</v>
+        <v>1350734.079944556</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1952123.879539246</v>
+        <v>1372117.81700055</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1980456.998964331</v>
+        <v>1393788.495914488</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>2009117.183060829</v>
+        <v>1415744.379523302</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>2038099.924893235</v>
+        <v>1437983.369866272</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>2067400.205501971</v>
+        <v>1460502.996641412</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>2097012.481502317</v>
+        <v>1483300.40607363</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>2126930.673470617</v>
+        <v>1506372.350255687</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>2157148.155199892</v>
+        <v>1529715.177024408</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>2187657.743906911</v>
+        <v>1553324.820435163</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>2218451.691474487</v>
+        <v>1577196.791899526</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>2249521.676816475</v>
+        <v>1601326.172054276</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>2280858.799446257</v>
+        <v>1625707.603425895</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>2312453.574335605</v>
+        <v>1650335.283959666</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>2344295.928148406</v>
+        <v>1675202.961481517</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>2376375.196930222</v>
+        <v>1700303.929158896</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>2408680.125337665</v>
+        <v>1725631.022029848</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>2441198.86748265</v>
+        <v>1751176.61466373</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>2473918.989474564</v>
+        <v>1776932.620023425</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>2506827.473726377</v>
+        <v>1802890.489587351</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>2539910.725102433</v>
+        <v>1829041.214798667</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>2573154.578966031</v>
+        <v>1855375.329895549</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>2606544.311195097</v>
+        <v>1881882.916184371</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>2640064.650215779</v>
+        <v>1908553.607804899</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>2673699.791108041</v>
+        <v>1935376.599040192</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>2707433.411823679</v>
+        <v>1962340.653214561</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>2741248.691556063</v>
+        <v>1989434.113222542</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2775128.331288698</v>
+        <v>2016644.913723483</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2809054.576544881</v>
+        <v>2043960.595033121</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2776109.664221636</v>
+        <v>2120521.634471668</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2809337.172545706</v>
+        <v>2148660.453621047</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2842557.399756503</v>
+        <v>2176866.122886813</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2875751.500148525</v>
+        <v>2205124.449823134</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2908900.325031503</v>
+        <v>2233420.936107907</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2941984.457745175</v>
+        <v>2261740.802485586</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2974984.250725699</v>
+        <v>2290069.015482902</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>3007879.864562954</v>
+        <v>2318390.315866735</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>3040651.308987085</v>
+        <v>2346689.248812374</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>3073278.48571193</v>
+        <v>2374950.1957418</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>3105741.233043332</v>
+        <v>2403157.407775982</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>3138019.372164967</v>
+        <v>2431295.040748251</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>3170092.754988556</v>
+        <v>2459347.191705178</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>3201941.31345814</v>
+        <v>2487297.936822897</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>3233545.110182997</v>
+        <v>2515131.370654231</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>3388885.299281784</v>
+        <v>2718548.169082252</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>3420978.981664509</v>
+        <v>2748003.415150056</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>3452754.873753157</v>
+        <v>2777282.786406966</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>3484193.401135608</v>
+        <v>2806369.801298669</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>3515275.406654988</v>
+        <v>2835248.225323894</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>3545982.207956288</v>
+        <v>2863902.119190729</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>3576295.65526115</v>
+        <v>2892315.88755073</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>3606198.189183963</v>
+        <v>2920474.328164985</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>3635672.898399531</v>
+        <v>2948362.681352416</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>3664703.576967916</v>
+        <v>2975966.679565141</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3833192.298430792</v>
+        <v>3357004.447980946</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3862229.316188761</v>
+        <v>3387178.643211743</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3890757.807750467</v>
+        <v>3416991.000673671</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3918764.5038021</v>
+        <v>3446428.323549514</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3946237.154025984</v>
+        <v>3475478.238103994</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3973164.580058241</v>
+        <v>3504129.246194791</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3999536.726676525</v>
+        <v>3532370.776665416</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>4025344.711029299</v>
+        <v>3560193.235442142</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>4050580.869720103</v>
+        <v>3587588.054156868</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>4075238.8035707</v>
+        <v>3614547.737125129</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>3680989.316617112</v>
+        <v>2987731.987874185</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3702600.674778486</v>
+        <v>3009125.303513852</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3723690.029721843</v>
+        <v>3030148.753360602</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3744256.337885962</v>
+        <v>3050800.061202636</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3764299.854546647</v>
+        <v>3071077.998759827</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3783822.159391264</v>
+        <v>3090982.413326149</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3802826.179085458</v>
+        <v>3110514.253165834</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3821316.20671246</v>
+        <v>3129675.590544996</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3839297.917988157</v>
+        <v>3148469.642297895</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3856778.384140082</v>
+        <v>3166900.787813679</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>3395040.766573231</v>
+        <v>2507578.716792593</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>3410125.849054364</v>
+        <v>2521532.456749349</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>3424804.35753828</v>
+        <v>2535216.420346554</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>3439087.239600531</v>
+        <v>2548637.815056364</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>3452986.683770251</v>
+        <v>2561804.801320354</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>3466516.112848943</v>
+        <v>2574726.492930424</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>3479690.173797821</v>
+        <v>2587412.95486073</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>3492524.724109916</v>
+        <v>2599875.198468206</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>3505036.814612577</v>
+        <v>2612125.174000451</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>3517244.668615105</v>
+        <v>2624175.760326118</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>3556575.487217341</v>
+        <v>2950090.075662323</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>3568312.323414119</v>
+        <v>2963177.362091715</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>3579804.370263181</v>
+        <v>2976090.816685729</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>3591074.434707449</v>
+        <v>2988848.82973564</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>3602146.342187083</v>
+        <v>3001470.723779388</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>3613044.891983778</v>
+        <v>3013976.721652769</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>3623795.808351746</v>
+        <v>3026387.910803585</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>3634425.687349672</v>
+        <v>3038726.203767268</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>3644961.939291673</v>
+        <v>3051014.29470468</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>3655432.726728595</v>
+        <v>3063275.611896306</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>3665866.897885169</v>
+        <v>3075534.266097946</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>3676293.915462994</v>
+        <v>3087814.994649122</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>3686743.780746231</v>
+        <v>3100143.101247023</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>3697246.952928734</v>
+        <v>3112544.391282739</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>3707834.263611849</v>
+        <v>3125045.102661286</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>3718536.826421198</v>
+        <v>3137671.832025435</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>3729385.94170343</v>
+        <v>3150451.456313323</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>3740412.996290877</v>
+        <v>3163411.049601975</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>3751649.358332188</v>
+        <v>3176577.795196988</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>3763126.26721382</v>
+        <v>3189978.892951015</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>3774874.718630632</v>
+        <v>3203641.461821808</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>3786925.344883303</v>
+        <v>3217592.437697274</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>3799308.290531385</v>
+        <v>3231858.466558656</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>3812053.083551436</v>
+        <v>3246465.793071209</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>3825188.502216199</v>
+        <v>3261440.144749323</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>3838742.437934902</v>
+        <v>3276806.611864933</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>3852741.754371205</v>
+        <v>3292589.523335002</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>3867212.143187949</v>
+        <v>3308812.318853979</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>3882177.976849611</v>
+        <v>3325497.417609644</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>3897662.158962271</v>
+        <v>3342666.083965845</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>3913685.972701021</v>
+        <v>3360338.290559446</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>3930268.92795068</v>
+        <v>3378532.579328286</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>3947428.607848088</v>
+        <v>3397265.92104546</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>3965180.515492109</v>
+        <v>3416553.574007816</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>3983537.921658471</v>
+        <v>3436408.942593809</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>4002511.714430354</v>
+        <v>3456843.436476385</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>4022110.251733501</v>
+        <v>3477866.331351269</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>4042339.217813387</v>
+        <v>3499484.632091387</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>4063201.484789383</v>
+        <v>3521702.939331199</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>4084696.980453511</v>
+        <v>3544523.320522503</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
+++ b/Data/model_outputs_baseline/UFA/i_total_UFA.xlsx
@@ -443,7 +443,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>9760351.082809815</v>
+        <v>9760351.082813293</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>11758.76019983362</v>
+        <v>11758.7602000868</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>11949.75427027961</v>
+        <v>11949.75427055023</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>12144.95396997498</v>
+        <v>12144.95397026497</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>12344.50409840904</v>
+        <v>12344.50409871839</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>12548.55533415814</v>
+        <v>12548.55533448108</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>12757.26441115494</v>
+        <v>12757.26441150112</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>12970.79429370109</v>
+        <v>12970.79429407051</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>13189.31434963278</v>
+        <v>13189.31435002543</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>13413.00052084013</v>
+        <v>13413.00052125217</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>13642.03549060374</v>
+        <v>13642.03549103902</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>13876.6088470324</v>
+        <v>13876.60884749672</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>14116.91724166776</v>
+        <v>14116.91724216111</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>14363.16454270769</v>
+        <v>14363.16454322623</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>14615.56198176779</v>
+        <v>14615.56198231536</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>14874.3282935397</v>
+        <v>14874.32829411825</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>15139.68984724278</v>
+        <v>15139.68984785617</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>15411.88076906189</v>
+        <v>15411.88076970819</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>15691.14305457557</v>
+        <v>15691.14305525864</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>15977.72667008019</v>
+        <v>15977.72667079424</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>16271.88964196266</v>
+        <v>16271.88964272121</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>16573.89813286533</v>
+        <v>16573.89813366066</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>16884.02650368943</v>
+        <v>16884.02650452927</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>17202.55736034285</v>
+        <v>17202.55736122526</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>17529.78158398707</v>
+        <v>17529.78158491012</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>17865.99834382429</v>
+        <v>17865.99834479958</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>18211.51509113131</v>
+        <v>18211.51509214918</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>18566.6475334593</v>
+        <v>18566.6475345352</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>18931.71958788026</v>
+        <v>18931.71958900456</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>19307.0633120117</v>
+        <v>19307.06331319017</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>19693.01881179098</v>
+        <v>19693.01881302363</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>20089.93412481426</v>
+        <v>20089.93412610496</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>20498.16507810304</v>
+        <v>20498.16507945372</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>20918.07511926008</v>
+        <v>20918.07512067266</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>21350.03511987756</v>
+        <v>21350.03512135206</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>21794.42315025214</v>
+        <v>21794.42315179243</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>22251.62422428896</v>
+        <v>22251.62422589696</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>22722.03001380536</v>
+        <v>22722.03001548302</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>23206.03853122489</v>
+        <v>23206.038532978</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>23704.05377988364</v>
+        <v>23704.05378170255</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>24216.48537111132</v>
+        <v>24216.48537300569</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>24743.7481075929</v>
+        <v>24743.74810956079</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>25286.26153210758</v>
+        <v>25286.26153416059</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>25844.44944141342</v>
+        <v>25844.44944354963</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>26418.73936466192</v>
+        <v>26418.73936686782</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>27009.56200605499</v>
+        <v>27009.56200835375</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>27617.35065167673</v>
+        <v>27617.35065406063</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>28242.54054015649</v>
+        <v>28242.54054262167</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>28885.56819737348</v>
+        <v>28885.56819993154</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>29546.87073534408</v>
+        <v>29546.87073798923</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>30226.88511546906</v>
+        <v>30226.8851182071</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>30926.0473767066</v>
+        <v>30926.0473795414</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>31644.79182912058</v>
+        <v>31644.79183204828</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>32383.55021371718</v>
+        <v>32383.55021674165</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>33142.75082921832</v>
+        <v>33142.7508323357</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>33922.81762700727</v>
+        <v>33922.81763022336</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>34724.16927546414</v>
+        <v>34724.16927878282</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>35547.21819488249</v>
+        <v>35547.21819829218</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>36392.36956473464</v>
+        <v>36392.36956825271</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>37260.02030493821</v>
+        <v>37260.02030855504</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>38150.55803297864</v>
+        <v>38150.55803668842</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>39064.35999897791</v>
+        <v>39064.36000279609</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>40001.79200110874</v>
+        <v>40001.79200502571</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>40963.2072834543</v>
+        <v>40963.20728747391</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>41948.94541934349</v>
+        <v>41948.94542347153</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>42959.3311824956</v>
+        <v>42959.33118671472</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>43994.67340921297</v>
+        <v>43994.67341353282</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>45055.26385462297</v>
+        <v>45055.26385904357</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>46141.37604616185</v>
+        <v>46141.3760506832</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>47253.26413773018</v>
+        <v>47253.26414234265</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>48391.16176817372</v>
+        <v>48391.16177289081</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>49555.28092755037</v>
+        <v>49555.28093236437</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>50745.81083519986</v>
+        <v>50745.81084010115</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>51962.91683339922</v>
+        <v>51962.91683839744</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>53206.73930067263</v>
+        <v>53206.7393057543</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>54477.39258885363</v>
+        <v>54477.39259402838</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>55774.96398813967</v>
+        <v>55774.96399340173</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>57099.51272429717</v>
+        <v>57099.51272963692</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>58451.06899245</v>
+        <v>58451.06899786938</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>59829.63303169597</v>
+        <v>59829.63303719496</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>61235.17424496572</v>
+        <v>61235.17425053662</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>62667.63036847806</v>
+        <v>62667.63037411895</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>64126.90669516178</v>
+        <v>64126.90670087075</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>65612.87535633265</v>
+        <v>65612.87536210776</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>67125.37466596063</v>
+        <v>67125.37467178839</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>68664.20853156515</v>
+        <v>68664.20853745524</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>70229.14593610451</v>
+        <v>70229.1459420376</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>71819.92049470785</v>
+        <v>71819.92050069748</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>73436.23008999435</v>
+        <v>73436.23009601542</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>75077.73659004644</v>
+        <v>75077.73659611055</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>76744.06565232585</v>
+        <v>76744.06565842529</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>78434.80661694112</v>
+        <v>78434.8066230566</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>80149.51249255761</v>
+        <v>80149.51249870457</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>81887.70003781203</v>
+        <v>81887.70004396926</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>83648.84994085901</v>
+        <v>83648.84994702072</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>85432.40709964112</v>
+        <v>85432.40710581504</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>87237.78100491727</v>
+        <v>87237.78101108412</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>89064.34622797176</v>
+        <v>89064.34623414121</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>90911.44301453432</v>
+        <v>90911.44302067738</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>92778.37798606187</v>
+        <v>92778.37799219592</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>94664.42494947602</v>
+        <v>94664.42495558372</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>96568.82581561737</v>
+        <v>96568.82582168908</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>98490.79162669001</v>
+        <v>98490.79163272765</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>100429.5036926543</v>
+        <v>100429.5036986463</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>102384.1148356029</v>
+        <v>102384.1148415453</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>104353.7507415321</v>
+        <v>104353.7507474174</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>106337.5114177799</v>
+        <v>106337.5114236061</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>108334.472754606</v>
+        <v>108334.4727603634</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>110343.6881885992</v>
+        <v>110343.6881942801</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>112364.1904653002</v>
+        <v>112364.1904709007</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>114394.9934981676</v>
+        <v>114394.9935036781</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>116435.0943203147</v>
+        <v>116435.094325739</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>118483.4751254399</v>
+        <v>118483.4751307627</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>120539.1053935962</v>
+        <v>120539.1053988154</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>122600.944097332</v>
+        <v>122600.9441024438</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>124667.9419832722</v>
+        <v>124667.9419882709</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>126739.0439238876</v>
+        <v>126739.0439287654</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>128813.1913337267</v>
+        <v>128813.1913384759</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>130889.3246443042</v>
+        <v>130889.3246489287</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>132966.3858312917</v>
+        <v>132966.3858357856</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>135043.3209875237</v>
+        <v>135043.3209918737</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>137119.0829349579</v>
+        <v>137119.0829391696</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>139192.6338685776</v>
+        <v>139192.6338726452</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>141262.9480249368</v>
+        <v>141262.9480288566</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>143329.0143679007</v>
+        <v>143329.0143716667</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>145389.8392838694</v>
+        <v>145389.8392874836</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>147444.4492788318</v>
+        <v>147444.4492822788</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>149491.8936691696</v>
+        <v>149491.8936724706</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>151531.2472584875</v>
+        <v>151531.2472616213</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>153561.6129920935</v>
+        <v>153561.6129950601</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>155582.1245814658</v>
+        <v>155582.1245842729</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>157591.9490904049</v>
+        <v>157591.9490930446</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>159590.2894748519</v>
+        <v>159590.2894773321</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>161576.3870687864</v>
+        <v>161576.3870710898</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>163549.5240078403</v>
+        <v>163549.5240099841</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>165509.0255835259</v>
+        <v>165509.0255855082</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>167454.262520205</v>
+        <v>167454.26252202</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>169384.6531675356</v>
+        <v>169384.6531691872</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>171299.6656015369</v>
+        <v>171299.665603029</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>173198.8196272292</v>
+        <v>173198.8196285598</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>175081.6886764089</v>
+        <v>175081.6886775837</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>176947.90159451</v>
+        <v>176947.9015955291</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>178797.1443104187</v>
+        <v>178797.1443112917</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>180629.1613840886</v>
+        <v>180629.1613848059</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>182443.7574265459</v>
+        <v>182443.7574271287</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>184240.798388007</v>
+        <v>184240.7983884437</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>186020.2127094462</v>
+        <v>186020.2127097464</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>187781.9923342459</v>
+        <v>187781.9923344154</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>189526.193576462</v>
+        <v>189526.1935765065</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>191252.9378427737</v>
+        <v>191252.9378427049</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>192962.4122061704</v>
+        <v>192962.4122059825</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>194654.8698291867</v>
+        <v>194654.8698288872</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>196330.6302357971</v>
+        <v>196330.6302353979</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>197990.0794309238</v>
+        <v>197990.0794304208</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>199633.6698674871</v>
+        <v>199633.6698669055</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>201261.920261488</v>
+        <v>201261.9202608142</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>202875.4152555404</v>
+        <v>202875.4152548015</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>204474.8049327834</v>
+        <v>204474.804931962</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>206060.8041826241</v>
+        <v>206060.8041817528</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>207634.1919210193</v>
+        <v>207634.1919200887</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>209195.8101680997</v>
+        <v>209195.8101671213</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>210746.5629865899</v>
+        <v>210746.5629855791</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>212287.4152849902</v>
+        <v>212287.415283945</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>213819.3914896797</v>
+        <v>213819.3914886117</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>215343.5740910291</v>
+        <v>215343.5740899481</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>216861.102068612</v>
+        <v>216861.1020675275</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>218373.1692010773</v>
+        <v>218373.1691999893</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>219881.0222668246</v>
+        <v>219881.0222657504</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>221385.9591418649</v>
+        <v>221385.9591408086</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>222889.3268014324</v>
+        <v>222889.3268003995</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>224392.5192324692</v>
+        <v>224392.5192314676</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>225896.9752642121</v>
+        <v>225896.975263261</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>227404.176324417</v>
+        <v>227404.1763235087</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>228915.6441288753</v>
+        <v>228915.6441280291</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>230432.9383122434</v>
+        <v>230432.9383114554</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>231957.654008195</v>
+        <v>231957.6540074846</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>233491.4193870283</v>
+        <v>233491.4193863992</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>235035.8931590907</v>
+        <v>235035.8931585508</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>236592.7620522303</v>
+        <v>236592.7620517832</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>238163.7382717312</v>
+        <v>238163.7382713848</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>239750.5569510254</v>
+        <v>239750.5569507874</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>241354.9736014288</v>
+        <v>241354.9736013069</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>242978.7615691507</v>
+        <v>242978.7615691526</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>244623.7095078413</v>
+        <v>244623.709507967</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>246291.6188744466</v>
+        <v>246291.6188747077</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>247984.3014563581</v>
+        <v>247984.3014567507</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>249703.5769375991</v>
+        <v>249703.5769381387</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>251451.2705111936</v>
+        <v>251451.2705118878</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>253229.2105453932</v>
+        <v>253229.2105462383</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>255039.2263103077</v>
+        <v>255039.2263113074</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>256883.1457717905</v>
+        <v>256883.1457729526</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>258762.7934592208</v>
+        <v>258762.7934605568</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>260679.9884127505</v>
+        <v>260679.9884142489</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>262636.5422161767</v>
+        <v>262636.5422178491</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>264634.2571207697</v>
+        <v>264634.2571226237</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>266674.924264961</v>
+        <v>266674.9242669851</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>268760.3219946716</v>
+        <v>268760.3219968888</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>270892.2142886276</v>
+        <v>270892.2142910148</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>273072.3492923926</v>
+        <v>273072.3492949731</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>275302.4579648754</v>
+        <v>275302.4579676451</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>277584.2528402607</v>
+        <v>277584.2528432159</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>279919.489370716</v>
+        <v>279919.4893738534</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>282309.7219950196</v>
+        <v>282309.721998358</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>284756.6578162342</v>
+        <v>284756.6578197542</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>287261.9257176314</v>
+        <v>287261.9257213445</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>289827.1317823166</v>
+        <v>289827.1317862268</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>292453.85879119</v>
+        <v>292453.8587952818</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>295143.6658472201</v>
+        <v>295143.6658514934</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>297898.0881259035</v>
+        <v>297898.0881303776</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>300718.6367515917</v>
+        <v>300718.6367562512</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>303606.7987989889</v>
+        <v>303606.79880383</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>306564.0374186486</v>
+        <v>306564.037423671</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>309591.7920851905</v>
+        <v>309591.7920903945</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>312691.4789666606</v>
+        <v>312691.4789720421</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>315864.4914127278</v>
+        <v>315864.4914182831</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>319112.2005596966</v>
+        <v>319112.2005654332</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>322435.9560497741</v>
+        <v>322435.9560556766</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>325837.0868616096</v>
+        <v>325837.0868676936</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>329316.9022492336</v>
+        <v>329316.9022554641</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>332876.6927863915</v>
+        <v>332876.6927927957</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>336517.7315118976</v>
+        <v>336517.7315184445</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>340241.2751737358</v>
+        <v>340241.2751804522</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>344048.5655667287</v>
+        <v>344048.5655735877</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>347940.8309610373</v>
+        <v>347940.8309680427</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>351919.2876159825</v>
+        <v>351919.287623142</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>355985.1413767056</v>
+        <v>355985.1413839845</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>360139.589347558</v>
+        <v>360139.5893549793</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>364383.8216390418</v>
+        <v>364383.8216465976</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>368719.0231831451</v>
+        <v>368719.023190824</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>373146.3756129908</v>
+        <v>373146.3756207773</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>377667.0592013873</v>
+        <v>377667.0592093006</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>382282.2548544296</v>
+        <v>382282.2548624579</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>386993.146155139</v>
+        <v>386993.146163263</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>391800.9214520056</v>
+        <v>391800.921460237</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>396706.7759884275</v>
+        <v>396706.7759967545</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>401711.914067695</v>
+        <v>401711.9140761097</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>406817.5512489813</v>
+        <v>406817.5512574877</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>412024.9165697302</v>
+        <v>412024.9165783087</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>417335.2547895401</v>
+        <v>417335.2547982024</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>422749.8286506492</v>
+        <v>422749.8286593758</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>428269.9211509445</v>
+        <v>428269.9211597469</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>433896.8378241629</v>
+        <v>433896.8378330218</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>439631.9090227839</v>
+        <v>439631.909031699</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>445476.4921994418</v>
+        <v>445476.4922084093</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>451431.9741814485</v>
+        <v>451431.9741904567</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>457499.7734346408</v>
+        <v>457499.7734436933</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>463681.3423113179</v>
+        <v>463681.3423204147</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>469978.1692780447</v>
+        <v>469978.1692871663</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>476391.7811186187</v>
+        <v>476391.781127769</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>482923.7451077893</v>
+        <v>482923.7451169604</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>489575.6711506763</v>
+        <v>489575.6711598603</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>496349.2138839831</v>
+        <v>496349.2138931798</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>503246.0747338869</v>
+        <v>503246.0747430963</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>510268.0039257964</v>
+        <v>510268.0039350029</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>517416.8024418785</v>
+        <v>517416.8024510896</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>524694.3239211458</v>
+        <v>524694.3239303459</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>532102.4764972402</v>
+        <v>532102.4765064371</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>539643.2245691953</v>
+        <v>539643.2245783653</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>547318.5905004221</v>
+        <v>547318.5905095732</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>555130.6562400291</v>
+        <v>555130.6562491531</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>563081.5648625117</v>
+        <v>563081.564871624</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>571173.5220192933</v>
+        <v>571173.5220283549</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>579408.7972972566</v>
+        <v>579408.7973063067</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>587789.7254794535</v>
+        <v>587789.7254884292</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>596318.707700114</v>
+        <v>596318.7077090543</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>604998.2124908613</v>
+        <v>604998.2124997581</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>613830.7767100409</v>
+        <v>613830.7767188788</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>622819.0063494708</v>
+        <v>622819.0063582496</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>631965.5772129056</v>
+        <v>631965.5772216328</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>641273.2354585751</v>
+        <v>641273.2354672274</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>650744.7980000364</v>
+        <v>650744.7980086214</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>660383.1527574055</v>
+        <v>660383.1527659231</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>670191.2587525469</v>
+        <v>670191.2587609813</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>680172.1460404999</v>
+        <v>680172.1460488435</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>690328.9154693128</v>
+        <v>690328.9154775809</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>700664.7382611588</v>
+        <v>700664.7382693436</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>711182.8554059576</v>
+        <v>711182.8554140433</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>721886.5768598514</v>
+        <v>721886.5768678227</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>732779.2805397437</v>
+        <v>732779.2805476391</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>743864.4111057301</v>
+        <v>743864.4111135108</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>755145.4785222424</v>
+        <v>755145.4785299159</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>766626.056389277</v>
+        <v>766626.0563968435</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>778309.7800344646</v>
+        <v>778309.7800419166</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>790200.3443568761</v>
+        <v>790200.3443642057</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>802301.5014134827</v>
+        <v>802301.5014206819</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>814617.0577381002</v>
+        <v>814617.0577451925</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>827150.8713845324</v>
+        <v>827150.8713914795</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>839906.848683453</v>
+        <v>839906.8486902621</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>852888.9407041663</v>
+        <v>852888.940710861</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>866101.1394115965</v>
+        <v>866101.1394181306</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>879547.4735091222</v>
+        <v>879547.4735154958</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>893232.0039581279</v>
+        <v>893232.0039643873</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>907158.8191657846</v>
+        <v>907158.8191718607</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>921332.0298308524</v>
+        <v>921332.0298367763</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>935755.7634408075</v>
+        <v>935755.7634465873</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>950434.1584109369</v>
+        <v>950434.1584165341</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>965371.3578579363</v>
+        <v>965371.3578633589</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>980571.5030007608</v>
+        <v>980571.503006017</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>996038.7261825493</v>
+        <v>996038.7261876317</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>1011777.143506762</v>
+        <v>1011777.143511663</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>1027790.847082151</v>
+        <v>1027790.847086857</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>894371.1824060458</v>
+        <v>894371.1824099153</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>908570.6812945392</v>
+        <v>908570.6812982347</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>923016.3138968707</v>
+        <v>923016.3139003996</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>937711.430092927</v>
+        <v>937711.4300962758</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>952659.3208671319</v>
+        <v>952659.3208702949</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>967863.2096052562</v>
+        <v>967863.209608247</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>983326.2430489906</v>
+        <v>983326.2430517835</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>999051.4819107371</v>
+        <v>999051.4819133192</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>1015041.891152914</v>
+        <v>1015041.891155298</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>1031300.329939627</v>
+        <v>1031300.329941841</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>1047829.541267351</v>
+        <v>1047829.54126933</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>1064632.141283677</v>
+        <v>1064632.141285447</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>1081710.608306904</v>
+        <v>1081710.608308452</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>1099067.271558795</v>
+        <v>1099067.271560109</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>1116704.299625398</v>
+        <v>1116704.299626504</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>1134623.688664715</v>
+        <v>1134623.688665574</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>1152827.250378835</v>
+        <v>1152827.250379435</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>1171316.599773382</v>
+        <v>1171316.599773749</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>1190093.142729222</v>
+        <v>1190093.142729343</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>1209158.063410579</v>
+        <v>1209158.063410429</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>1228512.311541338</v>
+        <v>1228512.311540903</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>1248156.58957822</v>
+        <v>1248156.589577541</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>1268091.339818198</v>
+        <v>1268091.339817235</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>1288316.731473502</v>
+        <v>1288316.731472228</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>1308832.647755648</v>
+        <v>1308832.647754103</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>1329638.673010009</v>
+        <v>1329638.673008154</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>1350734.079944556</v>
+        <v>1350734.079942391</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>1372117.81700055</v>
+        <v>1372117.816998036</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>1393788.495914488</v>
+        <v>1393788.495911664</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>1415744.379523302</v>
+        <v>1415744.379520181</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>1437983.369866272</v>
+        <v>1437983.369862775</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>1460502.996641412</v>
+        <v>1460502.996637552</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>1483300.40607363</v>
+        <v>1483300.406069433</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>1506372.350255687</v>
+        <v>1506372.350251114</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>1529715.177024408</v>
+        <v>1529715.177019458</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>1553324.820435163</v>
+        <v>1553324.820429822</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>1577196.791899526</v>
+        <v>1577196.791893781</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>1601326.172054276</v>
+        <v>1601326.172048167</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>1625707.603425895</v>
+        <v>1625707.603419315</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>1650335.283959666</v>
+        <v>1650335.283952708</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>1675202.961481517</v>
+        <v>1675202.961474075</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>1700303.929158896</v>
+        <v>1700303.929151062</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>1725631.022029848</v>
+        <v>1725631.022021528</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>1751176.61466373</v>
+        <v>1751176.614654965</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>1776932.620023425</v>
+        <v>1776932.620014186</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>1802890.489587351</v>
+        <v>1802890.489577666</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>1829041.214798667</v>
+        <v>1829041.21478843</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>1855375.329895549</v>
+        <v>1855375.329884825</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>1881882.916184371</v>
+        <v>1881882.916173187</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>1908553.607804899</v>
+        <v>1908553.607793161</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>1935376.599040192</v>
+        <v>1935376.599027926</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>1962340.653214561</v>
+        <v>1962340.653201781</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>1989434.113222542</v>
+        <v>1989434.113209207</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>2016644.913723483</v>
+        <v>2016644.913709621</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>2043960.595033121</v>
+        <v>2043960.595018664</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>2120521.634471668</v>
+        <v>2120521.634456299</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>2148660.453621047</v>
+        <v>2148660.45360511</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>2176866.122886813</v>
+        <v>2176866.122870308</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>2205124.449823134</v>
+        <v>2205124.449806059</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>2233420.936107907</v>
+        <v>2233420.936090183</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>2261740.802485586</v>
+        <v>2261740.802467266</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>2290069.015482902</v>
+        <v>2290069.015464013</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>2318390.315866735</v>
+        <v>2318390.315847167</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>2346689.248812374</v>
+        <v>2346689.248792238</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>2374950.1957418</v>
+        <v>2374950.195721094</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>2403157.407775982</v>
+        <v>2403157.407754653</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>2431295.040748251</v>
+        <v>2431295.040726352</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>2459347.191705178</v>
+        <v>2459347.191682602</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>2487297.936822897</v>
+        <v>2487297.936799751</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>2515131.370654231</v>
+        <v>2515131.37063057</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>2718548.169082252</v>
+        <v>2718548.169056231</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>2748003.415150056</v>
+        <v>2748003.415123513</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>2777282.786406966</v>
+        <v>2777282.786379844</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>2806369.801298669</v>
+        <v>2806369.801270879</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>2835248.225323894</v>
+        <v>2835248.225295612</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>2863902.119190729</v>
+        <v>2863902.119161808</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>2892315.88755073</v>
+        <v>2892315.887521405</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>2920474.328164985</v>
+        <v>2920474.328135166</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>2948362.681352416</v>
+        <v>2948362.681322046</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>2975966.679565141</v>
+        <v>2975966.679534394</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>3357004.447980946</v>
+        <v>3357004.447946091</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>3387178.643211743</v>
+        <v>3387178.643176531</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>3416991.000673671</v>
+        <v>3416991.000638006</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>3446428.323549514</v>
+        <v>3446428.323513589</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>3475478.238103994</v>
+        <v>3475478.238067809</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>3504129.246194791</v>
+        <v>3504129.246158314</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>3532370.776665416</v>
+        <v>3532370.776628875</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>3560193.235442142</v>
+        <v>3560193.23540547</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>3587588.054156868</v>
+        <v>3587588.054120293</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>3614547.737125129</v>
+        <v>3614547.737088521</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>2987731.987874185</v>
+        <v>2987731.987844331</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>3009125.303513852</v>
+        <v>3009125.303484129</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>3030148.753360602</v>
+        <v>3030148.753331144</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>3050800.061202636</v>
+        <v>3050800.061173551</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>3071077.998759827</v>
+        <v>3071077.998731166</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>3090982.413326149</v>
+        <v>3090982.413298044</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>3110514.253165834</v>
+        <v>3110514.253138339</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>3129675.590544996</v>
+        <v>3129675.590518218</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>3148469.642297895</v>
+        <v>3148469.64227194</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>3166900.787813679</v>
+        <v>3166900.787788705</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>2507578.716792593</v>
+        <v>2507578.716773725</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>2521532.456749349</v>
+        <v>2521532.456731463</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>2535216.420346554</v>
+        <v>2535216.42032965</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>2548637.815056364</v>
+        <v>2548637.815040609</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>2561804.801320354</v>
+        <v>2561804.801305915</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>2574726.492930424</v>
+        <v>2574726.492917282</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>2587412.95486073</v>
+        <v>2587412.954849071</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>2599875.198468206</v>
+        <v>2599875.198458155</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>2612125.174000451</v>
+        <v>2612125.173992093</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>2624175.760326118</v>
+        <v>2624175.760319684</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>2950090.075662323</v>
+        <v>2950090.075657413</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>2963177.362091715</v>
+        <v>2963177.362089144</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>2976090.816685729</v>
+        <v>2976090.816685636</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>2988848.82973564</v>
+        <v>2988848.829738261</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>3001470.723779388</v>
+        <v>3001470.723785002</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>3013976.721652769</v>
+        <v>3013976.721661377</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>3026387.910803585</v>
+        <v>3026387.910815421</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>3038726.203767268</v>
+        <v>3038726.203782566</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>3051014.29470468</v>
+        <v>3051014.294723486</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>3063275.611896306</v>
+        <v>3063275.611918807</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>3075534.266097946</v>
+        <v>3075534.266124423</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>3087814.994649122</v>
+        <v>3087814.994679715</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>3100143.101247023</v>
+        <v>3100143.101281873</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>3112544.391282739</v>
+        <v>3112544.391321986</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>3125045.102661286</v>
+        <v>3125045.10270521</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>3137671.832025435</v>
+        <v>3137671.83207413</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>3150451.456313323</v>
+        <v>3150451.456366883</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>3163411.049601975</v>
+        <v>3163411.049660775</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>3176577.795196988</v>
+        <v>3176577.795260933</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>3189978.892951015</v>
+        <v>3189978.893020246</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>3203641.461821808</v>
+        <v>3203641.461896651</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>3217592.437697274</v>
+        <v>3217592.437777825</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>3231858.466558656</v>
+        <v>3231858.466644913</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>3246465.793071209</v>
+        <v>3246465.793163173</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>3261440.144749323</v>
+        <v>3261440.144847368</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>3276806.611864933</v>
+        <v>3276806.611968825</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>3292589.523335002</v>
+        <v>3292589.523444928</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>3308812.318853979</v>
+        <v>3308812.318970033</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>3325497.417609644</v>
+        <v>3325497.417731778</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>3342666.083965845</v>
+        <v>3342666.084094015</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>3360338.290559446</v>
+        <v>3360338.290693604</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>3378532.579328286</v>
+        <v>3378532.579468477</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>3397265.92104546</v>
+        <v>3397265.921191451</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>3416553.574007816</v>
+        <v>3416553.574159701</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>3436408.942593809</v>
+        <v>3436408.942751168</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>3456843.436476385</v>
+        <v>3456843.436639309</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>3477866.331351269</v>
+        <v>3477866.331519526</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>3499484.632091387</v>
+        <v>3499484.632264603</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>3521702.939331199</v>
+        <v>3521702.939509185</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>3544523.320522503</v>
+        <v>3544523.320705167</v>
       </c>
     </row>
   </sheetData>
